--- a/data/element_4.data.xlsx
+++ b/data/element_4.data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/loivngoo/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/loivngoo/Documents/US Tuan 4/element_4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B2E61CF-2F07-9145-8651-2CAE3CE3C13E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587CAE86-6912-AF42-A68B-0F193271E91A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="17040" xr2:uid="{F972D37A-3B93-AF42-91FB-6263C8533910}"/>
   </bookViews>
@@ -33,6 +33,2657 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="882">
+  <si>
+    <t>5392770011681155|01|2026|684|Karen Smith|Karen|Smith|1835 Lincoln Street|EVANSTON|IL|60201|US|krhsmith@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>5143772445140388|07|2023|104|Silvia Alvarez-McBride|Silvia|Alvarez-McBride|7425 SW 34 Terrace|Miami|FL|33155|US|samlmhc@gmail.com|7864170482||US</t>
+  </si>
+  <si>
+    <t>4717240017693985|11|2023|195|Monica Crescentini|Monica|Crescentini|2124 Hempstead Rd|Auburn Hills|MI|48326|US|monicajean7305@gmail.com|2488212008||US</t>
+  </si>
+  <si>
+    <t>4121383107480911|05|2023|385|Jaclyn Schweitzer|Jaclyn|Schweitzer|28 Fairway Ridge|Lake Wylie|SC|29710|US|Jacnmike@gmail.com|6783628056||US</t>
+  </si>
+  <si>
+    <t>4147202129296768|01|2023|023|Barry Graul|Barry|Graul|6188 Clarkston Rd.|Clarkston|MI|48346|US|wrk4hobys1@comcast.net|2486259104||US</t>
+  </si>
+  <si>
+    <t>5178059699049582|04|2025|493|KIRSTINE PRADO|KIRSTINE|PRADO|12396 Woodbridge Dr|garden grove|CA|92843|US|kjprado@gmail.com|7143290863||US</t>
+  </si>
+  <si>
+    <t>4574310177648285|09|2025|714|Priscilla Mejia|Priscilla|Mejia|15939 Kenna Mist|San Antonio|TX|78247|US|priscilla.m.mejia@gmail.com|2107876823|1987-7-31|US</t>
+  </si>
+  <si>
+    <t>4400669867457640|03|2023|881|Adela Isais|Adela|Isais|3806 S Flower St Apt F |Santa Ana|CA|92707|US|isais.adela@gmail.com|7146751318||US</t>
+  </si>
+  <si>
+    <t>5523799267523037|11|2022|574|Russell Price|Russell|Price|7263 Battlefield Memorial Highway|Berea|Kentucky|40403|US|rusty@kyrto.com|8592000326||US</t>
+  </si>
+  <si>
+    <t>5178059467941184|05|2022|875|Rebecca Richter|Rebecca|Richter|1377 Gurley Circle|Akron|OH|44310|US|middledaughter1977@gmail.com|6308024216||US</t>
+  </si>
+  <si>
+    <t>371303241782019|07|2024|7872|Angela Masuzzo|Angela|Masuzzo|1426 E Komenda Way|Millcreek|UT|84124|US|angelam495@yahoo.com|5085274965||US</t>
+  </si>
+  <si>
+    <t>4003448808607048|07|2024|565|Jessica Brumley|Jessica|Brumley|2765 Kentucky Highway 90 East|Albany|KY|42602|US|jnbrumley@live.com|6063062935||US</t>
+  </si>
+  <si>
+    <t>5121079797643332|10|2023|030|Marie Motwani |Marie|Motwani |P.O. Box 1051 |New Hyde Park |New York |11040|US|ria128181@aol.com|5163599259||US</t>
+  </si>
+  <si>
+    <t>4788219686877735|09|2023|511|Chelsea Taylor|Chelsea|Taylor|14975 riverdale road |Brighton|Co|80602|US|Chelsea21907@gmail.com|7202407645||US</t>
+  </si>
+  <si>
+    <t>4815820302922115|05|2024|370|Jessie Alvarez |Jessie |Alvarez |26529 Bannerman Ave |Newhall |CA|91321|US|jessiealvarez36@gmail.com|8183072083||US | alphacheck.us</t>
+  </si>
+  <si>
+    <t>4124140000034063|10|2025|003|Kiersten Kephart|Kiersten|Kephart|11065 N Lapis Court|Oro Valley|Arizona|85737|US|drcas4659@gmail.com|15203364131||US | alphacheck.us</t>
+  </si>
+  <si>
+    <t>4342561981606007|06|2025|655|Leanette Flores|Leanette|Flores|11727 w boll bloom drive|Marana|AZ|85653|US|lnttfl22@aol.com|5202560211||US | alphacheck.us</t>
+  </si>
+  <si>
+    <t>5594600006400129|12|2024|681|Donna Loveless|Donna|Loveless|28 Sutton Place|Islandia|NY|11749|US|lovealot55@optonline.net|6315215388||US | alphacheck.us</t>
+  </si>
+  <si>
+    <t>266902067351856|12|2023|068|Sesami Hansen|Sesami|Hansen|4544 Alan Ln|Erda|UT|84074|US|sesamih@hotmail.com|8013907452||US | alphacheck.us</t>
+  </si>
+  <si>
+    <t>6011000076237738|05|2026|684|Steven Kolbus|Steven|Kolbus|23 oaktree lane |Levittown |Ny|11756|US|Skolbus68@yahoo.com|5168505915||US | alphacheck.us</t>
+  </si>
+  <si>
+    <t>4537471292950109|09|2023|734|Quinn Ryall|Quinn|Ryall||||t3c2s6|quinnryall@gmail.com|4034795586||CA</t>
+  </si>
+  <si>
+    <t>4537472154449024|08|2027|691|Tarabh Nolan|Tarabh|Nolan||||M4J2J9|Tarabhnolan@gmail.com|6475253425||CA</t>
+  </si>
+  <si>
+    <t>4537471450400012|01|2024|504|Brandon Roy|Brandon|Roy||||H2L3J4|Brandonroy@live.com|5148175756||CA</t>
+  </si>
+  <si>
+    <t>4538263484730012|10|2023|239|Mike Piazza|Mike|Piazza||||H2Z1L9|Mtljon23@gmail.com|5149244361||CA</t>
+  </si>
+  <si>
+    <t>4538262480093045|09|2024|802|Martin Girouard|Martin|Girouard||||L0G 1W|Martin.Girouard@rogers.com|||CA</t>
+  </si>
+  <si>
+    <t>4538264422234059|04|2027|521|Megan Vroom|Megan|Vroom||||V8P 3L2|vroommegan@gmail.com|2506618377||CA</t>
+  </si>
+  <si>
+    <t>5181162085948089|07|2024|043|Sophie Beauregard|Sophie|Beauregard||||K2G 3A8|sophie.beauregard2@mail.mcgill.ca|||CA</t>
+  </si>
+  <si>
+    <t>5181161150561587|03|2023|828|Roza  Assar-Haghighat|Roza |Assar-Haghighat||||L4B4B6|rosaasar@gmail.com|||CA</t>
+  </si>
+  <si>
+    <t>5181162308507456|12|2023|381|Kim Stacey Fournier|Kim|Stacey Fournier||||k0a3p0|kimandluc@hotmail.com|6138183400||CA</t>
+  </si>
+  <si>
+    <t>5181271027797866|03|2022|332|Joseph Fair|Joseph|Fair||||V3L 1B8|josephfair@hotmail.com|||CA</t>
+  </si>
+  <si>
+    <t>5181271909664051|04|2023|301|Robert Mumford|Robert|Mumford||||K7n1t4|rmumford2810@gmail.com|||CA</t>
+  </si>
+  <si>
+    <t>5181271009619583|04|2022|191|Marina Down|Marina|Down||||K0A 1R0|marina.down@ottawa.ca|6137201876||CA</t>
+  </si>
+  <si>
+    <t>5181271697335054|07|2024|192|Jennifer Kowalik|Jennifer|Kowalik||||V2A 4J5|celticsunset@hotmail.com|||CA</t>
+  </si>
+  <si>
+    <t>5136101562033540|01|2022|317|Paula Tello|Paula|Tello||||T2x4j5|Paulatello94@hotmail.com|5874343449||CA</t>
+  </si>
+  <si>
+    <t>5136100512008560|07|2023|822|Elizabeth Kronstal|Elizabeth|Kronstal||||V5L 4W7|ekronstal@gmail.com|||CA</t>
+  </si>
+  <si>
+    <t>5193941469933858|09|2023|902|Ines Baniol |Ines|Baniol ||||H2x2t2|ines.baniol@mail.mcgill.ca|2679458520||CA</t>
+  </si>
+  <si>
+    <t>5193941462378242|06|2025|149|Kaitlin Duong|Kaitlin|Duong||||L6M4T2|kaitlin.duong@mail.mcgill.ca|9057495300||CA</t>
+  </si>
+  <si>
+    <t>5228790007718753|05|2022|978|Michael Dean|Michael|Dean||||K1E 1T1|revdean@gmail.com|3435484123||CA</t>
+  </si>
+  <si>
+    <t>5228790020700036|04|2022|675|Sue Dwyer|Sue|Dwyer||||K2J 3H3|sue@suzieqdesigns.ca|6136121041||CA</t>
+  </si>
+  <si>
+    <t>5228790033017741|01|2023|095|Dylan Winick|Dylan|Winick||||H2X 3P7|dwinick32@gmail.com|6476802502||CA</t>
+  </si>
+  <si>
+    <t>5228790015601090|07|2022|989|Eric sousa|Eric|sousa||||K1E 1B2|sousa.eric@gmail.com|6132610080||CA</t>
+  </si>
+  <si>
+    <t>5258924910484665|03|2023|069|Magalie Heroux|Magalie|Heroux||||H2G 3B8|m_heroux@hotmail.com|4388714393||CA</t>
+  </si>
+  <si>
+    <t>5258924910742302|05|2022|467|Angie Raphaela  Cimilien|Angie Raphaela |Cimilien||||J7V 9Y9|a.raphaela.cimilien@hotmail.fr|||CA</t>
+  </si>
+  <si>
+    <t>5258924910611168|03|2023|858|Adriana Latin|Adriana|Latin||||H1E 4Z5|adriana.latin@hotmail.com|5144750376||CA</t>
+  </si>
+  <si>
+    <t>5411420206941389|05|2023|583|Angus Betty|Angus|Betty||||L5N3S6|angusnbetty@gmail.com|9059710547||CA</t>
+  </si>
+  <si>
+    <t>5411420210038347|07|2024|182|Ryan Cumming|Ryan|Cumming||||V3R7S1|ryan.cumming@gmail.com|||CA</t>
+  </si>
+  <si>
+    <t>5446147835674292|04|2024|938|LISE ST-AUBIN|LISE|ST-AUBIN||||j8y2c5|lstaubin@hotmail.ca|8197750448||CA</t>
+  </si>
+  <si>
+    <t>5446147020439238|01|2024|785|Chris Grant|Chris|Grant||||K0L1C0|phonechrisg@gmail.com|||CA</t>
+  </si>
+  <si>
+    <t>5446147472133115|06|2025|177|Dave Soetemans|Dave|Soetemans||||N0M 2B0|fun.life2@hotmail.com|||CA</t>
+  </si>
+  <si>
+    <t>5524890019069921|07|2024|685|Josee Frechette|Josee|Frechette||||H4J1V8|j.frechette@bell.net|5146084094||CA</t>
+  </si>
+  <si>
+    <t>5524890015907777|10|2023|497|Sarah Noble|Sarah|Noble||||H3J1P2|sars.louise.n@gmail.com|5148620095||CA</t>
+  </si>
+  <si>
+    <t>5524890015819469|08|2024|935|Deborah  Lott|Deborah |Lott||||H9j4a2|carelli@videotron.ca|5144289363||CA</t>
+  </si>
+  <si>
+    <t>5598220010985035|01|2024|713|Vincent Simard|Vincent|Simard||||H1W1V8|Vinc-98@hotmail.com|4388261656||CA</t>
+  </si>
+  <si>
+    <t>5598220193882033|09|2025|185|Karam Soussi|Karam|Soussi||||H2V2S7|karam.soussi@mail.mcgill.ca|4389265199||CA</t>
+  </si>
+  <si>
+    <t>5598220106293021|05|2023|666|Pierre-Mary Toussaint|Pierre-Mary|Toussaint||||H1V2W4|toussaip@hotmail.com|5149985150||CA</t>
+  </si>
+  <si>
+    <t>371700483133019|06|2024|3853|Brian Sherman|Brian|Sherman|11 Rock Ledge |Oakland|NJ|07436|US|Bms0722@optimum.net|2019136272|1970-7-22|US</t>
+  </si>
+  <si>
+    <t>372345470723007|09|2025|0385|Ariel Craddock|Ariel|Craddock|620 Chateau Andelot |Mandeville |Louisiana|70471|US|aofung28@hotmail.com|9858698838||US</t>
+  </si>
+  <si>
+    <t>5312570071880003|05|2023|606|Ryan Gramzay|Ryan|Gramzay|220 Forbes Rd|Wake Forest|North Carolina|27587|US|rgramzay@gmail.com|8289742555|1998-10-8|US</t>
+  </si>
+  <si>
+    <t>5112831100111329|04|2023|054|John Crenshaw|John|Crenshaw|9251 Grinnell St|Indianapolis|IN|46268|US|john@crenshaw.co|13172962996|1956-10-14|US</t>
+  </si>
+  <si>
+    <t>4254180542968859|05|2026|942|Cameron Mallory|Cameron|Mallory|1918 239th PL SE|Bothell|WA|98021|US|cmallory@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>4342562894492386|06|2023|722|Glenn Mikols|Glenn|Mikols|404 N Patrick St|Alexandria|VA|22314|US|mikolssmith@gmail.com|2022100003|1970-5-22|US</t>
+  </si>
+  <si>
+    <t>4155034064371739|12|2024|811|Anthony  Minucci |Anthony |Minucci |460 Cedar Lane |East meadow |NY|11554|US|Anthonyminucci@ymail.com|5166607214||US</t>
+  </si>
+  <si>
+    <t>4207670233908543|10|2024|643|Hugo Ayala|Hugo|Ayala|33 W 87 ST APT B |New York|NY|10024|US|hugoayala323@gmail.com|5126567691|1993-3-23|US</t>
+  </si>
+  <si>
+    <t>5452361029785449|07|2022|926|Patricia Zimmer|Patricia|Zimmer|4208 Woburn Avenue|Cleveland|Ohio|44109|US|plezimmer@aol.com|2167803963||US</t>
+  </si>
+  <si>
+    <t>4430440071785836|08|2022|995|Myanna Komaromi|Myanna|Komaromi|1758 Dartmoor Dr|Howell|Michigan|48843|US|Mykomaromi@gmail.com|2487554812||US</t>
+  </si>
+  <si>
+    <t>4430410040912019|08|2023|465|Dylan Morse|Dylan|Morse|5974 Belmont Avenue|Cincinnati|OH|45224|US|morse.makenziej@gmail.com|8592308779||US</t>
+  </si>
+  <si>
+    <t>4232230146811760|08|2023|861|Robert Howell|Robert|howell|4119 3rd ave|Los angeles|CA|90008|US|roberthowell24@gmail.com|13232867569|1988-7-11|US</t>
+  </si>
+  <si>
+    <t>4139200010130716|02|2024|780|William Blake|William|Blake|1014 Fiddler Creek Way|Lexington|KY|40515|US|bllakew435@gmail.com|8594217839||US</t>
+  </si>
+  <si>
+    <t>5287491073165254|07|2024|243|Alina asadova|Alina|asadova|2616 s 224th st|des moines|washington|98198|US|alylovesphotoshop@yahoo.com|2533350215|1993-5-27|US</t>
+  </si>
+  <si>
+    <t>4253070242225653|03|2025|306|Sonya Clarke|Sonya|Clarke|25454 Dei Street|Madison Heights|Michigan|48071|US|sclarke1497@yahoo.com|5866633768||RS</t>
+  </si>
+  <si>
+    <t>5501140080494435|10|2023|254|Denise Barish|Denise|Barish|110 Meredith lane|Oakdale|Ny|11769|US|doylestown65@gmail.com|6319841250||US</t>
+  </si>
+  <si>
+    <t>5254786193177520|01|2024|907|Julie Meredith|Julie|Meredith|25822 Walnut #2|Lomita|CA|90717|US|Julzmer@aol.com|3104088046||US</t>
+  </si>
+  <si>
+    <t>4266841573077953|06|2023|593|Brandi Gray|Brandi|Gray|673 Normandy Dr|Marion|Oh|43302|US|Brandigray27@gmail.com|7403605260||US</t>
+  </si>
+  <si>
+    <t>4833120101476183|03|2025|677|Ryan Johnson|Ryan|Johnson|5119 Moore st|St. Cloud |Florida |34771|US|Radryanrocks@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>5516770003369307|10|2023|215|Caleb Hooton|Caleb|Hooton|80 Sundew Lane|Highland|Illinois|62249|US|caleb.hooton@yahoo.com|||US</t>
+  </si>
+  <si>
+    <t>5312590071201174|04|2023|884|Lynisha Nash |Lynisha|Nash |4431 mordecai Avenue |Murfreesboro |TN|37128|US|lynisha21@aol.com|6292010236||US</t>
+  </si>
+  <si>
+    <t>4207670254105813|03|2026|369|Nicolette  Vaccaro|Nicolette |Vaccaro|132 keswick dr|East islip |Ny |11730|US|Possession442@gmail.com|6319268708||US</t>
+  </si>
+  <si>
+    <t>4400668163145503|10|2024|288|Andres Alulema|Andres|Alulema|680 Mission St Apt 40D|San Francisco|CA|94105|US|asalulema@icloud.com|8052842042|1987-1-24|US</t>
+  </si>
+  <si>
+    <t>4744870064822967|06|2024|994|Anna Bass|Anna|Bass|413 Early Rd.|Columbia|TN|38401|US|abass3@murraystate.edu|6153068013||US</t>
+  </si>
+  <si>
+    <t>379302545131008|01|2026|9092|James Gallagher|James|Gallagher|18 David Lane|Lake Ronkonkoma|NY|11779|US|Jimmygallagher23@gmail.com|6318044142||US</t>
+  </si>
+  <si>
+    <t>4750566025030416|10|2025|395|Teresa Goodson|Teresa|Goodson|2839 E. Laurel Ln.|Phoenix|AZ|85028|US|tcrn1972@gmail.com|4808090109||US</t>
+  </si>
+  <si>
+    <t>4574310197180194|08|2024|443|Beth Gill|Beth|Gill|1442 Schumacher Avenue|Burton|MI|48529|US|bgill229@gmail.com|3154080699||US</t>
+  </si>
+  <si>
+    <t>4000222163727987|09|2024|320|Tiffany  Bryson |Tiffany |Bryson |6720 S Tempe Ct |Aurora|CO|80016|US|tbryson0712@gmail.com|9517868950||US</t>
+  </si>
+  <si>
+    <t>4147202448392678|03|2026|842|Joseph samaan |Joe |Samaan |4900 firebrook Blvd |Lexington |Kentucky |40513|US|Joesamaan@gmail.com|8594890946||US</t>
+  </si>
+  <si>
+    <t>5516770003276064|07|2023|444|Stephanie Digirolamo|Stephanie|Digirolamo|310 Crestwood Dr|Collinsville|ILLINOIS|62234|US|stephdidge@gmail.com|6184019668||US</t>
+  </si>
+  <si>
+    <t>4739057013616305|08|2026|173|Tiara Bateman |Tiara|Bateman |5600 tiny town rd|Clarksville |Tn|37042|US|Tiahamer20@gmail.com|4055091618||US</t>
+  </si>
+  <si>
+    <t>5201018821567391|04|2022|666|Aida Almeda|Aida|Almeda|61 morningside ave|South river|Nj|08882|US|Pchie2@aol.com|9739851991|1968-6-15|US</t>
+  </si>
+  <si>
+    <t>4342581020023923|09|2023|124|Lizsy Breton|Lizsy|Breton|3321 S Leonidas dr|Magna |Utah|84044|US|Bretonlizsy1@gmail.com|8017933155||US</t>
+  </si>
+  <si>
+    <t>4451013948688527|05|2024|574|Erik Acosta|Erik|Acosta|613 N 2nd St|Nashville|TN|37207-5903|US|acosta814@gmail.com|9545510982||US</t>
+  </si>
+  <si>
+    <t>4833130050320829|08|2025|442|Stephanie Velazquez|Stephanie|Velazquez|10475 Doris Court|Rosemont|IL|60018|US|stephanie66velazquez@gmail.com|2244236912|1994-1-23|US</t>
+  </si>
+  <si>
+    <t>4733364344193848|04|2024|325|Trinity Scroggs|Trinity|Scroggs|4521 Sierra Rica Road|Colorado Springs|Colorado|80911|US|trinity.scroggs11@gmail.com|7197609632||US</t>
+  </si>
+  <si>
+    <t>371758173262019|08|2025|9384|Cynthia Lear|Cynthia|Lear|14200 Ashleigh Greene rd|Boyds|Maryland |20841|US|Chbriggsy@gmail.com|3018523983||US</t>
+  </si>
+  <si>
+    <t>5524336034491039|07|2024|076|Nataliia Kalinicheva|Nataliia|Kalinicheva|17515 Westmill Ln|Charlotte|North Carolina|28277|US|kalinichevanata888@gmail.com|9292136495||US</t>
+  </si>
+  <si>
+    <t>4427880026086332|07|2023|988|Raphaella Silva|Raphaella|Silva|118 Jaques Street|Somerville|MA|02145|US|Ella_silva45@hotmail.com|6177338980|1995-7-6|US</t>
+  </si>
+  <si>
+    <t>4266841318536149|04|2023|053|Dave Burchsted |Dave|Burchsted |4 ballad circle |Holbrook |Ny|11741|US|Nyrangers4444@yahoo.com|9177334745||US</t>
+  </si>
+  <si>
+    <t>5143772249608093|08|2023|937|Corrin Rodriguez|Corrin|Rodriguez|31681 Paseo Isabella|San Juan Capistrano|California|92675|US|corrinrod@gmail.com|9495256127|1992-3-25|US</t>
+  </si>
+  <si>
+    <t>4777180014325628|04|2024|820|Alissa Luke|Alissa|Luke|9365 longs peak drive |Henderson|Co|80640|US|alissagrant8@gmail.com|7202345329||US</t>
+  </si>
+  <si>
+    <t>4489750044618264|01|2024|492|DeeDee Cardosa|DeeDee|Cardosa|1536 Sunset Way|Colusa|California|95932|US|dcardosa16@gmail.com|5305140307||US</t>
+  </si>
+  <si>
+    <t>5424181386953116|09|2023|175|Mary Walther|Mary|Walther|3518 Ozark St.|Houston|TX|77021|US|maryclaire2026@gmail.com|8324922240|1990-1-10|US</t>
+  </si>
+  <si>
+    <t>4653459635027691|08|2023|389|Morgan Stanley|Morgan|Stanley|4820 W. 102nd Place|Westminster|Colorado|80031|US|mstanley3695@gmail.com|7203183695|1997-9-23|US</t>
+  </si>
+  <si>
+    <t>4207670175093635|05|2022|294|Andrea Wagner|Andrea|Wagner|9 Island A e|Miami Beach|fl|33139|US|Wags3671@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>4342565007697684|02|2025|487|Alicia Acosta|Alicia|Acosta|1357 W fort rock dr|Saratoga springs |Utah|84045|US|kolobacosta7@gmail.com|9154333669||US</t>
+  </si>
+  <si>
+    <t>5396550186643263|03|2024|435|JACK OBRIAN|JACK|OBRIAN|43 Hidden Lane|Westbury|NY|11590|US|JACKOLEEN@MSN.COM|5167246821||US</t>
+  </si>
+  <si>
+    <t>4427434054447386|02|2023|621|Stephanie A Pozo|Stephanie|Pozo|6935 Woodman Ave Apt. 9|Van Nuys|CA|91405|US|spozo7@hotmail.com|8183102443|1997-5-30|US</t>
+  </si>
+  <si>
+    <t>4266841557011028|11|2023|031|Laura Hart|Laura|Hart|3500 Ainslie Street|Philadelphia|PA|19129|US|laurakries@gmail.com|2158477778|1993-6-30|US</t>
+  </si>
+  <si>
+    <t>5143772794399478|11|2023|544|Tiffany Caywood|Tiffany|Caywood|101 Compton road|Jeffersonville|KY|40337|US|Tiffcaleb2015@gmail.com|8593985185||US</t>
+  </si>
+  <si>
+    <t>4147098221964463|12|2022|012|Randy Nowosielski|Randy|Nowosielski|4533 Coolidge Hwy|Royal Oak|MI|48073|US|justinnow123@live.com|6312058876||US</t>
+  </si>
+  <si>
+    <t>4387870170223573|10|2024|387|Alec Ocasio |Alec|Ocasio |1566 Kenneth ave|Baldwin|New York |11510|US|Alechocasio@gmail.com|5166707980||US</t>
+  </si>
+  <si>
+    <t>4190022887341861|08|2025|365|Brandon Gelatt|Brandon|Gelatt|914 kansas ave|Berthoud|Colorado|80513|US|buggers_1@hotmail.com|9706529075|1997-2-6|US</t>
+  </si>
+  <si>
+    <t>4427434143614665|04|2023|757|Donald Leverson|Donald|Leverson|21015 Victor St.|Torrance|CA|90503|US|leverson.donald@gmail.com|9857100092|1987-11-27|US</t>
+  </si>
+  <si>
+    <t>4985031046396509|04|2025|198|Sushmita Balatan|Sushmita|Balatan|303 carl st|rockville |Maryland|20851|US|sushmitabalatan@gmail.com|3013009631||PE</t>
+  </si>
+  <si>
+    <t>372398721843017|08|2023|7611|Patrick Whitwam|Patrick|Whitwam|5122 Luna Moth Lane|Murfreesboro |Tennessee |37129|US|p.whitwam@yahoo.com|7147181060||US</t>
+  </si>
+  <si>
+    <t>4117744069366172|03|2026|413|Xavier Mendoza|Xavier|Mendoza|137 Audubon ave |Jersey city|New Jersey |07305|US|Xavierelias88@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>377234765113006|04|2026|1564|Roberto  Diana|Roberto |Diana|23 Goeller Ave |Huntington Sta|Ny|11746|US|Rob.di.fro@gmail.com|5165512392||US</t>
+  </si>
+  <si>
+    <t>4342562296455189|03|2022|529|Elizabeth R Chiechi|Elizabeth|Chiechi|414 Promontory Terrace|San Ramon|CA|94583|US|erileychiechi@gmail.com|4152716484|1984-11-13|US</t>
+  </si>
+  <si>
+    <t>4833120113017116|07|2025|615|Patricia Johnston|Patricia|Johnston|4619 S Jordon Ave|Lakeland|FL|33813|US|pjohnston79@gmail.com|8633935286||US</t>
+  </si>
+  <si>
+    <t>4147202446644690|10|2024|848|Donald Carrillo|Donald|Carrillo|1516 Sweetbriar Ave|Nashville|TN|37212|US|donaldcarrillo@me.com|6157394893||US</t>
+  </si>
+  <si>
+    <t>5141350011036603|05|2022|483|Melissa  Brewer|Melissa |Brewer|15801 Rex ct|Canyon country |CA|91387|US|Melbrewer86@gmail.com|6617551348||US</t>
+  </si>
+  <si>
+    <t>4737030044603552|06|2024|801|Jamie Eisenhauer |Jamie|Eisenhauer |3505 Hollow Pond Rd|Hayes|VA|23072|US|2013.nursing@gmail.com|8048150980||US</t>
+  </si>
+  <si>
+    <t>5262191130199747|01|2025|071|Joseph Colon|Joseph|Colon|17 bluespruce lane|Commack|Ny|11725|US|Haveheart572@gmail.com|9517562809||US</t>
+  </si>
+  <si>
+    <t>4250319000451289|06|2023|864|Anthony  Norris|Anthony |Norris|2130 Santa Anita dr|Lexington |Ky|40516|US|norrisloc@gmail.com|8594922469||US</t>
+  </si>
+  <si>
+    <t>4032400079933590|05|2022|741|Andrew Martinez|Andrew|Martinez|431 W Annsbury St|Philadelphia|PA|19140|US|andrewmartinez@kings.edu|2157409791|1996-12-16|US</t>
+  </si>
+  <si>
+    <t>4631588443659613|11|2025|460|Melissa Romero|Melissa|Romero|6308 W Turquoise Ave|Glendale|AZ|85302|US|mlssrmr5@gmail.com|6024059824||US</t>
+  </si>
+  <si>
+    <t>4806482001647880|06|2023|425|Andrew Luster|Andrew|Luster|502 N. Davidson Rd. |Bon Aqua|TN|37025|US|calust23@bellsouth.net|6152075623||US</t>
+  </si>
+  <si>
+    <t>4342570034185968|11|2022|160|Ruth Lee|Ruth|Lee|840 E. State St|Belle Plaine|MN|56011|US|leera11786@yahoo.com|9522155401||US</t>
+  </si>
+  <si>
+    <t>4008992002601351|11|2024|105|Kim Russell|Kim|Russell|2029 N 2850 W|Ogden|UT|84404|US|Kirussell242@gmail.com|8015895269||US</t>
+  </si>
+  <si>
+    <t>372656763971008|03|2026|4894|William Semmes|William|Semmes|12340 Montana Ave|Los Angeles|CA|90049|US|wsemmes@gmail.com|9165726496||CO</t>
+  </si>
+  <si>
+    <t>4744810079787292|04|2026|077|Frank Hernandez|Frank|Hernandez|825 Grand Regency Pointe unit 103|Altamonte Springs |Florida |32714|US|flhp2710@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>4432646494379027|04|2025|465|Ted Grignon|Ted|Grignon|426 William Wallace Dr|Franklin|TN|37064|US|ted.grignon@dell.com|6155003055||US</t>
+  </si>
+  <si>
+    <t>4733368292991368|06|2023|028|Megan Archuleta-luce |Megan|Archuleta-luce |9375 Station St|Lone Tree|CO|80124|US|meganarchuleta123@gmail.com|7208359988|1996-3-22|US</t>
+  </si>
+  <si>
+    <t>5167020000034146|06|2022|003|Amanda Troller|Amanda|Troller|140 Captain Bell Ln|Gallatin|TN|37066|US|a.troller@hotmail.com|6154262413||US</t>
+  </si>
+  <si>
+    <t>4254047200054472|03|2023|884|Jamie Brown|Jamie|Brown|5540 Mule Deer Dr.|Colorado Springs|Colorado|80919|US|jrbrown072@gmail.com|7196483708||US</t>
+  </si>
+  <si>
+    <t>5312600140096446|03|2026|378|Kristin Carlin|Kristin|Carlin|9381 Martinique Dr|Cutler Bay|FL|33189|US|demic1195@icloud.com|7862958614||US</t>
+  </si>
+  <si>
+    <t>5538590105859581|02|2024|634|Deanna Keith|Deanna|Keith|794 Stray Branch Rd|Jackson|KY|41339|US|deannakeith77@gmail.com|6062721919||US</t>
+  </si>
+  <si>
+    <t>4000222132024144|07|2024|729|April Langston |April|Langston |6208 Siltstone Lp |Killeen |Tx|76542|US|Alang1210@gmail.com|2542383165|1986-12-10|US</t>
+  </si>
+  <si>
+    <t>5422175003314142|11|2023|888|Pamela Kujawinski-Thompson|Pamela|Kujawinski-Thompson|4526 63rd Ave|Kenosha|WI|53144|US|Pamelakujawinski@yahoo.com|2242170156||US</t>
+  </si>
+  <si>
+    <t>5599200003007574|10|2024|546|Kelsey Rogers |Kelsey|Rogers |320 fields rd|Dansville |MI|48819|US|Kelseyrogers12@gmail.com|5176148080||US</t>
+  </si>
+  <si>
+    <t>5524338988105748|05|2023|357|Shannon McIsaac|Shannon|McIsaac|820 Brook Hollow Road |Nashville |Tennessee|37205|US|Shannonmcisaac10@gmail.com|5088460576||US</t>
+  </si>
+  <si>
+    <t>4000220527063214|09|2022|790|Jessica  Short|Jessica |Short|35580 Hawkeye Street |Murrieta |CA |92563|US|jess.2277@yahoo.com|6198047564||US</t>
+  </si>
+  <si>
+    <t>4107930005546033|02|2026|975|Crystal Hatteberg|Crystal|Hatteberg|7887 Ithaca Ln. N.|Maple Grove|MN|55311|US|crysnic222@gmail.com|6124811199||US</t>
+  </si>
+  <si>
+    <t>5178057895333636|11|2022|286|Lance Little|Lance|Little|1003 Artisan Parkway|Lagrange|Ky|40031|US|littleinc120@gmail.com|513604036||US</t>
+  </si>
+  <si>
+    <t>4867960345933534|08|2024|033|Hope George|Hope|George|380 Redding Rd apt 8|Lexington |Kentucky |40517|US|Hopeg2474@gmail.com|8592707103||US</t>
+  </si>
+  <si>
+    <t>4306054026620369|03|2022|790|Amy Cassidy|Amy|Cassidy|7941 Newton Ave N|Brooklyn Park|Minnesota|55444|US|amypcassidy@comcast.net|7632197297||US</t>
+  </si>
+  <si>
+    <t>5465054624698464|09|2024|482|Suzanne Pederson|Suzanne|Pederson|215 107ln bw|Coon Rapids|Mn|55448|US|s-ped@comcast.net|7637329683||US</t>
+  </si>
+  <si>
+    <t>4400669372761437|06|2024|706|Chrislyn Saxena |Chrislyn|Saxena |22763 Islamare lane|Lake forest|Ca|92640|US|Chrislynsaxena@hotmail.com|8064161406||US</t>
+  </si>
+  <si>
+    <t>4744870064232662|05|2023|247|Craig Ray|Craig|Ray|430 Williamsport Dr|Smyrna|TN|37167-6372|US|Cray992@gmail.com|6152435455||US</t>
+  </si>
+  <si>
+    <t>4256280023691240|12|2025|248|Nicole DellaRocco|Nicole|DellaRocco|320 Morse ave|Simpson|Pennsylvania|18407-1188|US|Smitly88@yahoo.com|||US</t>
+  </si>
+  <si>
+    <t>4147202449306735|07|2024|508|Rod Hester|Rod|Hester|1573 Market Sq|Hermitage|TN|37076|US|guitarman64@msn.com|6158559225||US</t>
+  </si>
+  <si>
+    <t>4147202466723978|10|2025|044|Piper Smith|Piper|Smith|2549 STONERIDGE DRIVE|COLORADO SPRINGS|Colorado|80919|US|asmith8904@gmail.com|14103727788||US</t>
+  </si>
+  <si>
+    <t>5424181233506943|03|2025|463|Debi Dencek|Debi|Dencek|PO Box 71205|Phoenix|AZ|85050|US|dencek02@gmail.com|48055075797||US</t>
+  </si>
+  <si>
+    <t>4447962548569692|05|2024|346|Rosalyn  Vasquez |Rosalyn |Vasquez |8631 Fairhaven St |San Antonio |Texas|78229|US|rosalynvasquez2015@yahoo.com|2064740753||US</t>
+  </si>
+  <si>
+    <t>4737029074260317|08|2024|973|Gustavo Muskus |Gustavo|Muskus |907 Ashwood Court |Kissimmee |Florida |34743|US|gusmusk2003g@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>4673551000334870|12|2024|424|Brandy  Jamison |Brandy |Jamison |4426 W 3300 S|West Haven |UT|84401|US|Blbert2104@gmail.com|8017269426||US</t>
+  </si>
+  <si>
+    <t>4867960346348575|03|2025|252|Brandon Moody|Brandon|Moody|P.O Box 275|Harrodsburg|Kentucky|40330|US|bsmoody@live.com|8593980525||US</t>
+  </si>
+  <si>
+    <t>4465400075823569|11|2023|804|Aminta Ramirez|Aminta|Ramirez|812 Daffodil|Los Fresnos|Texas|78566|US|Abmg34@yahoo.com|9565456149||US</t>
+  </si>
+  <si>
+    <t>6011012005473334|09|2025|941|Alexandria Moen|Alexandria|Moen|19 Oxford Ave|Dudley|MA|01571|US|alex.moen277@gmail.com|8608238118||US</t>
+  </si>
+  <si>
+    <t>4432644046135088|03|2023|435|Paige McCumber|Paige|McCumber|839 S Good Latimer Expressway|DALLAS|Texas|75226|US|paige.mccumber@gmail.com|5736731892||US</t>
+  </si>
+  <si>
+    <t>5312590071601548|04|2024|216|Toumia Baynham|Toumia|Baynham|1057 Lischey pl|Nashville|Tennessee |37207|US|Toumiabaynham@gmail.com|6159158919||US</t>
+  </si>
+  <si>
+    <t>4079413303303666|12|2024|645|Jessica Amezola|Jessica|Amezola|724 W. 18th St. Apt 8|Costa Mesa|CA|92627|US|Jmacentennial@gmail.com|5624809054|1995-1-23|US</t>
+  </si>
+  <si>
+    <t>371333107312007|11|2024|5466|Frank Terraglio|Frank|Terraglio|1170 Rutland Rd|Newport Beach|CA|92660|US|Fterraglio@yahoo.com|9498724717|1970-2-11|US</t>
+  </si>
+  <si>
+    <t>4011952003060549|06|2024|111|Eric Frye|Eric|Frye|187 evergreen road|Pottstown |Pa|19464|US|Ericfrye21@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>4388540040947714|03|2023|862|Alicia Hagey|Alicia|Hagey|4511 Mill Branch Dr. |Prosper|TX|75078|US|Ahagey@msn.com|6309817329||US</t>
+  </si>
+  <si>
+    <t>4867960347025867|11|2025|156|Keith E. Cox|Keith|Cox|4326 Clearwater Way|Lexington|KY|40515|US|kcox80@gmail.com|8593619826||US</t>
+  </si>
+  <si>
+    <t>5327951000027358|11|2022|091|Zion K Beu|Zion|Beu|1217 Paladin Trail|Spring Branch|TX|78070|US|torchic00004@msn.com|||US</t>
+  </si>
+  <si>
+    <t>4246315275248506|09|2023|913|Theresa Mudd|Theresa|Mudd|12080 n Walz dr|Marana|Az|85653|US|achievestrengthandfitness@gmail.com|2198085939||US</t>
+  </si>
+  <si>
+    <t>5102777999887390|02|2025|275|Tamara  Davis|Tamara |Davis|525 7th st|Fairport |Ohio|44077|US|Tamaraw0714@gmail.com|4402315350||US</t>
+  </si>
+  <si>
+    <t>4266841651320341|06|2025|694|Marianna Gunn|Marianna|Gunn|828 S. Ada St.|Chicago|IL|60607|US|marianna.gunn@gmail.com|3126858563|1991-5-28|US</t>
+  </si>
+  <si>
+    <t>4147202438987727|07|2024|807|Jacob Moctezuma|Jacob|Moctezuma|48 Las Flores Dr.|Chula Vista|California|91910|US|jacobmocte@gmail.com|6199775554||US</t>
+  </si>
+  <si>
+    <t>372742086950109|01|2025|1262|Susana Olivas|Susana|Olivas|7876 Humboldt Cir|Thornton|CO|80229|US|susyolivas@yahoo.com.mx|7202574686||US</t>
+  </si>
+  <si>
+    <t>5544623259227925|06|2022|802|Melissa Graff|Melissa|Graff|1608 Forest Hill Avenue|South Milwaukee|Wisconsin |53172|US|tenpas53083@yahoo.com|4145529096||US</t>
+  </si>
+  <si>
+    <t>4418250103271598|12|2022|265|Brenda Strumke|Brenda|Strumke|3806 Timber View Way |Reisterstown |MD|21136|US|Brenda.strumke@gmail.com|4106271157||US</t>
+  </si>
+  <si>
+    <t>6011012041343954|11|2025|411|Lashelle ROSE|Lashelle|ROSE|4950 Gleeten Rd|Richmond Heights|OH|44143|US|lashelle1199@yahoo.com|2167998217||US</t>
+  </si>
+  <si>
+    <t>4940010005811744|03|2022|230|Aryana Frisch|Aryana|Frisch|5811 S 115th Cir|Omaha|NE|68137|US|mishi2012@hotmail.com|4023509415||US</t>
+  </si>
+  <si>
+    <t>4147099758857484|06|2024|812|Barbara Thomson|Barbara|Thomson|33 Straight Lane|Levittown|NY|11756|US|bt1229@msn.com|5163982425||US</t>
+  </si>
+  <si>
+    <t>5147506002781614|02|2024|044|Sheri Anderson|Sheri|Anderson|8042 50th Ave|Kenosha|WI|53142|US|sheriandersonrtr@yahoo.com|12623585320||US</t>
+  </si>
+  <si>
+    <t>4147202468675341|11|2025|059|Jose Cardenas|Jose|Cardenas|3517 Enville Pl|Los Angeles|California|90016|US|jwcardenas@gmail.com|6198506323||US</t>
+  </si>
+  <si>
+    <t>376761035891012|01|2023|5862|Jennifer Orlikowski|Jennifer|Orlikowski|1551 Portland Gold Dr|Colorado Springs|Colorado|80905|US|orlikowskij@yahoo.com|5862167255||US</t>
+  </si>
+  <si>
+    <t>4151580482012747|09|2022|279|Giovanna Vargas|Giovanna|Vargas|9850 Bermuda Rd Apt 149|Las Vegas|NV|89183|US|giovanna.vargas8@gmail.com|9737677201||US</t>
+  </si>
+  <si>
+    <t>5465330031462011|03|2024|943|Don Moroney|Don|Moroney|295 coles dr|Pontotoc |Ms|38863|US|sonyamoroney@yahoo.com|6622313149||US</t>
+  </si>
+  <si>
+    <t>4744870063801848|03|2022|362|Ronnie Foster|Ronnie|Foster|4540 Jack Pine Cv|COLLIERVILLE|TN|38017|US|rfoster3@yahoo.com|9012462806||US</t>
+  </si>
+  <si>
+    <t>4432648152242745|12|2025|948|Lyla Evans|Lyla|Evans|77 Evans rd|Olive Hill|KY|41164|US|lyla.0014@gmail.com|6066941532||US</t>
+  </si>
+  <si>
+    <t>4003449547415511|10|2024|671|Paul Wilson|Paul|Wilson|21444 ruth st|farmington hills|MI|48336|US|paulwilsonf@aol.com|2484742816||US</t>
+  </si>
+  <si>
+    <t>5465401168406996|08|2022|230|Chris  Elliott|Chris |Elliott|6609 Brynhurst Dr|Tucker|GA|30084|US|c.elliott0415@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>4388540074436444|10|2024|169|Ken Squire|Ken|Squire|682 Gilmore Rd|Enon Valley|Pennsylvania|16120|US|kenneth.squire@energytransfer.com|||US</t>
+  </si>
+  <si>
+    <t>5461920010547388|02|2024|338|Shelby Blake |Shelby|Blake|9718 Traver Street|Bowie|MD|20721|US|sblake0621@gmail.com|2405297235|1988-6-21|US</t>
+  </si>
+  <si>
+    <t>4479941569393340|10|2024|424|Gina Higgins|Gina|Higgins|1512 Underwood Dr|Nolensville|TN|37135|US|gmissaggia@gmail.com|8657057640||US</t>
+  </si>
+  <si>
+    <t>4717241002433692|10|2022|416|Lisa Marciniak|Lisa|Marciniak|6173 Windsor Hwy|Potterville|MI|48876|US|leechris64@sbcglobal.net|5178193205||US</t>
+  </si>
+  <si>
+    <t>4229190765408568|09|2022|633|Dayzhonna Boren|Dayzhonna|Boren|2120 Lebanon pike apt 31|Nashville |Tn|37210|US|bdayzhonna@gmail.com|6152938723||US</t>
+  </si>
+  <si>
+    <t>5178059483975000|01|2023|464|Yaroslava Kravchenko|Yaroslava|Kravchenko|821 Vallejo St|San Francisco|California|94133|US|sia.krave@gmail.com|4159108503|1998-7-27|US</t>
+  </si>
+  <si>
+    <t>4037840107622449|05|2022|026|James E Smith|James E|Smith|3098 Majestic View Walk|Lexington|Kentucky|40511|US|Jesmith72@gmail.com|8593125664||US</t>
+  </si>
+  <si>
+    <t>6011975207340537|01|2023|347|Angela Roberts|Angela|Roberts|326 Prairie Lane|Kingsland|TX|78639|US|angela73073@yahoo.com|5125255912||US</t>
+  </si>
+  <si>
+    <t>4450049990141974|08|2024|041|Katie Phillips|Katie|Phillips|556 Cumberland Ridge Drive|Knoxville|TN|37922|US|katieoneal211@gmail.com|8652505765||US</t>
+  </si>
+  <si>
+    <t>4000220205816735|08|2022|467|Theresa Owen|Theresa|Owen|12223 Canterbury Ct|King George|VA|22485|US|teigh.owen@gmail.com|7578165285||US</t>
+  </si>
+  <si>
+    <t>4815820178736904|01|2026|997|Hazel Veliz|Hazel|Veliz|16715 prairie ave|Lawndale|Ca |90260|US|Velizhazel@hotmail.com|3237929664||US</t>
+  </si>
+  <si>
+    <t>4400669638175182|05|2023|674|Misty Breyel|Misty|Breyel|1311 Timber Valley Dr|Flower Mound|Texas|75028|US|mistycoach@gmail.com|2144367340||US</t>
+  </si>
+  <si>
+    <t>379296110901003|10|2025|9138|Brunna Tozzi|Brunna|Tozzi|4001 Sapphire Lane|Weston|FL|33331|US|brunnatozzi@gmail.com|9546360518||US</t>
+  </si>
+  <si>
+    <t>4403934234455983|01|2026|883|Justin Ison|Justin|Ison|169 Bridgestone dr |Berea |Kentucky |40403|US|Isonjustin@yahoo.com|8593146102||US</t>
+  </si>
+  <si>
+    <t>372656319371000|02|2026|6472|Lee Fisher|Lee|Fisher|903 Lake Shore Dr. unit 101 |West palm beach|Florida|33403|US|jleefisher@bellsouth.net|3053046395||CO</t>
+  </si>
+  <si>
+    <t>4117704074026401|05|2023|279|Madison Morgan|Madison|Morgan|60 Phillips at 7-5|Attleboro|Attleboro|02703|US|Justakim36@aol.com|7742038481|2002-4-15|US</t>
+  </si>
+  <si>
+    <t>5424323605705667|01|2024|448|Angie Slifer|Angie|Slifer|429 Beechcroft Road|Spring Hill|TN|37174|US|Angieslifer@gmail.com|5132921685||US</t>
+  </si>
+  <si>
+    <t>379290745511006|12|2024|7234|K|Kaitlin|Piraro|9703 Cottle Drive|Austin|TX|78753|US|kaitlinpiraro@gmail.com|5127368674|1987-9-13|US</t>
+  </si>
+  <si>
+    <t>5262190105544887|08|2024|552|Phillip J Pang|Phillip|Pang|150-04 grand central parkway|Jamaica|NY|11432|US|Douheartphillyj@gmail.com|9178868138|1989-10-5|US</t>
+  </si>
+  <si>
+    <t>4207670241890006|05|2025|040|Carole Trottere|Carole|Trottere|11 west gate lane|East setauket|Ny|11733|US|catrottere@gmail.com|6312755277||US</t>
+  </si>
+  <si>
+    <t>4120469700617172|03|2024|022|Lyndsie Medlyn|Lyndsie|Medlyn|461 E 100 N Apt 3|PROVO|UT|84606|US|lyndsie.medlyn@gmail.com|8013683948||US</t>
+  </si>
+  <si>
+    <t>4000220516521214|08|2022|245|Heather Shaw|Heather|Shaw|3625 White Pine Drive|Lexington|KY|40514|US|heathershaw513@gmail.com|5135192872||US</t>
+  </si>
+  <si>
+    <t>5199550002307985|03|2023|905|Sharon Schwei|Sharon|Schwei|24 16TH ST NE|Washington DC|District of Columbia|20002|US|sharon.schwei@gmail.com|9083313445||US</t>
+  </si>
+  <si>
+    <t>4306790001285179|09|2022|193|Lissbeth  McCrodden|Lissbeth |McCrodden|203 Yoakum parkway |Alexandria |VA|23304|US|Lhm1124@gmail.com|5712214111||US</t>
+  </si>
+  <si>
+    <t>5108050133237235|12|2023|988|Aften Locken|Aften|Locken|2026 Eastland Parkway|Lexington|KY|40505|US|aften.locken@gmail.com|8594578028||US</t>
+  </si>
+  <si>
+    <t>4108430007922745|10|2024|942|Migdalia Morales|Migdalia|Morales|5 Cherry lane|Abbottstown |Pa|17301|US|Big_girl_15us@yahoo.com|7174790053||US</t>
+  </si>
+  <si>
+    <t>4744760089645016|06|2022|932|Tara Armbruster|Tara|Armbruster|4154 Russell Street |Jupiter |Florida|33469|US|Fatblackcat73@gmail.com|9654018272||US</t>
+  </si>
+  <si>
+    <t>6011004075239778|05|2025|518|CAROLYN SPAETH|CAROLYN|SPAETH|8985 S DURANGO DR|LAS VEGAS|Nevada|89113|US|cmspaeth62@gmail.com|7027828456||US</t>
+  </si>
+  <si>
+    <t>5144520742201299|02|2024|653|Shanna Mills|Shanna|Mills|242 Powhatan Avenue|Columbus|OH|43204|US|shannac6@gmail.com|6149750943||US</t>
+  </si>
+  <si>
+    <t>5595910005824792|02|2023|742|DEMI MORENTE|Demi|Morente|11380 Wayne drive|Cooper City |FL|33026|US|Demimorente@hotmail.com|9548646277||US</t>
+  </si>
+  <si>
+    <t>5538582109986320|09|2024|691|Constance Hughes|Constance|Hughes|2016 Baltusrol Lne|Lexington|KY|40509|US|Constancehughes13@gmail.com|8594026915||US</t>
+  </si>
+  <si>
+    <t>4400667843789599|10|2024|729|Ana Flores|Ana|Flores|1415 E. 15th St.|Santa Ana|California|92701|US|anaflores7101@yahoo.com|714852998||US</t>
+  </si>
+  <si>
+    <t>4744751252248837|05|2026|659|Monieka Etchison-Lucas|Monieka|Etchison-Lucas|8528 Sandy Beach St|TAMPA|FL|33634|US|Moniekae@yahoo.com|7037894442||US</t>
+  </si>
+  <si>
+    <t>4599540655717548|03|2023|352|Erin Tooley|Erin|Tooley|14050 Wellman Court|Manassas|Va |20112|US|erin.x.tooley@gmail.com|9198970476||US</t>
+  </si>
+  <si>
+    <t>379297698221012|10|2025|3565|Rachel Douglas|Rachel|Douglas|40128 Denham Drive|Palmdale|CA|93551|US|R.roberts470@gmail.com|6614839859||US</t>
+  </si>
+  <si>
+    <t>4342562316863305|11|2022|133|Ryan Daniel Fong Jr|Ryan|Fong Jr|270 Bel Air Dr|Vacaville|CA|95687|US|fongryan58@yahoo.com|7074797994|1999-10-27|US</t>
+  </si>
+  <si>
+    <t>4815830027345419|05|2022|506|Demetria Bonner|Demetria|Bonner|1855 Camino Verde Lane|Las Vegas|Nevada|89119|US|demetria.bonner@hotmail.com|7027128044||US</t>
+  </si>
+  <si>
+    <t>4270825025096814|08|2025|411|Sandy Hankins|Sandy|Hankins|11125 Bramblebrush Street |Tampa |FL |33624|US|sbucf@yahoo.com|8503193523||US</t>
+  </si>
+  <si>
+    <t>4000222118184599|07|2024|246|Jessica Robinson|Jessica|Robinson|5620 Saint Charles Drive|Woodbridge|VA|22193|US|Jessicaradams1@gmail.com|703501324|1992-8-2|US</t>
+  </si>
+  <si>
+    <t>4912881034378895|07|2023|258|Ashleigh Suran|Ashleigh|Suran|107 Ronald Drive|Sarver|PA|16055|US|asuran7191@gmail.com|7248167403||US</t>
+  </si>
+  <si>
+    <t>372651810601005|10|2024|4759|Bridget Perkins|Bridget|Perkins|7325 Josephine St|La Vista|NE|68128|US|Bridgetkuopus@gmail.com|9062503609||BS</t>
+  </si>
+  <si>
+    <t>4833160199342426|08|2024|966|Reyna Garcia|Reyna|Garcia|2441 Edison Avenue|Sacramento|California|95821|US|Reylolo27@gmail.com|3236914259|1985-5-16|US</t>
+  </si>
+  <si>
+    <t>4744770168289206|08|2024|667|Tyrese Cox|Tyrese|Cox|2610 Smooth Alder St N|Gambrills |Maryland |21054|US|cox.tyrese96@gmail.com|2407152990|1996-11-20|US</t>
+  </si>
+  <si>
+    <t>4342562380029643|04|2024|816|Teresa Velasquez |Teresa|Velasquez |4655 Arden way unit A|El Monte |Ca|91731|US|Velasquez5613@yahoo.com|6266075506||US</t>
+  </si>
+  <si>
+    <t>4147202388508945|09|2023|851|Andrew Sullivan|Andrew|Sullivan|702 Wedgewood Park |Nashville|Tennessee|37203|US|andrewsullivan92@gmail.com|7046541758||US</t>
+  </si>
+  <si>
+    <t>4271539000584491|08|2022|070|Juan Gill|Juan|Gill|805 Darby Ln|Berea|KY|40403|US|juanredon@msn.com|8593145355||US</t>
+  </si>
+  <si>
+    <t>4060425572210951|02|2026|586|Laura Bueno |Laura|Bueno |11218 La Maida St. |North Hollywood |Ca|91601|US|Laura.bueno713@yahoo.com|7135011065||US</t>
+  </si>
+  <si>
+    <t>4833160206596873|02|2025|208|Benjamin  Carpenter |Benjamin |Carpenter |162 w. 234th st |Carson |CA |90745|US|bencarpenter13@gmail.com|3102183757|1999-8-21|US</t>
+  </si>
+  <si>
+    <t>4147400294483282|11|2025|687|Annette Gleason|Annette|Gleason|1314 rue Willette Blvd|Ypsilanti|Mi|48198|US|nettegleason@gmail.com|7343532451||US</t>
+  </si>
+  <si>
+    <t>4465400403258686|10|2024|397|Alyssa Paradis|Alyssa|Paradis|10214 Highland Meadow Circle Apt 27-202|PARKER|CO|80134-3346|US|alyssa1776@outlook.com|7209880174|1999-9-15|US</t>
+  </si>
+  <si>
+    <t>4011950506866016|05|2022|567|Cindy  Prindle|Cindy |Prindle|130 Laurel Road |Boyertown |PA|19512|US|Coderis@dejazzd.com|||US</t>
+  </si>
+  <si>
+    <t>5466160414894350|05|2022|845|Adam Wirdzek|Adam|Wirdzek|610 Westcrest Drive|Nashville|TN|37211|US|admojazz@gmail.com|16154231969||US</t>
+  </si>
+  <si>
+    <t>4342564046384321|11|2023|649|Kiana Jones|Kiana|Jones|344 W. Hickory Rd |Battle Creek|MI|49017|US|KJones001200@yahoo.com|7274946984||US</t>
+  </si>
+  <si>
+    <t>4003448456158674|01|2025|109|Kathleen Conner|Kathleen|Conner|1006 Carolina Avenue|Salem|VA|24153|US|katzaddress@verizon.net|5403893271||US</t>
+  </si>
+  <si>
+    <t>4737023055066884|05|2023|382|Kierstin Stradford|Kierstin|Stradford|3607 Oak Lawn Road |Fort Washington|MD|20744|US|Stradfordky@gmail.com|2024231199||US</t>
+  </si>
+  <si>
+    <t>379250411172004|05|2025|8831|Melissa Weitz|Melissa|Weitz|2467 Arborcrest Rd|Moscow|ID|83843|US|vandalmelissa04@gmail.com|2085960588||US</t>
+  </si>
+  <si>
+    <t>372348882044004|10|2024|2844|Michelle Borland|Michelle|Borland|3882 State Route 361|Circleville|OHIO|43113|US|clemmib@gmail.com|6149617872||US</t>
+  </si>
+  <si>
+    <t>4147099050622388|03|2025|299|Christopher Dicintio|Raul|Dicintio|4937 N East River Road|Norridge|IL|60706|US|rauldicintio15@gmail.com|7087798532|1986-6-4|US</t>
+  </si>
+  <si>
+    <t>5178058156983622|08|2025|796|alicia bridges|alicia|bridges|3292 Wigham Court|Pickerington|OH|43147|US|alibri1230@gmail.com|6145065096||US</t>
+  </si>
+  <si>
+    <t>4266841469813032|12|2023|271|Michelle yako|Michelle|yako|3014 Standish Avenue|Parma|OH|44134|US|Michelle_yako@hotmail.com|4404292539||US</t>
+  </si>
+  <si>
+    <t>5262259313080305|02|2026|096|Tina Doherty|Tina|Doherty|1311 W 5th St.|Los Angeles|CA|90017|US|atypicalyou@gmail.com|3109905310||US</t>
+  </si>
+  <si>
+    <t>4833130048988406|04|2025|413|Brandon  Johnson |Brandon |Johnson |420 bluebirch ct|Sanford |Florida |32771|US|Bjjohnson2@mail.bradley.edu|6308656108|1994-11-30|US</t>
+  </si>
+  <si>
+    <t>4003449630888863|07|2023|446|James  Halleran |James |Halleran |2993 Bellport Ave |Wantagh |NY|11793|US|Tigjim@aol.com|5162167409||US</t>
+  </si>
+  <si>
+    <t>5175462400894135|01|2023|984|Samantha Cornell|Samantha|Cornell|4155 knollwood court|Franklin|Indiana|46131|US|Kirstynmae07@gmail.com|3175254925||US</t>
+  </si>
+  <si>
+    <t>5403850041225129|06|2022|086|Jill E. Reed|Jill|Reed|3764 Fruitvale Ave |Oakland|CA|94602|US|Jillreed09@gmail.com|5104565604|1959-10-9|US</t>
+  </si>
+  <si>
+    <t>4744870064694721|01|2024|378|Michael Hayes |Michael|Hayes |4007 Clifton Ave|Nashville |TN|37209|US|MichaelHayes1911@yahoo.com|9316387550||US</t>
+  </si>
+  <si>
+    <t>5444483586416498|09|2023|199|Victoria Bandy|Victoria|Bandy|3295 SW Avalon Way|Seattle|WA|98126|US|victoriabandy13@gmail.com|2533948667|1995-10-26|US</t>
+  </si>
+  <si>
+    <t>5424818804910109|03|2024|873|Stephanie Steere|Stephanie|Steere|6999 Joyce Lane Unit A|Arvada|CO|80007|US|s.steere22@gmai.com|7203353661||US</t>
+  </si>
+  <si>
+    <t>5403852061367385|09|2025|945|Lisa Goldstein|Lisa|Goldstein|2112 Orion Court|Livermore|CA|94550|US|lisahensley9@yahoo.com|9257847022|1962-9-19|US</t>
+  </si>
+  <si>
+    <t>4430410024685623|05|2023|409|Lawsyn Wood|Lawsyn|Wood|131 Creekside Drive |Danville|Kentucky|40422|US|lawsyn.wood1@icloud.com|8595837238||US</t>
+  </si>
+  <si>
+    <t>4117737004395348|11|2023|870|Lauren Dejesus|Lauren|Dejesus|416 N. Delaware Avenue |Lindenhurst |NY|11757|US|Laurenckl@icloud.com|6318094209||US</t>
+  </si>
+  <si>
+    <t>4430410049691523|03|2024|705|Jill Maggard|Jill|Maggard|3105 Sarah Lane |Dan I’ll |KY|40422|US|z28girl1985@yahoo.com|6066699744||US</t>
+  </si>
+  <si>
+    <t>5291079609146049|03|2023|170|Stephanie Morgan|Stephanie|Morgan|3637 Richwood Cir|Kannapolis|NC|28081|US|stephanieeschenbach@gmail.com|17046802370||US</t>
+  </si>
+  <si>
+    <t>372344547025009|11|2024|6241|Karen Self|Karen|Self|237 Mount Hermon Circle|Danville|Virginia|24540|US|kself@caswell.k12.nc.us|4342512196||US</t>
+  </si>
+  <si>
+    <t>4232230125891031|02|2023|901|Jonathan  Brown |Jonathan |Brown |712 Candlewood dr|Berea|Ky|40403|US|Brownk18212@yahoo.com|8596618873||US</t>
+  </si>
+  <si>
+    <t>4833160178154982|03|2025|117|jakee sisneros|jakee|sisneros|1022 3rd st |Santa Monica |ca|90405|US|eandjsisneros@gmail.com|3238773627||US</t>
+  </si>
+  <si>
+    <t>4000220938182934|05|2022|565|Michael Lomartire|Michael|Lomartire|1037 Andy Ave|Forest Grove|Oregon|97116|US|yoitsmelomy@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>4586430751929848|03|2024|639|Keanan Allison|Keanan|Allison|2502|Harker Heights|TX|76548|US|Keananallison@yahoo.com|||US</t>
+  </si>
+  <si>
+    <t>4207670239618351|03|2025|473|Santiago  V salazar|Santiago |V salazar|530 chestnut st apt 2|San carlos|Ca|94070|US|Lindsey.kozak@gmail.com|6502188305|1988-12-3|US</t>
+  </si>
+  <si>
+    <t>4427434181550607|06|2023|456|Alevtina Belyaeva |Alevtina|Belyaeva |5700 Sepulveda Blvd apt 425|Sherman Oaks |CA|91411|US|18tina.la@gmail.com|7472195959||US</t>
+  </si>
+  <si>
+    <t>4147400208207462|12|2022|309|Jack Wagner|Jack|Wagner|1005 Chateau Drive|Lebanon|Tennessee|37087|US|Jwag1462@gmail.com|6154735060||US</t>
+  </si>
+  <si>
+    <t>4342570040104987|12|2024|365|Esperanza Cumbe|Esperanza|Cumbe|958 26 th Ave NE|Minneapolis |Minnesota |55418|US|Esperanzxis@gmail.com|3479428810||US</t>
+  </si>
+  <si>
+    <t>4737024044700401|04|2024|746|Julie Welgoss|Julie|Welgoss|1104 argyle avenue|nashville|tennessee|37203|US|juliewelgoss@gmail.com|8563815381||US</t>
+  </si>
+  <si>
+    <t>4100390203774969|02|2023|209|Bridget Saultz|Bridget|Saultz|6538 Russell road|DeGraff |Ohio|43318|US|bridget.saultz@gmail.com|5183217327||US</t>
+  </si>
+  <si>
+    <t>4833120125721085|06|2022|102|Carmen Caballero|Carmen|Caballero|9600 SW 35 St|Miami|Fl|33165|US|cmgarcia75@aol.com|3057257310||US</t>
+  </si>
+  <si>
+    <t>4266841580672515|08|2023|988|Giuseppina  Ubaldini|Giuseppina |Ubaldini|1595 Woodstock Street |Elmont|New york|11003|US|giuseppina.ubaldini@gmail.com|5165028764||US</t>
+  </si>
+  <si>
+    <t>4292630004848746|04|2024|162|Lyn Harding|Lyn|Harding|6511 Strawbank Dr|Mechanicsville|VA|23116|US|lynwharding@gmail.com|8049290172||US</t>
+  </si>
+  <si>
+    <t>4147202359626890|03|2024|031|Micah Cristobal|Micah|Cristobal|7780 Glisten Avenue|Atlanta|GA|30328|US|micah.cristobal@icloud.com|||US</t>
+  </si>
+  <si>
+    <t>4487379980016432|09|2022|207|Tiniel Nickler|Tiniel|Nickler|3038 Lemert rd.|Bucyrus |Ohio |44820|US|Tinielp@gmail.com|4195691794||US</t>
+  </si>
+  <si>
+    <t>5109180001885028|07|2024|662|Madeline Swicord|Madeline|Swicord|20 Elderwood Lane|Melville|NY|11747|US|maddyswicord@gmail.com|6317861304||US</t>
+  </si>
+  <si>
+    <t>4086870020287244|12|2022|357|Brittany Gassner|Brittany|Gassner|2231 central parkway dr|Florissant |Missouri|63031|US|Brittanyng99@sbcglobal.net|||US</t>
+  </si>
+  <si>
+    <t>4266841542672991|10|2022|454|Joseph Mariano|Joseph|Mariano|148 Clement Ave|Elmont|NY|11003|US|joem123@yahoo.com|5169670067||US</t>
+  </si>
+  <si>
+    <t>5121065260901422|05|2023|642|Claudia Frankel|Claudia|Frankel|5131 216th st|Bayside hills|New York|11364|US|cbfrank12@aol.com|5162387840||US</t>
+  </si>
+  <si>
+    <t>4207670239484598|03|2025|940|Amanda Zrinscak|Amanda|Zrinscak|101 SYLVAN AVE|MILLER PLACE|NY|11764|US|azrinscak8073@gmail.com|16318966873|1994-9-16|US</t>
+  </si>
+  <si>
+    <t>4460533015574846|04|2023|394|Stephanie Brown|Stephanie|Brown|4010 Clines Chapel Rd|Waverly|Ohio|45690|US|stephanie7904@gmail.com|7406489669||US</t>
+  </si>
+  <si>
+    <t>4444890102678349|05|2022|540|Racheal Richardson|Racheal|Richardson|578 Spike Trail|Murfreesboro |Tn|37129|US|Rnwool2@g.uky.edu|6152180799||US</t>
+  </si>
+  <si>
+    <t>379272943521003|05|2024|3161|Alex Pugnali|Alex|Pugnai|3984 Nobel Drive|San Diego|CA|92122|US|apugnali@gmail.com|8607566949|1994-12-21|US</t>
+  </si>
+  <si>
+    <t>4147400221229071|05|2023|748|Benjamin Snider|Benjamin|Snider|930 Sutter St APT 405|San Francisco |CA|94109|US|capotato@gmail.com|8056366726|1983-1-2|US</t>
+  </si>
+  <si>
+    <t>5110408007408447|07|2024|187|Christopher Foley|Christopher|Foley|349 hill top drive |Nancy|Ky |42544|US|Blueridge888@hotmail.com|6068722227||US</t>
+  </si>
+  <si>
+    <t>4147202477562076|02|2026|817|ELIZABETH LENOX|ELIZABETH|LENOX|17435 Hilltop Ridge Dr|Eureka|MO|63025-1037|US|beth.lenox@icloud.com|||US</t>
+  </si>
+  <si>
+    <t>4400664231105249|12|2022|462|SHAMEKA CUELLAR|SHAMEKA|CUELLAR|10224 NW 33rd Place|Sunrise|Florida|33351|US|shameka.garcia@yahoo.com|9544012635||US</t>
+  </si>
+  <si>
+    <t>5346361207435643|10|2022|484|BARRY THORNTON|BARRY|THORNTON|10680 henry road|henry|va|24102|US|BARRYATHORNTON@GMAIL.COM|5405259058||US</t>
+  </si>
+  <si>
+    <t>4130820018344321|04|2023|601|Austin  Disney|Austin |Disney|800 Newberry Street|Bowling Green|KY|42103|US|austindisney@gmail.com|2703033922||US</t>
+  </si>
+  <si>
+    <t>379823700631037|03|2024|0054|Alexandra Loga|Alexandra|Loga|134 Ayshire Ct|Slidell|Louisiana|70461|US|Alexandraloga1@gmail.com|9852858973||US</t>
+  </si>
+  <si>
+    <t>4342562296440504|05|2024|010|Meagan carabello|Meagan|Carabello|2312 W 30th Ave|Denver|CO|80211|US|Mcarabello90@gmail.com|9252340720|1990-9-20|US</t>
+  </si>
+  <si>
+    <t>5465405423691599|11|2022|294|Laura Stewart|Laura|Stewart|3030 Fernshaw Lane|Franklin|TN|37064|US|Laurastewart4982@gmail.com|6154811575||US</t>
+  </si>
+  <si>
+    <t>4447962511662961|06|2023|686|Monica Thompson|Monica|Thompson|931 Upholland Lane|Columbus|OH|43085|US|thompm14@gmail.com|7409726337||US</t>
+  </si>
+  <si>
+    <t>4337840004603721|11|2023|489|Joslynn Aguilar|Joslynn|Aguilar|151 Calderon Avenue Apt 23|Mountain View|CA|94041|US|joslynn_aguilar@live.com|2092255008|1994-7-16|US</t>
+  </si>
+  <si>
+    <t>4060955621043433|06|2023|372|allie buzzeo|allie|buzzeo|67 hirsch road|stamford|ct|06905|US|alliebuzzeo@gmail.com|2035853111|1998-11-23|US</t>
+  </si>
+  <si>
+    <t>4241320035229932|07|2022|559|Karma Guttery|Karma|Guttery|3312 Fernbrook Dr|Taylorsville|UT|84129|US|guttery@hotmail.com|8015579399||US</t>
+  </si>
+  <si>
+    <t>4100390144251754|11|2024|767|Lisa Pellegrino |Lisa|Pellegrino |24 Liber Boulevard |Farmingville |New York|11738|US|pellesfour@optonline.net|6315257569||US</t>
+  </si>
+  <si>
+    <t>4342574039108116|04|2024|245|Maria Savea|Maria|Savea|9560 Redstar St|Las Vegas|NV|89123|US|mariasavea.mcd@gmail.com|7025441372||US</t>
+  </si>
+  <si>
+    <t>4117733988917066|09|2023|254|Gina  Arcabascio |Gina |Arcabascio |57 Roydon Drive E|Merrick |Ny|11566|US|Garcabascio@gmail.com |5164256926||US</t>
+  </si>
+  <si>
+    <t>4737029140804007|10|2024|879|Kurya Kippenberger|Kurya|Kippenberger|6330 n 32 st|Hollywood|FL|33024|US|kurya423@aol.com|9546218636||US</t>
+  </si>
+  <si>
+    <t>4147400103133672|04|2023|440|Lisa McKenna|Lisa|McKenna|3 Chase Ln|Sayville|New York|11782|US|Lmckenna626@gmail.com|3477541917||US</t>
+  </si>
+  <si>
+    <t>4117735006790789|03|2023|820|Mariq Trigoli|Mariq|Trigoli|31 Brookville Drive|Centereach|New York|11720|US|smisekova@hotmail.com|5165873816||US</t>
+  </si>
+  <si>
+    <t>4036951020491639|12|2022|099|Janet Gemmell|Janet|Gemmell|363 Grace St|Holbrook|NY|11741|US|janvath@hotmail.com|5163838071||US</t>
+  </si>
+  <si>
+    <t>4147099970297915|10|2023|151|Megan Parker|Megan|Parker|125 Deer Track Dr|Hamilton|AL|35570|US|Megan_parker97@yahoo.com|3347824262||US</t>
+  </si>
+  <si>
+    <t>4430430040049091|12|2023|887|Tina Breese|Tina|Breese|10040 Smith Street|Lake City|Pennsylvania|16423|US|tbreese@kent.edu|4406363005||US</t>
+  </si>
+  <si>
+    <t>4147202334262654|05|2024|943|Joseph Mullen|Joseph|Mullen|300 East 93rd Street|New York|New York|10128|US|mullen1133@gmail.com|9176177126||US</t>
+  </si>
+  <si>
+    <t>5113010000080699|10|2022|515|Kyle Klatka|Kyle|Klatka|107 Wilton Avenue|Lexington|KY|40508|US|kyleklatkalex@gmail.com|8593972048||US</t>
+  </si>
+  <si>
+    <t>6011005530818072|09|2023|490|Natalia Solis-Guerra|Natalia|Solis-Guerra|15548 Lassen Street|Mission Hills|CA|91345|US|nashg86@yahoo.com|8184038937||US</t>
+  </si>
+  <si>
+    <t>5553765040044933|03|2024|172|Leah Tivis|Leah|Tivis|852 Cambridge Ct|Lancaster|California|93535|US|leah.lcshelter@gmail.com|6614666228||LB</t>
+  </si>
+  <si>
+    <t>4867960345854706|09|2024|115|Charles Williams|Charles|Williams|809 Calypso Breeze Dr|Lexington |KY|40515|US|C5williams@yahoo.com|8595591638||US</t>
+  </si>
+  <si>
+    <t>4000220644702660|06|2023|090|Andrea Howard|Andrea|Howard|1328 ray lane |Glen burnie|Md|21061|US|Ms1sincere@yahoo.com|4107936245|1988-10-14|US</t>
+  </si>
+  <si>
+    <t>4147202454589639|12|2025|019|Andrew Fried|Andrew|Fried|2493 Walters court|Bellmore|New york|11710|US|Ajfried19@gmail.com|5167132421||US</t>
+  </si>
+  <si>
+    <t>4147202447785161|10|2024|271|David Lee|David|Lee|10 Eaton Square|HOUSTON|TX|77027|US|davidheelee03@gmail.com|2026748189|1988-10-3|US</t>
+  </si>
+  <si>
+    <t>5392770011868794|08|2025|383|Sue DelaCruz|Sue|DelaCruz|1804 Maritime Way|Richmond|CA|94804|US|suedelacruz@hotmail.com|6503072191|1977-8-28|US</t>
+  </si>
+  <si>
+    <t>4621921008259887|10|2023|200|Kimberly  Harrison|Kimberly |Harrison|5200 Lowerfield Drive Apt 101|Louisville|Kentucky|40219|US|kharrison529@yahoo.com|5029961160||US</t>
+  </si>
+  <si>
+    <t>4342562890008285|08|2024|160|Mark Anthony Gobaleza|Mark Anthony|Gobaleza|45 poncetta drive|Daly City|Ca|94015|US|markgobaleza29@gmail.com|4153147727|1985-12-29|US</t>
+  </si>
+  <si>
+    <t>4207670233553521|10|2024|831|John Hughes|John|Hughes|364 40th street Lindenhurst|Lindenhurst|New York|11757|US|Johnnyhughes29@yahoo.com|6316629631||US</t>
+  </si>
+  <si>
+    <t>4347692038350532|10|2025|210|NARIA SERRANO PEREZ|Victor|Monsivais|2309 Miriam Ln|Arlington|TX|76010|US|victormonsivais3@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>4451015718499688|11|2023|131|Joseph Auelua|Joseph|Auelua|107 Almaville Rd|Smyrna|Tennessee|37167|US|josephauelua89@gmail.com|6152788138||US</t>
+  </si>
+  <si>
+    <t>4266841550217432|12|2025|972|Hector Castillo|Hector|Castillo|9011 149 st|Jamaica|new york|11435|US|stevenc8721@gmail.com|3478431317|1987-8-21|US</t>
+  </si>
+  <si>
+    <t>379581930523008|07|2025|1132|Heather Lee|Heather|Lee|7517 Murray Hill Road|Columbia|MD|21046|US|hea.lee18@gmail.com|7322723421||US</t>
+  </si>
+  <si>
+    <t>4479931019597475|04|2024|417|Elizabeth Shipton|Elizabeth|Shipton|7170 Beaver Creek Road|Harrisburg|PA|17112|US|elizabeth.shipton@gmail.com|7176029533||US</t>
+  </si>
+  <si>
+    <t>4356877051032806|03|2024|837|HEATHER SMITH|HEATHER|SMITH|811 GALE LN|NASHVILLE|TN|37204-3044|US|heathersmith622@gmail.com|6153973843||US</t>
+  </si>
+  <si>
+    <t>4465427090858486|10|2023|527|Melissa Leon|Melissa|Leon|10330 E Station Ave|Mesa|Az|85212|US|Melissa5130@yahoo.com|5204407527||US</t>
+  </si>
+  <si>
+    <t>4250070210218261|05|2023|271|Janessa Ybarra|Janessa|Ybarra|168 E Abarr Dr|Pueblo West|Colorado|81007|US|nessa_m11@hotmail.com|7196910126||US</t>
+  </si>
+  <si>
+    <t>379744270305002|09|2024|4188|tammy hall|tammy|hall|900 ridgewood dr|clarksville|tn|37043|US|tammyrayhall@yahoo.com|9313681225||US</t>
+  </si>
+  <si>
+    <t>4862368551112493|09|2023|244|Lisa Allen|Lisa|Allen|881 Milburn court |Baldwin |NY|11510|US|Rnbsn2011@yahoo.com|5164250004||US</t>
+  </si>
+  <si>
+    <t>4451023891577544|07|2023|807|Anita Hensiek|Anita|Hensiek|2179 Chaucer Park Ln|Thompsons Station |TN|37179|US|ahensiek67@gmail.com|6158281805||US</t>
+  </si>
+  <si>
+    <t>4833160157042810|05|2025|059|Flora Orellana|Flora|Orellana|12229 Hillsdale ave |Sylmar|Ca|91342|US|flora@eberlyco.com|8186055463|1970-9-5|US</t>
+  </si>
+  <si>
+    <t>4342582020200529|05|2023|707|Talia Fening|Talia|Fening|4117 NW Phinney Bay Dr|Bremerton|WA|98312-2523|US|talia360@yahoo.com|3602048300|1979-5-11|US</t>
+  </si>
+  <si>
+    <t>4008981001425060|11|2024|686|tiffany silkey|tiffany|silkey|2 SOUTHWOOD LANE|EAST GRANBY|CT|06026|US|TSILKEY72@GMAIL.COM|||US</t>
+  </si>
+  <si>
+    <t>4815821050777966|01|2024|128|Antone  Martinez|Antone|Martinez|1841 sunset blvd #105|Los Angeles|California|90026|US|Antoneintheflowers@gmail.com|4158672871|1987-8-24|US</t>
+  </si>
+  <si>
+    <t>4147400143393542|07|2022|500|Rachel Lustig|Rachel|Lustig|6510 208th St SW|Lynnwood|WA|98036|US|rileylove@gmail.com|3478400643|1989-8-16|US</t>
+  </si>
+  <si>
+    <t>4023470705428738|02|2024|263|Jalisa Seui|Jalisa|Seui|376 E 700 N|American Fork|Utah |84003|US|jcbauman1@gmail.com|8018820381||US</t>
+  </si>
+  <si>
+    <t>4867428021338501|10|2025|969|Mike Guerrini|Mike|Guerrini|3666 Mallard Road |Levittown|New York|11756|US|Mikeguerrini6@gmail.com|5166728596||US</t>
+  </si>
+  <si>
+    <t>4737030042771187|09|2024|996|Heather  Poindexter |Heather |Poindexter |1620 Early St|Lynchburg|VA|24503|US|Myownhero0718@gmail.com|5402088728||US</t>
+  </si>
+  <si>
+    <t>4412510010326017|07|2022|503|Ashley Freese|Ashley|Freese|2276 Hill House Rd|Chesterfield |MO|63017|US|ashfreese675@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>5461960009873387|12|2023|092|G VERGARA-TRUJILLO|Gregory|Vergara|708 kINGSTON RD|LEXINGTON|KY|40505|US|gregvergara@kw.com|8595362063||US</t>
+  </si>
+  <si>
+    <t>373969065951001|03|2022|9805|Mitch Johnston|Mitch|Johnston|4805 Bellflower Ave|North Hollywood|CA|91601|US|mitchjohnston@gmail.com|8108415918|1991-9-15|US</t>
+  </si>
+  <si>
+    <t>4791267339476210|02|2023|332|Kelly McLaen|Kelly|McLaen|415 Oakridge Drive|Rochester|New York|14617|US|kelly_mclaen@hotmail.com|5854904156||US</t>
+  </si>
+  <si>
+    <t>4403931547591835|07|2026|630|LaShawnda Lewis|LaShawnda|Lewis|3334 Cove Lake Drive|Lexington|KY|40515|US|NicoleLewis_04@yahoo.com|8593517605||US</t>
+  </si>
+  <si>
+    <t>4474520442104218|01|2023|185|Jamieson Battistella|Jamieson|Battistella|1010 North 29th Street|Lincoln|Nebraska|68503|US|jamiesonbattistella@gmail.com|5312188571||US</t>
+  </si>
+  <si>
+    <t>4640182105428522|03|2022|488|Victoria Shotto|Victoria|Shotto|7762 quarry Cliff ct|Reynoldsburg|Ohio|43068|US|victoria.shotto@yahoo.com|7179993926||US</t>
+  </si>
+  <si>
+    <t>4207670197201018|08|2024|525|John Rowell|John |Rowell|70 Morningside Drive|New York|NY|10027|US|jrjrowell@gmail.com|7063262811|1990-10-29|US</t>
+  </si>
+  <si>
+    <t>5465405422541928|04|2022|637|Lexia Chamryk|Lexia|Chamryk|426 36th Ave N|Nashville|TN|37209|US|lexchamryk@gmail.com|6159067938||US</t>
+  </si>
+  <si>
+    <t>4839502232389795|03|2024|116|Carissa Giuliano|Carissa|Giuliano|21 Hub Lane|Levittown|New York|11756|US|carissagiuliano33@gmail.com|5165216569||US</t>
+  </si>
+  <si>
+    <t>4266841599523022|09|2023|830|Santiago Aguirre|Santiago|Aguirre|2723 W Doris St|Kissimmee|FL|34741|US|santi3433@hotmail.com|||US</t>
+  </si>
+  <si>
+    <t>4737023072100500|04|2025|358|Logan Roberts|Logan|Roberts|3329 Grove Park Terrace, Acworth, GA|Acworth|GA|30101|US|legitdeadpool247@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>4037840052332952|04|2022|506|Coty Aust|Coty|Aust|838 Range Street|North Mankato|MN|56003|US|redepenning.c@gmail.com|5074698340||US</t>
+  </si>
+  <si>
+    <t>6011208849214385|06|2023|484|Laura Santa Cruz|Laura|Santa Cruz|1355 w paseo del compadre|sahuarita|AZ|85629|US|loleeestrada@hotmail.com|5202718484||US</t>
+  </si>
+  <si>
+    <t>6011006487137938|05|2023|562|Manwell Benton|Manwell|Benton|300 Quinton ct apt 9303|Lexington |Kentucky |40509|US|Mbenton37@gmail.com|8599131412||US</t>
+  </si>
+  <si>
+    <t>4147202475721716|01|2026|462|Dana Charbonneau|Dana|Charbonneau|15741 West Harvard Street|Goodyear|Az|85395|US|danabottoms@hotmail.com|3182182141||US</t>
+  </si>
+  <si>
+    <t>5243690000239487|05|2024|242|Brianna Riley|Brianna|Riley|2073 jackie lorraine drive |Clarksville |Tennessee |37042|US|jackbrie10@yahoo.com|9314499933||VE</t>
+  </si>
+  <si>
+    <t>4430450003881835|04|2022|791|Gage Griffiths|Gage|Griffiths|357 Zoar Church Rd|Wright city|MO|63390|US|griffiths.gage@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>5269290046709988|11|2022|856|Brittany Jolley|Brittany|Jolley|3707 Manchaca Rd|Austin|TX|78704|US|jolley.brittany@yahoo.com|2105276690|1998-6-29|US</t>
+  </si>
+  <si>
+    <t>5175461663391953|03|2023|298|Sydney Contreras|Sydney|Contreras|1330 gulf rd |Elyria |Ohio |44035|US|sydneycon20@gmail.com|4402198556||US</t>
+  </si>
+  <si>
+    <t>4676421001180150|05|2022|771|Marlene Zoltzman |Marlene|Zoltzman |4703 Oakwood Avenue |La Canada |CA |91011|US|marly1977@aol.com|8182984316||US</t>
+  </si>
+  <si>
+    <t>4867960348841064|02|2025|693|Jorge Sanchez|Jorge|Sanchez|880 Hidden Stream Dr|Lexington|KY|40511|US|Jsanch820@gmail.com|8597059667||US</t>
+  </si>
+  <si>
+    <t>4861030100107546|09|2024|064|Charles D. Hartlage|Dan|Hartlage|604, South Third Street|Louisville|KY|40202|US|dan@guthriemayes.com|5027410969||US</t>
+  </si>
+  <si>
+    <t>5325617965868795|01|2023|980|Kyle Lennon|Kyle|Lennon|2431 Atlantic Blvd.|Wantagh|NY|11793|US|kylennon91@gmail.com|5166373302||US</t>
+  </si>
+  <si>
+    <t>4266841621793379|02|2024|167|James Russell|James|Russell|837 Joshua Dr|Lewisburg|TN|37091|US|James5357@kw.com|9319930066||US</t>
+  </si>
+  <si>
+    <t>377964774272001|03|2024|4664|Monique  Pedrosa|Monique |Pedrosa|12350 Crystal Commerce Loop |Fort Myers|FL|33966|US|monique@novacountertopsusa.com|||BA</t>
+  </si>
+  <si>
+    <t>4000222059515587|03|2023|287|Amanda Sherman|Amanda|Sherman|938 S Kenwood Ave|Baltimore|MD|21224|US|lnss71@aol.com|2066204600||US</t>
+  </si>
+  <si>
+    <t>4430440000100628|04|2024|634|Ehlam Albadarin|Ehlam|Albadarin|7421 Hammond Ave|Brooklyn|Ohio|44144|US|Atina5520@gmail.com|2166661511||US</t>
+  </si>
+  <si>
+    <t>4430473037976355|04|2022|694|Brittany Prysock|Brittany|Prysock|3321 Boathouse Road|Warrenton|VA|20187|US|bprysock17@hotmail.com|5717489091||US</t>
+  </si>
+  <si>
+    <t>4670680047632054|07|2022|774|Bryan Lincks|Bryan|Lincks|157 Mansfield Ave|Norton|MA|02766|US|Bryan.lincks@gmail.com|7814080932|1984-1-15|US</t>
+  </si>
+  <si>
+    <t>5463790022526938|12|2024|505|Luis Carrillo|Luis|Carrillo|1016 Augusta Avenue|Tyler|Texas|75701|US|Beto.carrillo@yahoo.com|||US</t>
+  </si>
+  <si>
+    <t>5282175550986929|12|2023|645|April Poynter|April|Poynter|69 Cs-1068|Lancaster|KY|40444|US|aprilpoynter@yahoo.com|8593395780||US</t>
+  </si>
+  <si>
+    <t>5115631286702603|03|2024|342|Stephanie Thomas|Stephanie|Thomas|3081 Polo Club Blvd |Lexington|Kentucky|40509|US|tlovely564@yahoo.com|8596844089||US</t>
+  </si>
+  <si>
+    <t>5466160124144054|08|2023|501|Susan Dickman|Susan|Dickman|17808 Malden St|Northridge|CA|91325|US|SusanMDickman@hotmail.com|8183358248|1981-8-11|US</t>
+  </si>
+  <si>
+    <t>4479951864373301|07|2024|680|Christine Snyder|Christine|Snyder|31 Forest Rd|Centereach|NY|11720|US|trissy74@aol.com|5168054485||US</t>
+  </si>
+  <si>
+    <t>4432644908296028|02|2026|738|Lauren Conner|Lauren|McIntyre|4963 ewing road|Ewing|Kentucky|41039|US|Laurenelizabethconner@hotmail.com|6067486611||US</t>
+  </si>
+  <si>
+    <t>4913060002130641|07|2023|088|Amanda Johnson|Amanda|Johnson|20580 Erin court |Farmington |Minnesota |55024|US|Kenworth5221@yahoo.com|5072595821||US</t>
+  </si>
+  <si>
+    <t>4737030030059298|06|2022|784|Tanya Catignani|Tanya|Catignani|8694 bent arrow ct|Springfield|Va|22153|US|Tcatignani@hotmail.com|3307182865|1980-7-11|US</t>
+  </si>
+  <si>
+    <t>4116000106021838|07|2023|021|Amanda  Meyer|Amanda |Meyer|133 North 10th St|Lindenhurst|NY|11757|US|ameyer217@aol.com|6318893677||US</t>
+  </si>
+  <si>
+    <t>4750566024932919|08|2025|611|Jennifer Beatty|Jennifer|Beatty|567 W Pantera Ave|Mesa|AZ|85210-8318|US|Agameru2@yahoo.com|4804525697||US</t>
+  </si>
+  <si>
+    <t>5409970265959940|05|2022|028|Tania Del Real|Tania|Del Real|19208 101 at PL SE|Renton|WA|98055|US|Delrealtaniag@gmail.com|3107492317|1995-6-1|US</t>
+  </si>
+  <si>
+    <t>4147202459643209|08|2025|579|William Weis|William|Weis|424 Trents Ferry Rd|Lynchburg|VA|24503-1026|US|ghostly5@comcast.net|4349070365||US</t>
+  </si>
+  <si>
+    <t>5178058926867212|10|2022|952|Jacqueline  Berry |Jacqueline |Berry |3261 Spears Rd |Nashville |TN|37207|US|berryjacqueline332@gmail.com|6153191330||US</t>
+  </si>
+  <si>
+    <t>4610460231270299|02|2026|620|Cayla Pickett|Cayla|Pickett|1813 Redwood St|Arlington|TX|76014|US|caypea25@gmail.com|8177911815||US</t>
+  </si>
+  <si>
+    <t>4451013948073399|05|2023|624|Megan Columbia|Megan|Columbia|807 Pebble Beach Circle |Mount juliet|TN|37122|US|megan.columbia@aol.com|6159726184||US</t>
+  </si>
+  <si>
+    <t>372575601472005|12|2024|9191|Lori Hairston|Lori|Hairston|1328 NW 103 LANE|Coral Springs|FL|33071|US|lorigirlga@gmail.com|6785913313||US</t>
+  </si>
+  <si>
+    <t>4147202443933575|09|2024|086|Casey Seneczko|Casey|Seneczko|2409 S Williams St|Milwaukee|WI|53207|US|casey.seneczko@gmail.com|2627191612||US</t>
+  </si>
+  <si>
+    <t>4323721786071319|04|2024|271|Yuliana Cuellar-Wildman |Yuliana|Cuellar-Wildman |1225 Kleindale Rd|Tucson |AZ|85705|US|yulianacuellar@gmail.com|5206034574||US</t>
+  </si>
+  <si>
+    <t>5115653909319441|03|2022|758|Edgar Gonzalez|Edgar|Gonzalez|3906 W 63rd St|Chicago|IL|60629|US|egonzalez2988@gmail.com|7738186001|1988-9-29|US</t>
+  </si>
+  <si>
+    <t>4403931110496206|06|2025|750|Regina Lewis|Regina|Lewis|204 Manzano Dr.|Madison|TN|37115|US|Lewisr88@att.net|7867813481||US</t>
+  </si>
+  <si>
+    <t>4232230128294191|03|2024|792|Preston Stroop|Preston|Stroop|5132 Edmondson Pike|Nashville|TN|37211|US|Pstroop1@gmail.com|6159462181||US</t>
+  </si>
+  <si>
+    <t>4368028002509882|05|2022|854|Meredith Warren|Meredith|Warren|43521 Golden Meadow Circle|Ashburn|VA|20147|US|Meredith.m.warren@gmail.com|7039693688|1978-5-4|US</t>
+  </si>
+  <si>
+    <t>4607180103242979|02|2025|174|Paula Stewart|Paula|Stewart|817furlong dr|Lexington |Kentucky |40504|US|paulas109@yahoo.com|8597977830||US</t>
+  </si>
+  <si>
+    <t>6011499405316694|04|2022|508|Jamie Preston|Jamie|Preston|7860 red Lion way |Pasadena |Md |21122|US|Jamielpreston@verizon.net|4432866620||US</t>
+  </si>
+  <si>
+    <t>4782002047258522|05|2025|795|Ranae Francis|Ranae|Francis|3239 Barnes lane |Naperville |Illinois |60564|US|Rfrancis598@gmail.com|6307807397|1998-5-28|US</t>
+  </si>
+  <si>
+    <t>379808876323006|08|2024|3301|Lisa Naillon|Lisa|Naillon|9669 Surrey Run Dr|Colorado Springs|CO|80924|US|lisa_ainge@hotmail.com|7199851314||US</t>
+  </si>
+  <si>
+    <t>5424181319850736|07|2022|026|Nicoletta Notaridis|Nicoletta|Notaridis|388 Saldane Avenue|North Babylon||11703|US|nicolettanotaridis@gmail.com|6315729927|2002-4-16|US</t>
+  </si>
+  <si>
+    <t>5135030002109241|05|2022|322|Brittany Startzel|Brittany|Startzel|4310 S Horizon Hill Lane|Spokane |WA|99206|US|Bstartzel@yahoo.com|5098506320|1988-12-6|US</t>
+  </si>
+  <si>
+    <t>4342580879880342|10|2024|155|Brandi Underwood|Brandi|Underwood|6891 S FM 51|Paradise|TX|76073|US|bjohnson100609@yahoo.com|||US</t>
+  </si>
+  <si>
+    <t>4744740102434770|05|2023|990|Usamah M Alsaad|Usamah|Alsaad|3030 Elizabeth street|Dallas|TX|75204|US|usamahalsaad79@gmail.com|8034458336||US</t>
+  </si>
+  <si>
+    <t>4806360578754190|01|2023|720|Bobbie Meier|Bobbie|Meier|1132 Sunset Lane|Grafton|WI|53024|US|Fisherqueen44@yahoo.com|4146286422||US</t>
+  </si>
+  <si>
+    <t>5538582109987435|09|2024|417|Jacob Kendall|Jacob|Kendall|3187 New Lair Rd|Cynthiana|KY|41031|US|jkendall0010@gmail.com|8595886791||US</t>
+  </si>
+  <si>
+    <t>4347697086602361|04|2026|654|Sheila Araji|Sheila|Araji|5612 Marshburn Avenue|Arcadia|CA|91006|US|sheila_araji@yahoo.com|8184156999||US</t>
+  </si>
+  <si>
+    <t>4037100704222287|11|2022|553|Shannon Kelly|Shannon|Kelly|306 diggs blvd |Warner Robins |31093|31093|US|Shannon.kelly78@yahoo.com|4785505245||US</t>
+  </si>
+  <si>
+    <t>4342562358450540|09|2023|856|Ethan Johnson|Ethan|Johnson|2089 Kirkwall dr |Nolensville |Tennessee |37135|US|Ethan.d.johnson517@gmail.com|5304005783||US</t>
+  </si>
+  <si>
+    <t>4154179321249409|06|2024|203|Stephanie Rouzee|Stephanie|Rouzee|21524 Tallman Drive|Parker|CO|80138|US|tsrouzee@gmail.com|13086310639||US</t>
+  </si>
+  <si>
+    <t>4147202385450190|12|2023|996|Shea Kennedy|Shea|Kennedy|5767 Mesa Mountain Drive |LAS Vegas |NV|89135|US|shea0625@yahoo.com|7025263070||US</t>
+  </si>
+  <si>
+    <t>4095890003209824|04|2023|529|Adam Piazza|Adam|Piazza|PO Box 18743|Philadelphia|PA|19132|US|piazza.adam@gmail.com|2672541069|1987-5-15|US</t>
+  </si>
+  <si>
+    <t>376782054451017|11|2024|914|Krista  Ashbrook |Krista |Ashbrook |500 Trinity Lane N #4201|St Pete|Florida|33716|US|Krista.ashbrook@gmail.com|8179398216||PE</t>
+  </si>
+  <si>
+    <t>379246681662005|10|2024|4524|Kirsten Kaufmann|Kirsten|Kaufmann|600 11th Ave N|Nashville |TN|37203|US|kirsten.kaufmann@gmail.com|8103414565||US</t>
+  </si>
+  <si>
+    <t>4110791606918608|05|2023|543|Katrina  Seifarth |Katrina |Seifarth |292 Duke Street |Ephrata|PA|17522|US|katrinaseifarth@gmail.com|4846384007||US</t>
+  </si>
+  <si>
+    <t>4802139288510991|09|2023|215|Janet Risso|Janet|Risso|2886 lee place|bellmore|NY|11710|US|rizzblade@aol.com|5163596858||US</t>
+  </si>
+  <si>
+    <t>4347697075141751|10|2024|240|Jonathan Angeles|Jonathan|Angeles|779 E Evelyn Ave|Mountain View|CA|94041|US|jonathanangeles35@gmail.com|6509655098|2000-6-6|US</t>
+  </si>
+  <si>
+    <t>4495480001998259|01|2024|592|Francisco Rodriguez|Francisco|Rodriguez|2631 Lyndhurst St NW|Roanoke |VA|24012|US|fnjrod@cox.net|5405978243||US</t>
+  </si>
+  <si>
+    <t>5424323605328726|01|2023|982|Jelisa Littleton|Jelisa|Littleton|P.O. Box 481|Goodlettsville |TN |37070|US|Jelisalittleton@gmail.com|6154969533||US</t>
+  </si>
+  <si>
+    <t>5243632002901151|03|2023|395|Michelina Kappmeier|Michelina|Kappmeier|242 grant avenue|Cliffside Park|NJ|07010|US|kappynj1@verizon.net|2015751635|2020-10-2|US</t>
+  </si>
+  <si>
+    <t>4342580944309699|04|2023|090|Cortney Devine|Cortney|Devine|1740 Crescent Creek Ln|Plano|TX|75025|US|cortneybob@gmail.com|2148621060|1984-8-19|US</t>
+  </si>
+  <si>
+    <t>4232230141344627|07|2023|312|Eureka Jackson|Eureka|Jackson|824 STOCKELL ST|NASHVILLE|TN|37207|US|Rjackson_26@yahoo.com|6159450210||US</t>
+  </si>
+  <si>
+    <t>4160851151719550|04|2024|808|Catherine Ramsey|Catherine|Ramsey|78 Lakeshore Court|Richmond|California (CA)|94804|US|cramsey0@gmail.com|5105794635|1986-1-30|US</t>
+  </si>
+  <si>
+    <t>4744780153460530|03|2024|428|Corina Martinez|Corina|Martinez|544 university ave|san jose|ca|95110|US|corina.clair@gmail.com|4083983968|1994-12-7|US</t>
+  </si>
+  <si>
+    <t>5403247693166059|09|2022|247|Lisa Cave|Lisa|Cave|15228 Pasadena Ave|Omaha|NE|68144|US|lisacave76@yahoo.com|4028897412||US</t>
+  </si>
+  <si>
+    <t>4356300601619469|03|2023|828|Kristy Belone|Kristy|Belone|312 E. Painted Pottery Place|Oro Valley|Arizona|85755-5997|US|kiwi_bar@hotmail.com|7042937886||US</t>
+  </si>
+  <si>
+    <t>5512089853559386|10|2022|288|Brittany hawkins|Brittany ashton |Hawkins cooke |910 sawmill rd |Laurel|Ms|39440|US|Ash10hawkins@yahoo.com|6013448669||US</t>
+  </si>
+  <si>
+    <t>5474151354074665|11|2023|170|John Rizzo|John|Rizzo|56 cedar rd |East Northport |NY|11731|US|Steaks012@yahoo.com|6315603416||US</t>
+  </si>
+  <si>
+    <t>4271783846005689|06|2022|868|Zachary A Moore|Zachary|Moore|601 Rinderer Road|Highland|Illinois|62249|US|motocross721@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>4586430709543725|01|2024|810|Shajn Cabrera|Shajn|Cabrera|919 Cabot Cove|Martinez|GA|30907|US|shajn08@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>4266841214395988|06|2026|829|Kayla Jones|Kayla|Jones|1627 north rd se|Warren|Ohio|44484|US|Kaylalaneve@gmail.com|3307856857||US</t>
+  </si>
+  <si>
+    <t>4328620083046849|04|2023|353|Genevieve Taylor|Genevieve|Taylor|1014 N. Elmer St|Griffith|Indiana|46319|US|ginis2girls@att.net|2199023955|1971-6-28|US</t>
+  </si>
+  <si>
+    <t>4003448516599685|06|2022|685|Marc Perna|Marc|Perna|6 white deer ct|huntington|NY|11743|US|kam1@optonline.com|16316620459||US</t>
+  </si>
+  <si>
+    <t>4599540098517711|12|2024|807|Marie Rutherford|Marie|Rutherford|122 n Jessup ave|Hopkinsville|KY|42240|US|shannared@hotmail.com|9019305103||US</t>
+  </si>
+  <si>
+    <t>4397078145856927|10|2025|053|Paul Kendall|Paul|Kendall|10524 Deercrest Ln|Indianapolis|IN|46239|US|atlas6564@aol.com|3173743961||US</t>
+  </si>
+  <si>
+    <t>5153076770405482|04|2025|698|Cara Beisert|Cara|Beisert|5112 Echoglenn St. NW|North Canton|OH|44720|US|clbeisert@gmail.com|3302241581||US</t>
+  </si>
+  <si>
+    <t>5178058173376826|05|2025|291|Ben Dickerson|Ben|Dickerson|27282 Dieken Drive|Athens|Alabama|35613|US|benman1236386@gmail.com|2568106832||US</t>
+  </si>
+  <si>
+    <t>4737030033832220|07|2023|861|Akeem Harris|Akeem|Harris|8 Brookebury Drive|Reisterstown|MD|21136|US|akeem.harris@gmail.com|4102580712|1982-4-16|US</t>
+  </si>
+  <si>
+    <t>4000220612768305|04|2023|326|Krista Jones|Krista|Jones|119 Hermitage Woods Drive|Hermitage|Tennessee|37076|US|youngkristajones@yahoo.com|6156313100||US</t>
+  </si>
+  <si>
+    <t>4190022886073010|02|2026|919|Stephanie Ager|Stephanie|Ager|7226 Thorn Brush Way|Colorado Springs|CO|80923|US|stephanie.ager12@gmail.com|3035138151||US</t>
+  </si>
+  <si>
+    <t>4207670260286441|07|2026|364|Kim Bauer|Kim|Bauer|134 Fountain Avenue |Selden|NY|11784|US|Pooh4kim@yahoo.com|6319430571||US</t>
+  </si>
+  <si>
+    <t>4737029102768182|04|2024|318|Andrew DeVito|Andrew|DeVito|1600 west New York ave |Orange city|Florida |32763|US|Hammythe17@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>4185863908191190|12|2024|340|Andrew Norotsky |Andrew|Norotsky |3 Edna Lane |Commack |NY|11726|US|Titlesrusny@yahoo.com|6319744146||US</t>
+  </si>
+  <si>
+    <t>4586430016452453|05|2025|626|Amanda Davis|Amanda|Davis|12952 W ASHLER HILLS DR|PEORIA|AZ|85383|US|amandamachelle86@gmail.com|7029818412||US</t>
+  </si>
+  <si>
+    <t>379280522341008|09|2024|9719|JOSH T SEEGER|Josh|Seeger|4740 S Queen St|Littleton|CO|80127|US|seeger.josh@gmail.com|3033249157|1983-9-25|US</t>
+  </si>
+  <si>
+    <t>4294351024299582|04|2023|294|Libert Stheone|Libert|Stheone|887 Glenway Dr|Inglewood|CA|90302|US|Libertstheone@yahoo.com|3107046342||US</t>
+  </si>
+  <si>
+    <t>5595910024154114|03|2025|282|Rita Ragone|Rita|Ragone|11 Terry Court|North Babylon|New York|11703|US|rita@fmcommunicationscontractors.com|6317741508||US</t>
+  </si>
+  <si>
+    <t>5275190026487989|10|2024|531|Ulises  Alonzo|Ulises |Alonzo|3094 Wills St|Smyrna|Ga|30080|US|alonzouli007@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>379269744711015|03|2024|6535|Sara Johnson |Sara|Johnson |9622 St. Barts Ln|Huntersville |NC |28078|US|sara.j.stylist@gmail.com|9524522560||US</t>
+  </si>
+  <si>
+    <t>5424322814886136|05|2024|910|JANELLE RICKS|JANELLE|RICKS|1515 Alumcrest Ln|Columbus|OH|43209|US|janellemricks@gmail.com|6148549247||US</t>
+  </si>
+  <si>
+    <t>4147202394717829|09|2023|372|Alexandra Best|Alexandra|Best|9610 McGruden Dr NW|Concord|NC|28027|US|alexandra.d.best@gmail.com|7169828406||US</t>
+  </si>
+  <si>
+    <t>4868720579329240|09|2023|783|Tammi Ramirez|Tammi|Ramirez|467 Wright Way|Henderson|NV|89015|US|tramirez1025@gmail.com|7024652277||US</t>
+  </si>
+  <si>
+    <t>5433601160500824|09|2023|649|Alexus  Bates |Alexus |Bates |136 Ridge View Road|Danville|KY|40422|US|alexusbates25@yahoo.com|8595168311||US</t>
+  </si>
+  <si>
+    <t>5523931001298838|06|2023|249|Carleigh Holley|Carleigh|Holley|1735 Red Jacket Dr|Antioch|TN|37013|US|carleighholley@gmail.com|12567622274||US</t>
+  </si>
+  <si>
+    <t>4266841569978164|05|2025|345|Casey Fandacone|Casey|Fandacone|7016 Avenue v|Brooklyn|New York|11234|US|caseyfandacone1@gmail.com|9177575015|1996-1-18|US</t>
+  </si>
+  <si>
+    <t>4120618061435679|09|2024|481|Joseph Digennaro|Joseph|Digennaro|24 ORCHARD ST|MASSAPEQUA|NY|11758-5721|US|intelsergeant@gmail.com|6462359281||US</t>
+  </si>
+  <si>
+    <t>5178059673592441|04|2023|419|William Tuck|William|Tuck|2120 Red Boiling Springs Rs|Lafayette|Tn|37083|US|tjcurtis14@yahoo.com|6153882711||US</t>
+  </si>
+  <si>
+    <t>4733100073338760|12|2022|397|Stephanie Hornick|Stephanie|Hornick|12800 Vonn Rd|Largo|FL|33774|US|Penguinfan871171@yahoo.com|8146195985||US</t>
+  </si>
+  <si>
+    <t>4100390430668638|06|2022|208|SUSAN SPANO|SUSAN|SPANO|1142 S SHENANDOAH ST|L.A.|CA|90035|US|susanspano@aol.com|3232511211||US</t>
+  </si>
+  <si>
+    <t>4060425558872998|11|2024|304|Annmarie  Ochoa |Annmarie |Ochoa |6842 Anthony Ave |Garden Grove |California |92845|US|annmarie_weaver@yahoo.com|7148620878||US</t>
+  </si>
+  <si>
+    <t>5175461480060781|06|2024|108|Raegan  Landon|Raegan |Landon|20287 Paver Barnes Rd|Marysville |Ohio|43040|US|raeraelandon@icloud.com|9377388127||US</t>
+  </si>
+  <si>
+    <t>4266841578177485|07|2023|617|Syed Walid|Syed|Walid|14172 85th Rd|Jamaica|NY|11435|US|syedwalid12311@gmail.com|6468359933||US</t>
+  </si>
+  <si>
+    <t>4147202395864141|09|2023|043|John Garcia|Johnny|Garcia|1021 Stuart Street |Denver|Co|80204|US|Jmarioplumbing@gmail.com|3032579222|1989-8-1|US</t>
+  </si>
+  <si>
+    <t>4207670250031302|11|2025|968|Dante  Miller |Dante |Miller |277 McArthur drive |Rockingham |North Carolina |28379|US|Dm3412@columbia.edu|||US</t>
+  </si>
+  <si>
+    <t>4663048204623325|12|2022|677|Melisa Izaguirre|Melisa|Izaguirre|10050 Axis Drive|Boerne|TX|78006|US|melizaguirre13@gmail.com|3617289621||US</t>
+  </si>
+  <si>
+    <t>5175462402232482|12|2025|616|Shawna Stokes|SHAWNA|STOKES|425 North Oxford Street|Indianapolis|IN|46201|US|sweetshawna1981@gmail.com|3176985617||US</t>
+  </si>
+  <si>
+    <t>5380770000057544|03|2022|326|Miranda Hutchinson|Miranda|Hutchinson|7270 E 30 3/4 Rd|Cadillac|Michigan|49601|US|mirandamarie994@gmail.com|2318784670||US</t>
+  </si>
+  <si>
+    <t>6011006254742522|10|2022|323|Rifran Lakhany|Rifran|Lakhany|2929 WYNHAVEN OAKS WAY|Lawrenceville|GA|30043|US|ronlakhany@gmail.com|4044232048||US</t>
+  </si>
+  <si>
+    <t>4552250395762540|01|2025|497|Jennifer Herrera|Jennifer|Herrera|21 Shermanta Dr|Duncannon|PA|17020|US|Jsh2283@yahoo.com|||US</t>
+  </si>
+  <si>
+    <t>4833160193544423|12|2024|548|Steven Nieto|Steven|Nieto|4605 Orchard Avenue|LOS ANGELES|CA|90037|US|steven.j.nieto@gmail.com|6262900006|1987-5-24|US</t>
+  </si>
+  <si>
+    <t>4574310010561273|06|2024|633|Jenn Whitney|Jenn|Whitney|22238 East Princeton Drive|Aurora|CO|80018|US|jennrae27@yahoo.com|3035138337||US</t>
+  </si>
+  <si>
+    <t>5414137455212315|01|2025|567|Michael Peters|Michael|Peters|5040 Sebring Court|Bloomfield Hills|MI|48302|US|doxrokt@gmail.com|2483180179||US</t>
+  </si>
+  <si>
+    <t>372087172235001|07|2024|7922|Erika  Benson|Erika |Benson|3732 Londonderry Drive|Roanoke|VA|24014|US|Benson.el@gmail.com|5405898360||US</t>
+  </si>
+  <si>
+    <t>4834801357787964|01|2025|143|Mindy McAllister|Mindy|McAllister|28093 south rd|Pueblo|Colorado|81006|US|mindymcallister1@gmail.com|7192510672||US</t>
+  </si>
+  <si>
+    <t>4127770013106727|11|2023|658|Sandra Nevarez|Sandra|Nevarez|12602 W Sunnyside Dr|El Mirage|AZ|85335|US|liz.calderon1970@gmail.com|6239101326||US</t>
+  </si>
+  <si>
+    <t>4737030032340183|11|2022|239|Dawn Shilling|Dawn|Shilling|2517 |Midlothian|VA|23112|US|animalloversinva@hotmail.com|8043040570||US</t>
+  </si>
+  <si>
+    <t>371243707531015|10|2022|7729|Susan Wadsworth|Susan|Wadsworth|608 Homestead Road|Oriental|NC|28571-7524|US|swads78@gmail.com|5407989490||US</t>
+  </si>
+  <si>
+    <t>371382476759025|11|2025|9038|Cynthia Romito|Cynthia|Romito|19 Redwood Ct|Glen Cove|NY|11542|US|cynromito@yahoo.com|3472482192||US</t>
+  </si>
+  <si>
+    <t>4400661340369674|01|2024|670|Kylen Wallach|Kylen|Wallach|2104 Marin|Carrollton|TX|75006|US|kylen.wallach@gmail.com|2148861591||US</t>
+  </si>
+  <si>
+    <t>4833120138201364|07|2025|765|CHRISTIAN LOPEZ GARCIA|Christian|Lopez|4215 Briarberry Ln||FL|33624|US|prdrifter@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>4275690021527716|05|2024|896|Drew Welsh|Drew|Welsh|112 Eric ct |Nicholasville |Kentucky|40356|US|Drew.welsh88@gmail.com|8594338107||US</t>
+  </si>
+  <si>
+    <t>5465330020558811|05|2024|725|Garrett Henke|Garrett|Henke|200 Hallman Hill East|Homewood |Alabama |35209|US|garretthenke11@gmail.com|2059363040||US</t>
+  </si>
+  <si>
+    <t>4432646493118863|12|2022|617|Christopher Baker|Christopher|Baker|460 Lenney Dr, Apt. 3|Lexington|KY|40517|US|diamondphoenixfeather@yahoo.com|8594207162||US</t>
+  </si>
+  <si>
+    <t>4347690017676729|08|2025|359|Sarah Cole|Sarah|Cole|998 Woodfield Lane|Brunswick|OH|44212|US|allaboutbob2013@gmail.com|2168551199||US</t>
+  </si>
+  <si>
+    <t>5537407933377218|12|2022|477|Monzell Silverburg|Monzell|Silverburg|2620 Buck Ln|Lexington|KY|40511|US|Monzellsilverburg@yahoo.com|8593122358||US</t>
+  </si>
+  <si>
+    <t>5524331750473824|07|2025|095|Olivia Galinis|Olivia|Galinis|534 Borrie Ave|Brielle|NJ|08730|US|oliviagalinis18@gmail.com|7322723469|1996-9-17|US</t>
+  </si>
+  <si>
+    <t>4147202477382418|02|2026|323|Jennings Copley|Jennings|Copley|954 Mason Headley Rd.|Lexington|KY|40504|US|jcopley76@gmail.com|8593384835||US</t>
+  </si>
+  <si>
+    <t>4000220985615786|08|2022|945|Joshua Lester|Joshua|Lester|25225 pinto drive|hollywood|maryland|20636|US|Em1josh121@gmail.com|3012470797||US</t>
+  </si>
+  <si>
+    <t>4207670182499189|11|2024|718|Dan Paduano|Dan|Paduano|Po box 672|Yaphank|NY|11980|US|Danpaduano101@gmail.com|6316812291||US</t>
+  </si>
+  <si>
+    <t>4400661665580947|08|2022|249|Amanda LoBuglio|Amanda|LoBuglio|123 Whitman Way|Georgetown|KY|40324|US|alobuglio@ymail.com|7165146162||US</t>
+  </si>
+  <si>
+    <t>5466760022370147|07|2023|399|Christine Collins|Christine|Collins|4636 Cherry Valley Drive |Rockville|MD|20853|US|Christinelmer@hotmail.com|6024050485||US</t>
+  </si>
+  <si>
+    <t>371328979776008|07|2025|6103|Joy Wittschen-O'Brien|Joy|Wittschen-O'Brien|1025 N Putnam Avenue|Lindenhurst|New York|11757|US|Asunnydayaa@gmail.com|6315056721||US</t>
+  </si>
+  <si>
+    <t>4465420510378763|11|2023|202|Demontay Goolsby|Demontay|Goolsby|2191 Grayfield Drive |Grayson|GA|30017|US|dtgoolsby@yahoo.com|||US</t>
+  </si>
+  <si>
+    <t>4266841542658453|08|2025|073|Mckensie kahnweiler|McKensie |Kahnweiler |1445 N Rockwell|Chicago |IL|60622|US|mkahnweiler11@gmail.com|8477672424|1987-1-24|US</t>
+  </si>
+  <si>
+    <t>4737029121215199|04|2023|903|Elise Whittle|Elise|Whittle|14860 Bald Eagle Drive|Fort Myers|FL|33912|US|elisewhittle@usf.edu|239728783|2001-7-31|US</t>
+  </si>
+  <si>
+    <t>5189410066239883|04|2024|053|Amanda Winters|Amanda|Winters|1319 S M St|Lake Worth Beach|FL|33460|US|mandykwinters@gmail.com|4692472010||US</t>
+  </si>
+  <si>
+    <t>4147099870556352|12|2024|744|Krissy Normandy|Krissy|Normandy|3520 Meadow Drive|Helena|MT|59602|US|keakag@hotmail.com|4062022690||US</t>
+  </si>
+  <si>
+    <t>5471829903843697|07|2022|023|Lexie Galbreath|Lexie|Galbreath|52 Agnes Street|Coraopolis |PA|15108|US|lexiegalbreath1@yahoo.com|||US</t>
+  </si>
+  <si>
+    <t>4447962316984669|06|2022|835|clarissa morisco|clarissa|morisco|278 stonehill lane |schaumburg |illinois |60193|US|clarissamorisco@gmail.com|8473011708|1974-12-19|US</t>
+  </si>
+  <si>
+    <t>4003447994212936|12|2022|649|Susan Blackler|Susan|Blackler|296 N.Titmus Dr |Mastic |NY |11950|US|susan.blackler@gmail.com|7326195081||US</t>
+  </si>
+  <si>
+    <t>4430450056669491|03|2023|846|Amanda Kelley|Amanda|Kelley|605 E 7th Street |Auburn|IN|46706|US|Alkalberti@gmail.com|2607041575||US</t>
+  </si>
+  <si>
+    <t>4023470601380223|08|2024|883|Kaylene Coleman |Kaylene|Coleman |2919 e norcroft st|Mesa |Az|85213|US|prettynpinkneen@yahoo.com|4803325482||US</t>
+  </si>
+  <si>
+    <t>4388540022071178|05|2024|753|HOLLY FRYE|HOLLY|FRYE|596 S ANDOVER DR|ANAHEIM|California|92807|US|hollydevon@hotmail.com|8058860055||US</t>
+  </si>
+  <si>
+    <t>5115600513625010|04|2023|330|Christopher Poole|Christopher|Poole|24317 rosebud|Eastpointe|Michigan|48021|US|mopoole24@gmail.com|5868998249||US</t>
+  </si>
+  <si>
+    <t>4734390578059016|10|2025|492|Alexander Craig|Alexander|Craig|3806 n Bennington ave |Kansas city |Missouri |64117|US|alex.craig96.ac@gmail.com|8167266452||US</t>
+  </si>
+  <si>
+    <t>5332480506157116|01|2023|611|Robin Serra|Robin|Serra|5131 Crane Brook Way|Peabody|--|01960|US|rbserra@verizon.net|7813072675|1960-12-23|US</t>
+  </si>
+  <si>
+    <t>4342562341062766|08|2023|564|Elijah Licon|Elijah|Licon|2141 S Bentley Ave|Los Angeles|CA|90025|US|elijahlicon@gmail.com|8052482001|1998-6-3|US</t>
+  </si>
+  <si>
+    <t>4147099246309874|07|2024|046|Beth Swartz|Beth|Swartz|229 Riverside Dr|Nashville|TN|37206|US|bethanykswartz@gmail.com|4147364242||US</t>
+  </si>
+  <si>
+    <t>4447962520972765|09|2023|014|Michael Updyke|Irene|Updyke|615 S. Olds Blvd|Fairless Hills|PA - Pennsylvania|19030|US|irene123019@aol.com|2156806783|1972-7-19|US</t>
+  </si>
+  <si>
+    <t>5312590070876752|08|2022|945|Jessica Hoffstetter|Jessica|Hoffstetter|125 lynnford drive|Murfreesboro |Tennessee |37128|US|Hoffstetterjessica@gmail.com|6157670932||US</t>
+  </si>
+  <si>
+    <t>4806410010625043|01|2023|896|Calizza Farrell|Calizza|Farrell|6613 Old Plank BLVD|Matteson|IL|60443|US|Cmfarrell86@yahoo.com|8152956751||US</t>
+  </si>
+  <si>
+    <t>4737024042504300|12|2023|916|Olivia Mingino|Olivia|Mingino|123 Jumping Brook Road|Lincroft|NJ|07738|US|Oliviamingino@gmail.com|9089071957|1997-9-5|US</t>
+  </si>
+  <si>
+    <t>4744760411773783|01|2024|717|Michelle Sio|Michelle|Sio|17523 sw 153rd court |Miami |Florida |33187|US|Michsio18@gmail.com|3058781406||US</t>
+  </si>
+  <si>
+    <t>4737023064382751|06|2024|364|Daniel Duren |Daniel|Duren |4024 double hill place |Flowery Branch |Georgia|30542|US|Way_fast_whitey69@yahoo.com|||US</t>
+  </si>
+  <si>
+    <t>4207670226619644|05|2022|875|jonathan mont|jonathan|mont|616 Ninth Avenue|East Northport|NY|11731|US|montlite@aol.com|6313871596||US</t>
+  </si>
+  <si>
+    <t>4342562407181617|03|2025|987|Christine Faris|Christine|Faris|135 1/2 East Avenue 42|Los Angeles|California|90031|US|christineefaris@yahoo.com|4247440362||US</t>
+  </si>
+  <si>
+    <t>4351420024952290|10|2024|780|Jose Palermo|Jose|Palermo|4854 nw 7 st|Miami|Fl|33126|US|Josepalermo0410@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>4792131255740026|08|2023|469|John Radefeld|John|Radefeld|380 Dustin Tavern Rd|Weare|NH|03281-5908|US|john.radefeld@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>5517310001962792|02|2023|400|Rebecca McGary|Rebecca|McGary|15130 Normandy Blvd|Bellevue|NE|68123|US|rebeccaallison478@gmail.com|7754208744||US</t>
+  </si>
+  <si>
+    <t>4266841595777564|12|2023|273|Christopher Steffen|Christopher|Steffen|865 N Taney St|Philadelphia|Pennsylvania|19130|US|Csteffenrn@yahoo.com|7274215585|1989-5-1|US</t>
+  </si>
+  <si>
+    <t>372523431646000|06|2025|6403|Thomas Metzger|Thomas|Metzger|4540 Blagden Ave NW|Washington|DC|20011|US|thomasmetzger@mac.com|2026076389|1970-7-12|US</t>
+  </si>
+  <si>
+    <t>4131771173973447|10|2022|225|Sarah Byrd|Sarah|Byrd|329 Belva Lane|Collinsville|Virginia|24078|US|sabyrd71@gmail.com|2763402884||US</t>
+  </si>
+  <si>
+    <t>5449270930318743|10|2024|395|Malarie Work|Malarie|Work|32556 Spinnaker Dr|Avon Lake|Ohio|44012|US|Malariemoran1203@gmail.com|4405671506||US</t>
+  </si>
+  <si>
+    <t>4281900005549087|06|2023|803|Ashlen Garrett|Ashlen|Garrett|32 Rocky Top Ln|Tunas|Mo|65764|US|jennyz3a@yahoo.com|4177185419||US</t>
+  </si>
+  <si>
+    <t>4147202411745282|01|2024|214|Ernesto Donate|Ernesto|Donate|580 Camino de la Reina|San Diego|Ca|92108|US|ernesto.donate@gmail.com|6193790944|1978-10-20|US</t>
+  </si>
+  <si>
+    <t>4266841645965029|09|2024|906|Michael Harhaj|Michael|Harhaj|44 knapp ave|Clifton|NJ|07011|US|Michael.harhaj@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>4266841646576106|10|2024|131|Emily Messina|Emily|Messina|11836 Culver Boulevard|Los Angeles|CA|90066|US|ekmessina@gmail.com|8182057022|1985-12-3|US</t>
+  </si>
+  <si>
+    <t>4266902061382527|01|2026|058|Olga Felde|Olga|Felde|2331 A Aztec Point Trail|Tucson|Az|85748|US|Olga.Felde11@gmail.com|5203600939||US</t>
+  </si>
+  <si>
+    <t>4306870000243468|09|2023|296|Michelle Cardoza|Michelle|Cardoza|1775 Lewis Lane |Tulare|California|93274|US|bizteacher834@yahoo.com|5593036104||US</t>
+  </si>
+  <si>
+    <t>4342564033738273|07|2024|851|Rebecca Ricord|Rebecca|Ricord|1085 Seneca Dr|Gunnison|CO|81230|US|balricord@aol.com|9704208684||US</t>
+  </si>
+  <si>
+    <t>4342574979506584|09|2022|430|Monique Austin|Monique|Austin|6170 Boulder Hwy|Las Vegas|NV|89122|US|M.austin943@gmail.com|7024438719||US</t>
+  </si>
+  <si>
+    <t>4342580170136295|03|2025|641|Monika Sanchez|Monika|Sanchez|1109 S Pleasant Valley Rd Apt 813|Austin|TX|78741|US|monika.alexis.sanchez@gmail.com|9564556438||US</t>
+  </si>
+  <si>
+    <t>4347690534895661|09|2024|221|Sarah Sutton|Sarah|Sutton|17927|Spring|TX|77379|US|suttse01@hotmail.com|7608983086||US</t>
+  </si>
+  <si>
+    <t>4347697082182350|09|2025|976|Amy Luyo|Amy|Luyo|9834 Hallwood dr.|temple city |CA |91780|US|Amyanay123@gmail.com|6262240277||US</t>
+  </si>
+  <si>
+    <t>4347698039619189|10|2025|733|jami rick|jami|rick|17 stone arch rd|old westbury|NY|11568|US|jamirick1@gmail.com|5163833032||US</t>
+  </si>
+  <si>
+    <t>4388576116582225|07|2025|129|Leah M Castle|Leah|Castle|700 N Washington Street|DENVER|CO|80203|US|grassrootsfilm@gmail.com|8189172308|1985-1-29|US</t>
+  </si>
+  <si>
+    <t>4403931051848720|10|2024|383|Ciera  Burkes |Ciera |Burkes |927 SW 33rd St|Cape Coral|FL|33914|US|Ccburkes@gmail.com|2398233051||US</t>
+  </si>
+  <si>
+    <t>4403931347163496|06|2025|476|Morgan  Saintjones|Morgan |Saintjones|1155 Old Monrovia Rd |Huntsville |Al|35806|US|Msdmodec@gmail.com|3144956174||US</t>
+  </si>
+  <si>
+    <t>4427434134569357|11|2022|981|Rachelle Arias|Rachelle|Arias|22875 avenue 128 |Porterville|Ca|93257|US|Rushisgroovin@gmail.com|2133009035||US</t>
+  </si>
+  <si>
+    <t>4427919934645076|03|2024|952|Alicia Caramenico|Alicia|Caramenico|121 Avondale rd |Norristown |Pennsylvania |19403|US|alicia.caramenico@gmail.com|4844744501||US</t>
+  </si>
+  <si>
+    <t>4430410008055058|11|2023|222|Candi Vinson|Candi|Vinson|2697 South Danville Rd|Danville|AL|35619|US|candibug351981@gmail.com|2567586160||US</t>
+  </si>
+  <si>
+    <t>4432385610929510|10|2023|119|Jessica Sargent|Jessica|Sargent|392 w toomey ln|madisonville|tn|37354|US|arielchase@yahoo.com|||US</t>
+  </si>
+  <si>
+    <t>4432644031498715|01|2025|172|Gade Raftery|Gade|Raftery|274 Hunters Ridge Drive|Labadie|Missouri|63055|US|graftery54@gmail.com|3147923034||US</t>
+  </si>
+  <si>
+    <t>4432646493925598|04|2025|922|Bryce Bowman|Bryce|Bowman|103 Lauren’s Way North |Hendersonville|TN|37075|US|Brycekbowman@gmail.com|6156818792||US</t>
+  </si>
+  <si>
+    <t>4447962464427172|08|2022|476|Jennifer Youngblood|Jennifer|Youngblood|213 111th Street East|Bradenton|FL|34212|US|JENN81906@AOL.COM|3214312572||US</t>
+  </si>
+  <si>
+    <t>4465400388984355|05|2023|507|Mark Hurban|Mark|Hurban|127 Barley Sheaf Road|Flemington |NJ|08822|US|hurbanm@kean.edu|9087972803|1997-8-9|US</t>
+  </si>
+  <si>
+    <t>4479941397098582|07|2023|715|Sophia Powers|Sophia|Powers|1019 Superior St|Oak Park|IL|60302|US|sophiapowers03@gmail.com|3122825577|1997-12-3|US</t>
+  </si>
+  <si>
+    <t>4482330026954362|09|2022|637|Regina Weber|Regina|Weber|2525 Cedar Street|Seaford|NY|11783|US|geemw20@aol.com|5165572342||US</t>
+  </si>
+  <si>
+    <t>4482330089015101|01|2025|682|Ben Dixon|Ben|Dixon|5245 e Thomas Rd|Phoenix|Arizona|85018|US|bendixon236@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>4482630105109758|05|2023|480|Mickey  Crawford |Mickey |Crawford |1664 gayle dr |Lexington |Kentucky |40505|US|Smallblock421@yahoo.com|8596990687||US</t>
+  </si>
+  <si>
+    <t>4490520005910829|07|2022|063|Barbara  Reed|Barbara |Reed|1665 Patterson Rd|Versailles|Kentucky|40383|US|Barbaraf1958@gmail.com|18598065275||US</t>
+  </si>
+  <si>
+    <t>4535060169526944|12|2025|890|Jennifer Kendrick|Jennifer|Kendrick|1636 Tristan Flower Ave|Las Vegas|NV|89183|US|jennellis04@gmail.com|7028469006||US</t>
+  </si>
+  <si>
+    <t>4599540083240659|09|2024|085|Julie Alcorn|Julie|Alcorn|1101 Thora Ct|Gallatin|TN|37066|US|julieanne.alcorn@gmail.com|6155040008||US</t>
+  </si>
+  <si>
+    <t>4599540168701005|01|2025|022|Maggie Talamantes|Maggie|Talamantes|103 Lexington Place|Dover|DE|19901|US|Mtalamantes2000@gmail.com|3029439997|2000-3-19|US</t>
+  </si>
+  <si>
+    <t>4599540742835246|05|2024|060|Gentry Harms|Gentry|Harms|4318 la Habra way|Klamath falls|OR|97603|US|Ih_1991@hotmail.com|||US</t>
+  </si>
+  <si>
+    <t>4634051200676541|09|2023|010|Kelly Sahr|Kelly|Sahr|243 Katherine Blvd|Palm Harbor|FL|34684|US|Kellysahr28@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>4640182056721925|12|2023|069|Lisa McKlveen|Lisa|McKlveen|1421 East 35th St|Erie|Pa|16504|US|lsmerie80@yahoo.com|18146713185||US</t>
+  </si>
+  <si>
+    <t>4653459657390571|09|2022|391|Anna Mariah Holcomb|Anna Mariah|Holcomb|1225 W Prospect Rd|Fort Collins|CO|80526|US|mariah.holcomb@gmail.com|7208376792|1993-8-13|US</t>
+  </si>
+  <si>
+    <t>4737023073809380|12|2024|006|Justin Lowery|Justin|Lowery|6638 spring glen ct|Stone Mountain |Georgia|30087|US|Nativetrip12@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>4737029115815376|07|2023|108|Callie Kocemba|Callie|Kocemba|122 7th Ave N apt e|Saint petersburg|FL|33701|US|Calliekocemba@gmail.com|7274520633|1990-12-26|US</t>
+  </si>
+  <si>
+    <t>4741659994134327|07|2023|053|Sandra Barnhill|Sandra|Barnhill|4050 46th Ave North |St Petersburg |FL|33714|US|S_barnhill556@live.com|7272622421||US</t>
+  </si>
+  <si>
+    <t>4744722109648800|06|2023|712|Paula Cuva|Paula|Cuva|8803 Stowe Creek Lane|Missouri City|Tx|77459|US|pscuva@hotmail.com|9728987764||US</t>
+  </si>
+  <si>
+    <t>4744760191533159|03|2024|832|JENNIFER HARRISON|JENNIFER|HARRISON|12261 93rd ct|Seminole|FL|33772|US|jenniferharrison2020@gmail.com|7274120621||US</t>
+  </si>
+  <si>
+    <t>371305114473014|12|2024|5260|Jean Carlo Loeza|Jean Carlo|Loeza|4826 E White Dove Ave|Orange|CA|92869|US|jeancarloloeza@gmail.com|7143219505|1990-1-15|US</t>
+  </si>
+  <si>
+    <t>377244633578009|07|2025|0646|Jeff Weisman|Jeff|Weisman|870 Inman Village Parkway NE|Atlanta|GA|30307|US|jw@jwsystemsinc.com|9177709798||US</t>
+  </si>
+  <si>
+    <t>379275791722003|05|2025|3687|Tara Hamilton|Tara|Hamilton|2923 Beverly Road|Oceanside |NY|11572|US|tara415@optonline.net|5165822308||US</t>
+  </si>
+  <si>
+    <t>379364016615943|01|2024|016|Neftali Guzman|Neftali|Guzman|103 Hampton Ave|Mastic|NY|11950|US|taliguzman04@yahoo.com|6093135045||US</t>
+  </si>
+  <si>
+    <t>379569419912008|07|2022|4953|Olivia Hails|Olivia|Hails|111 acklen park drive |Nashville|TN|37203|US|oliviabhails@gmail.com|3343032182||US</t>
+  </si>
+  <si>
+    <t>4000220519592675|08|2022|409|Joseph Mbuyamba|Joseph|Mbuyamba|2740 Trenton rd|Clarksville |Tn|37040|US|mbuyambajoseph@gmail.com|9312069268||US</t>
+  </si>
+  <si>
+    <t>4003448443398821|09|2025|271|Megan Murphy|Megan|Murphy|15 Crest dr|East Northport|NY|11731|US|lolmeganmurphy@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>4035651000185349|05|2024|767|Jerry Giuliano|Jerry|Giuliano|21 Hub Lane|Levittown|New York|11756-2520|US|professorggiuliano@gmail.com|5165214671||US</t>
+  </si>
+  <si>
+    <t>4037840107195065|05|2022|150|Morgan  Proffitt|Morgan |Proffitt|900 Sunny Slope Trce|Lexington|KY|40514|US|morganproffitt@comcast.net|8123749768||US</t>
+  </si>
+  <si>
+    <t>4060955561491824|08|2023|575|Loni Williams|Loni|Williams|5130 Southwest 91st Avenue|Cooper City|FL|33328|US|loni.williams@gmail.com|9548642141|1990-1-24|US</t>
+  </si>
+  <si>
+    <t>4100390050331921|12|2023|545|Tom Fussell|Tom|Fussell|3825 Bedford Ave|Nashville|Tennessee|37215|US|tom@nashvillesold.com|6154777653||US</t>
+  </si>
+  <si>
+    <t>4100390517063133|12|2023|255|Misty Daugherty|Misty|Daugherty|2099 East 390 North|Spanish Fork|UT|84660|US|mistydaug@gmail.com|8014204552||US</t>
+  </si>
+  <si>
+    <t>4104320001547016|12|2023|801|Meredith Logan|Meredith|Logan|923 Dolphin Drive |Jupiter |FL|33458|US|Sunshine0809@bellsouth.net|5616621418||US</t>
+  </si>
+  <si>
+    <t>4107985005907601|12|2022|917|Heidi Kinawy|Heidi|Kinawy|15559 Columbia Court|Rosemount|MN|55068|US|kinawyh@gmail.com|6128456554||US</t>
+  </si>
+  <si>
+    <t>4117733986726006|08|2024|919|Khalid Lewis|Khalid|Lewis|13334 Farmers Blvd|Jamaica|NY|11434|US|knlewis95@hotmail.com|||US</t>
+  </si>
+  <si>
+    <t>4117764032290119|01|2024|524|Austin Alastor|Austin|Alastor|39 Comstock Hill Road|Norwalk|Connecticut |06850|US|austinalastor1@gmail.com|4752506051|1998-9-16|US</t>
+  </si>
+  <si>
+    <t>4118202004184811|09|2024|633|Joseph  Naoum |Joseph |Naoum |4696 Bentley |Troy|Mi|48098|US|Oejoej@aol.com|5865300028||US</t>
+  </si>
+  <si>
+    <t>4147202358606570|06|2023|058|Samar Adi|Samar|Adi|5842 n placita de las lomitas |Tucson|AZ|85704|US|Nimitz11@aol.com|7034099009||US</t>
+  </si>
+  <si>
+    <t>4147202373811098|10|2027|352|Christina Demers|Christina|Demers|12345 Marshall st|Culver City |CA|90230|US|christinademers242@gmail.com|8503903564||US</t>
+  </si>
+  <si>
+    <t>4147202470430974|12|2025|352|Crystal Snow |Crystal|Snow |21434 E Nassau Pl|Aurora |CO|80013|US|snow.crystallynn@gmail.com|3039050669||US</t>
+  </si>
+  <si>
+    <t>4147241003433303|05|2023|172|Hannah Kindred|Hannah|Kindred|3837 Aria Lane|Lexington|KY|40514|US|Drpepperbug311@aim.com|8596841793||US</t>
+  </si>
+  <si>
+    <t>4147400110016498|11|2023|661|Kendra  Griffiths |Kendra |Griffiths |375 Elk Lake School Road |Springville |Pa|18844|US|kendra.griffiths@elklakeschool.org|5707671663||US</t>
+  </si>
+  <si>
+    <t>4155390014211635|01|2023|376|marc earley|marc|earley|5345 Express Drive North|Holtsville|NY|11742|US|marcearley96@gmail.com|6315210959||US</t>
+  </si>
+  <si>
+    <t>4159750013315115|02|2023|470|Jessica Fry|Jessica|Fry|123 Turning Point|Poca|WV|25159|US|shoaldancer@gmail.com|3044101370||US</t>
+  </si>
+  <si>
+    <t>4190022883571560|09|2023|972|Bryan Hopson|Drew|Hopson|3057 W 38th Avenue|Denver|CO|80211|US|kelelacortez@gmail.com|7209828450|1995-1-29|US</t>
+  </si>
+  <si>
+    <t>4232230188783919|02|2025|636|Nathaniel Terry|Nathaniel|Terry|1725 Ashely Hall Rd Apt i8|Charleston|SC|29407|US|nathancterry219@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>4262078473137710|03|2023|413|Tina Murphy|Tina|Murphy|17206 Fountainside Loop Apt. 6102|Lutz|FL|33558|US|Murphy.tina19@yahoo.com|8133616064||US</t>
+  </si>
+  <si>
+    <t>4266841349823789|05|2026|853|Jessica  Wick|Jessica |Wick|3629 1st ave |Glendale|Ca|91214|US|Wick@cheerful.com|6616099173||US</t>
+  </si>
+  <si>
+    <t>4274841000043206|07|2023|868|Brett Pritchard|Brett|Pritchard|3665 Bart ave |Warren |Michigan|48091|US|Brettpritchard99@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>4306515022785968|08|2022|862|Nichole Manikis|Nichole|Manikis|9878 Timmons rd|Thonotosassa |Florida |33592|US|Msnicholem86@gmail.com|8133090156||US</t>
+  </si>
+  <si>
+    <t>4314060401017501|03|2025|152|Jose De La Torre|Jose|De La Torre|1100 E Cooney St |El Reno |OK|73036|US|delatorrejose98@yahoo.com|||US</t>
+  </si>
+  <si>
+    <t>4342570981369607|07|2023|570|Darla Rath|Darla|Rath|1002 3rd Ave Ne Apt 314|Buffalo |Mn|55313|US|rathdarla@gmail.com|7638435219||US</t>
+  </si>
+  <si>
+    <t>4342580133340521|07|2023|575|Josh Robinson|Josh|Robinson|15017 Texas St|Austin|Texas|78734|US|jr@joshrobinson.com.au|||US</t>
+  </si>
+  <si>
+    <t>4366182847923758|10|2023|866|Trevor Setvin|Trevor|Setvin|2515 Foster Ave|Baltimore|MD|21224|US|Tsetvin@ccbcmd.edu|5038109335|1985-10-27|US</t>
+  </si>
+  <si>
+    <t>4388540066818716|08|2025|470|Bradley  L Bohn|Bradley|Bohn|5015 Manett St|Dallas|TEXAS|75206|US|bradley_bohn@yahoo.com|3175170771|1978-10-31|US</t>
+  </si>
+  <si>
+    <t>4400660135628237|09|2023|356|Katharine Dinwiddie|Katharine|Dinwiddie|3419 Shelby Bottoms Bnd|Nashville|TN|37209|US|Kdwiddie@gmail.com|2816159722||US</t>
+  </si>
+  <si>
+    <t>4400665018272722|04|2024|384|Sean Tyler Camiolo|Sean|Camiolo|4700 Berwyn House Road apt 1601|College Park|Maryland|20740|US|scamiolo13@gmail.com|6316243810|2001-5-16|US</t>
+  </si>
+  <si>
+    <t>4400669266084342|09|2022|410|Virg Brewer|Virg|Brewer|628 Smith Ave|Hohenwald|TN|38462|US|virg.brewer@yahoo.com|9316282995||US</t>
+  </si>
+  <si>
+    <t>4403931166250226|06|2025|187|Krylios Clarke|Krylios|Clarke|1703 East West Highway|Silver Spring|MD|20910|US|krylmunsta@gmail.com|6788515519|1994-5-25|US</t>
+  </si>
+  <si>
+    <t>4427566010808027|12|2024|708|Sarah Hains|Sarah|Hains|2863 S Benton circle |Mesa|Az|85212|US|Hainsy17@gmail.com|4807669666||US</t>
+  </si>
+  <si>
+    <t>4430410007534723|07|2024|641|Titus Mayhorn|Titus|Mayhorn|1711 Old Paris Road|Lexington|Kentucky|40505|US|tmayhorn2@gmail.com|8595765292||US</t>
+  </si>
+  <si>
+    <t>4430410074868301|11|2023|628|Luebab Ahmed|Luebab|Ahmed|508 Meadowcrest park |Lexington |Kentucky|40515|US|Luebabahmed@yahoo.com|8594212384||US</t>
+  </si>
+  <si>
+    <t>4432644905208760|12|2025|050|Benjamin Williams|Benjamin|Williams|699 Old US HWY 60|Morehead |Ky|40351|US|meetyourben@gmail.com|6067764358||US</t>
+  </si>
+  <si>
+    <t>4436280001866163|02|2023|252|Noah Combs|Noah|Combs|1408 |Nicholasville|KY|40356|US|breecombs@windstream.net|8595367800||US</t>
+  </si>
+  <si>
+    <t>4465420369861752|09|2023|298|ALICE  OGORODNIKOV|Alice|Ogorodnikov|1931 Spoonbill Rd|West Sacramento |CA|95691|US|alice.ogorodnikov@gmail.com|9168356415|2000-11-5|US</t>
+  </si>
+  <si>
+    <t>4482322698239917|03|2024|539|Rebekah Lohr|Rebekah|Lohr|224 Fairway Rdg |Aiken |SC|29803|US|rbklohr@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>4482330078789120|09|2024|108|Lori dickinson|Lori|dickinson|517 tappan st|forked river|New Jersey|08731|US|arbld3@yahoo.com|||US</t>
+  </si>
+  <si>
+    <t>4490520004132086|09|2022|549|Skyler  Worley|Skyler |Worley|429 Garden City Drive APT 3|Richmond |Kentucky |40475|US|skylerworley14@gmail.com|8594088015||US</t>
+  </si>
+  <si>
+    <t>4552250159420590|01|2024|906|S GARNER MCPHERSON|Shawane|McPherson|6 Williams Ave|Amityville|NY|11701|US|MRSMAC12303@YAHOO.COM|16312586323|1969-7-12|US</t>
+  </si>
+  <si>
+    <t>4552250200479959|03|2025|339|Erica Layden|Erica|Layden|781Missouri Rd|Venice|FL|34293|US|Sexisauce@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>4607180101857125|02|2023|504|JILL ROY|JILL|ROY|108 CREST CT|NICHOLASVILLE|KY|40356-2950|US|jillroy716@yahoo.com|18592028374||US</t>
+  </si>
+  <si>
+    <t>4640182116894738|11|2023|841|Jennifer Price|Jennifer|Price|13 Fairwood Drive|Lakewood|NY|14750|US|Jennifer@priceless-studios.com|7166404361||US</t>
+  </si>
+  <si>
+    <t>4640182126557820|01|2023|307|Kathy Sennewald|Kathy|Sennewald|112 Smithfield Ct|Walkersville|MD|21793|US|Kathy.sennewald@gmail.com|3013053808||US</t>
+  </si>
+  <si>
+    <t>4731510024406080|10|2025|840|Tonya Partridge|Tonya|Partridge|205 Shadywood Circle|Sterrett|AL|35147|US|tonyapartridge@bellsouth.net|2052832174||US</t>
+  </si>
+  <si>
+    <t>4736220400224041|12|2025|985|Angenia Morning|Angenia|Morning|400 stoll poole court|Lexington|Kentucky |40508|US|ahall9666@gmail.com|8594104572||US</t>
+  </si>
+  <si>
+    <t>4737029068966580|07|2024|629|Christopher Bartlam|Christopher|Bartlam|5 ohio st|COCOA|FL|32926|US|Christopherray771@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>4737033991360507|08|2023|990|Tyler Scruggs|Tyler|Scruggs|120 Mahaffey Cooley rd|Chesnee |South Carolina |29323|US|Wagovan713@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>4782002059010159|09|2025|095|Stephanie Kinsey|Stephanie|Kinsey|211 W. Dublin St|Gilbert |AZ |85233|US|steph.kinsey5@gmail.com|6233269517||US</t>
+  </si>
+  <si>
+    <t>4815820157471192|03|2022|589|Consuelo Garcia|Consuelo|Garcia|12747 belhaven ave |Los Ángeles |Ca |90059|US|consuelog04@yahoo.com|3234197295||US</t>
+  </si>
+  <si>
+    <t>4815831037536047|06|2023|556|Kelci Parker|Kelci|Parker|1117 S Highland Ave|Los Angeles|CA|90019|US|parker.kelci@gmail.com|7348464338|1989-2-19|US</t>
+  </si>
+  <si>
+    <t>6011004866375534|03|2024|039|Marie Polito|Marie|Polito|924 greenbelt pkwy w|Holbrook|Ny|11741|US|Mpolito25@gmail.com|6313744831||US</t>
+  </si>
+  <si>
+    <t>6011007564768009|05|2026|821|Margaret Muñoz|Margaret|Muñoz|501 Ramona Avenue|Sierra Madre|CA|91024|US|margaret.munoz96@gmail.com|6262229187||US</t>
+  </si>
+  <si>
+    <t>4306870000721455|10|2022|030|Hannah Rufert|Hannah|Rufert|1598 Paradise Ave|Tulare|Ca|93274|US|cowgirlup127@hotmail.com|5593034702||US</t>
+  </si>
+  <si>
+    <t>374355100550652|02|2026|014|Wendy Grant|Wendy|Grant|11011 N 76th Ave|Peoria |AZ|85345|US|wendygrant61@yahoo.com|6233320385||US</t>
+  </si>
+  <si>
+    <t>4632400009110925|05|2022|499|Lisa  Vannoy|Lisa |Vannoy|4393 Greensbury Dr|New Albany |Ohio|43054|US|Lisarn71@hotmail.com|6142969447||US</t>
+  </si>
+  <si>
+    <t>372845575517006|11|2023|9134|Dave Benck|Dave|Benck|2161 n. california #201|Chicago|il|60647|US|dbenck@knauz.com|8478993935||US</t>
+  </si>
+  <si>
+    <t>5466160344311244|07|2023|061|Jason Paulson|Jason|Paulson|116 Page Drive|Richmond|KY|40475|US|jpaulson34@gmail.com|6084436302||US</t>
+  </si>
+  <si>
+    <t>4266841659907867|09|2025|914|Anton Inshakov|Anton|Inshakov|711 Wilcox ave|Los Angeles|California|90038|US|0808132@gmail.com|9293256721||US</t>
+  </si>
+  <si>
+    <t>4147400280862705|05|2024|649|Kevin Tran|Kevin|Tran|5121 Creek Bend Drive|Fort Worth|Texas|76137|US|choochookht@yahoo.com|||US</t>
+  </si>
+  <si>
+    <t>6011006213540728|12|2025|184|Ethan Hussong|Ethan|Hussong|70 Bermuda Pointe Circle|Hilton Head Island|South Carolina|29926|US|ehussong3@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>5594600030621732|05|2026|879|Matthew Miller|Matthew|Miller|100 Spencer Street|Farmingdale|New York|11735|US|Mwmillerhse@gmail.com|5165104571||US</t>
+  </si>
+  <si>
+    <t>5178058782010659|03|2022|698|Kristine Dunphy|Kristine|Dunphy|63 Park Ave |Cranston|RI|02905|US|kaduph99@gmail.com|2036487129|1981-2-26|US</t>
+  </si>
+  <si>
+    <t>6011004106840271|11|2025|024|Ana Saavedra|Ana|Saavedra|16225 Lark Sparrow|Monument|Colorado|80132|US|anasaavedra2293@gmail.com|7196753939||US</t>
+  </si>
+  <si>
+    <t>5501140004275506|02|2024|468|Carmela annunziata|Carmela |Annunziata|885 Bellmore Road |Bellmore |Ny|11710|US|Mylilgelibean@aol.com|9176275871||US</t>
+  </si>
+  <si>
+    <t>5189410050298267|03|2024|951|Faith Zelinsky|Faith|Zelinsky|220 Lagoon Drive |Northfield |IL |60093|US|Faith.zelinsky@gmail.com|3125130006|1967-6-8|US</t>
+  </si>
+  <si>
+    <t>4266841639958998|07|2024|700|Siouxsie Hernandez Chincoya|Siouxsie|Hernandez Chincoya|5054 Bancroft Avenue |Oakland|California |94601|US|siouxsieh.ehs@gmail.com|5106979299|1996-5-1|US</t>
+  </si>
+  <si>
+    <t>4046360000312401|09|2022|996|Michiel Logan|Michiel|Logan|6802 CEDAR GROVE CT|Yorba Linda|CA|92886|US|michiellogan@outlook.com|7143862866||US</t>
+  </si>
+  <si>
+    <t>4147099281815843|12|2024|615|Emily  Farabaugh|Emily |Farabaugh|8283 N. Rocky Brook Dr|Tucson |AZ|85743|US|azsunspot161@gmail.com|5208913717||US</t>
+  </si>
+  <si>
+    <t>4482630106452827|11|2025|223|Walter M Meade|Matt|Meade|2193 Drummond dr|Lexington|Ky|40511|US|Wmmeade23@gmail.com|8595094558||US</t>
+  </si>
+  <si>
+    <t>5474151377582652|11|2024|926|Sara Morris|Sara|Morris|5907 Hatteras palm Way|Tampa|Fl|33615|US|Saramorris1981@yahoo.com|8436855046||US</t>
+  </si>
+  <si>
+    <t>4815820208449106|03|2024|410|OLIVIA Cadet|OLIVIA|Cadet|505 Rutherford Pointe Cir|La Vergne|TN|37086|US|Oliviacadet87@gmail.com|6157155799||US</t>
+  </si>
+  <si>
+    <t>371291031611003|05|2023|0633|Anthony Zaragoza|Anthony|Zaragoza|5 Cori Lane|Bohemia|NY|11716|US|anthony.zaragoza@zaragoza.email|267449587||US</t>
+  </si>
+  <si>
+    <t>372652013622004|08|2025|9222|JLC|joseph|cerbone|pob 868|Westhampton Beach|new york|11978|US|jlc@jlclandscapeservices.com|6317740430||VE</t>
+  </si>
+  <si>
+    <t>372856932264018|11|2024|5898|Dorothy Kenny|Dorothy|Kenny|7 Sailors Court|Miller Place|NY|11764|US|venuslaser@optonline.net|6317740186||US</t>
+  </si>
+  <si>
+    <t>372888083734002|11|2026|2999|DANNY CHEN|DANNY|CHEN|1220 CAMPBELL ROAD|WANTAGH|NY|11793|US|dchen62378@aol.com|7187575327||US</t>
+  </si>
+  <si>
+    <t>373762750892006|07|2024|5992|Thomas O’Neill|Thomas|O’Neill|998 Junction ST|Plymouth|MI|4817|US|Thomas.SONeill@gmail.com|7346040369||US</t>
+  </si>
+  <si>
+    <t>377233335102010|12|2024|5229|Nicole Mahan|Nicole|Mahan|30 Belvidere Blvd|North Providence|RI|02911|US|nicolebelislemahan@gmail.com|4013165786|1982-12-31|US</t>
+  </si>
+  <si>
+    <t>379223441153005|06|2024|8334|Dorene Donayre|Dorene|Donayre|1517 Hi Point Street|Los Angeles|California|90035|US|betruetoyou@gmail.com|3106120041||US</t>
+  </si>
+  <si>
+    <t>379254181791001|11|2023|6161|Amy Sullivan|Amy|Sullivan|115 Highline Dr|Vicksburg|MS|39180|US|asullivan525@gmail.com|6015291145||US</t>
+  </si>
+  <si>
+    <t>379262840762008|06|2024|7445|Chloe Nelson|Chloe|Nelson|9877 S Countrywood Dr|Sandy|UT|84024|US|snvchamp@aol.com|7025260486||US</t>
+  </si>
+  <si>
+    <t>4000222134755984|08|2024|192|Phyllis Black|Phyllis|Black|182 Woodstream Blvd|Stafford|VA|22556|US|mamaslim38@yahoo.com|7032003244||US</t>
+  </si>
+  <si>
+    <t>4000222135025874|08|2024|581|Jennifer  Harris|Jennifer |Harris|26 Calle Ardilla|Rancho Mirage |California |92270|US|Jenn@jennsrealtygroup.com|7604229127||US</t>
+  </si>
+  <si>
+    <t>4003448695286583|10|2022|853|Dawn Ray|Dawn|Ray|2955 Pronghorn Circle |Trussville |Al |35173|US|Lilfrog192@yahoo.com|2042766699||US</t>
+  </si>
+  <si>
+    <t>4023480309551769|02|2023|806|Alyssa A Boyer|Alyssa|Boyer|182 N 300 W|Cedar City|Utah|84720|US|alyssabrush13@gmail.com|4355908631||US</t>
+  </si>
+  <si>
+    <t>4060688031110076|07|2025|533|Anna Shmulak|Anna|Shmulak|35 Anoatok dr|Huntington|Ny|11743|US|Anna.shmulak@gmail.com|6319421225||US</t>
+  </si>
+  <si>
+    <t>4060955809160454|09|2023|497|Laura Farley|Laura|Farley|6712 Bracken Ct|Springfield |Va|22152|US|Laura.murray@gmail.com|8044045604|1980-9-15|US</t>
+  </si>
+  <si>
+    <t>4100390076485750|05|2022|207|Annette Anderson|Annette|Anderson|6109 108th Avenue|Kenosha|WI|53142|US|annette@andersonadvocare.com|8475132831||US</t>
+  </si>
+  <si>
+    <t>4139100006690261|11|2023|767|Bradley S Sowell|Bradley|Sowell|421 Preakness Way|Bowling Green|KY|42104|US|Brad@ssslaw.net|2705351447||US</t>
+  </si>
+  <si>
+    <t>4147098014295505|10|2022|511|steven berkowitz|steven|berkowitz|52-34 concord st|Little Neck|NY|11362|US|stevenbezerk@gmail.com|9179390043||US</t>
+  </si>
+  <si>
+    <t>4147098200617058|09|2022|252|Amanda Hutchinson|Amanda|Hutchinson|17 Hanian Dr|Weymouth|MA|02189|US|hutchinson1697@gmail.com|7812771697|1994-5-21|US</t>
+  </si>
+  <si>
+    <t>4147098820090132|03|2024|260|Emily Coomes|Emily|Coomes|3316 Chickasaw drive|Owensboro|Kentucky|42301|US|Emcoomes11@gmail.com|2703028894||US</t>
+  </si>
+  <si>
+    <t>4147202251596902|12|2023|039|Miriam Umanzor|Miriam|Umanzor|16244 CRYSTAL DOWNS E|Northville|MI|48168|US|miriam.umanzor@gmail.com|2165712186||US</t>
+  </si>
+  <si>
+    <t>4552250124290094|01|2024|010|Alain Samples|Alain|Samples|622 E 10th Street Apt 312|Indianapolis |IN|46202|US|alix5801@gmail.com|3174302958|1978-5-12|US</t>
+  </si>
+  <si>
+    <t>4266841619789629|01|2024|411|Jazmine Martinez|Jazmine|Martinez|12 Heritage Place|Glencarbon|Illinois |62034|US|artyyummy@gmail.com|7602703137||US</t>
+  </si>
+  <si>
+    <t>4737023067717524|02|2025|244|Devin Chanthavisouk|Devin|Chanthavisouk|5520 Hearn road |Ellenwood|Georgia |30294|US|Devinshoulda@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>4862368508145927|07|2022|544|Johanna  Krienke |Johanna |Krienke |PO Box 781326|San Antonio|TX|78278|US|johanna_krienke@hotmail.com|9563690578|1982-10-25|US</t>
+  </si>
+  <si>
+    <t>4414883000021957|06|2022|048|Carrie Walker|Carrie|Walker|2466 Ridge Rd|Palmyra |Virginia |22963|US|carrieann_walker@yahoo.com|4349814212||US</t>
+  </si>
+  <si>
+    <t>4806410095106943|03|2022|155|Kenny  Cummings|Kenny |Cummings|1851 Dalton Court|Lexington|Kentucky|40505|US|chillinbroadcasting@gmail.com|5025456511||US</t>
+  </si>
+  <si>
+    <t>4271534884574973|06|2022|550|Justin Spencer|Justin|Spencer|324 brush creek road|CLAY CITY|KY|40312|US|Crystal.spencer20@gmail.com|8594043833||US</t>
+  </si>
+  <si>
+    <t>4737024030756300|10|2023|236|Anthony Nannarello|Anthony|Nannarello|4 Santa Rosa lane|Tinton Falls|New Jersey|07753|US|anthonynannarello946@gmail.com|7326066444|2001-7-3|US</t>
+  </si>
+  <si>
+    <t>377481737427002|03|2023|2529|Filomena  Caccavo|Filomena |Caccavo|237 Wellington Rd south|Garden city S|NY|11530|US|Mena82104@aol.com|5169840310||US</t>
+  </si>
+  <si>
+    <t>4782002055088621|08|2024|759|Rachel Rumbaugh|Rachel|Rumbaugh|55 Deborah Drive|Lemont|Illinois|60439|US|rachelrumbaugh@gmail.com|7088465168|2001-4-4|US</t>
+  </si>
+  <si>
+    <t>4207670240991607|04|2025|703|Douglas Rodriguez|Dario|Rodriguez|4522 W north B street|Tampa|FL|33609|US|Dariorodriguez812@gmail.com|3053428499|2001-8-12|US</t>
+  </si>
+  <si>
+    <t>5461960008526192|10|2024|991|Latasha  Wray |Latasha |Wray |115 dawning ct |Georgetown |Kentucky |40324|US|Latasha_wray@yahoo.com|8593975590||US</t>
+  </si>
+  <si>
+    <t>4000220943590873|05|2022|979|Travis King|Travis|King|1023 Hibiscus st|Cocoa |Fl|32927|US|travisking175@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>4147202363409648|07|2023|741|Amy Allison|Amy|Allison|9740 S Camino de la Calinda|Vail|AZ|85741|US|amywilson8@gmail.com|5204032222||US</t>
+  </si>
+  <si>
+    <t>4744721029730268|05|2023|001|Franchesca  Ramos|Franchesca |Ramos|5129 Barcelona Dr|Garland |Tx|75043|US|Ramosfranchesca@yahoo.com|4692711892||US</t>
+  </si>
+  <si>
+    <t>5117862026159329|02|2024|936|Michelle Buesing|Michelle|Buesing|4129 E Olive Avenue|Gilbert|AZ|85234|US|sweetbleve@yahoo.com|5177493864||US</t>
+  </si>
+  <si>
+    <t>4610460215862772|10|2024|414|Alison Canales|Ali|Canales|7919 Capri Circle|Houston|Texas|77095|US|Alicanales12@ymail.com|2815094540|2000-8-8|US</t>
+  </si>
+  <si>
+    <t>4095890002825521|03|2023|160|Alicia Wilsey|Danielle|Wilsey|23 red maple lane |Levittown |Pennsylvania|19055|US|Daniellewilsey9@gmail.com|2673334972|1998-9-12|US</t>
+  </si>
+  <si>
+    <t>4266841538732064|08|2022|516|Aaron S Hock|Aaron|Hock|173 W. 133rd St.|New York|New York|10030|US|hock.aarons@gmail.com|7178738288|1993-1-26|US</t>
+  </si>
+  <si>
+    <t>4342580167344464|06|2024|272|Stephanie Bishop|Stephanie|Bishop|1137 Charleston Lane|Savannah|TX - Texas|76227|US|stephMacias03@yahoo.com|2149952345||US</t>
+  </si>
+  <si>
+    <t>4029445195957994|04|2024|643|JENNIFER CARBONE|JENNIFER|CARBONE|2575 Grant Blvd|North Bellmore|New York|11710|US|jenbeck18@yahoo.com|5164597081||US</t>
+  </si>
+  <si>
+    <t>4430410060697466|03|2023|212|Micheal Ditto|Micheal|Ditto|330 CECIL AVE|LOUISVILLE|Kentucky|40212|US|michealditto1984@gmail.com|5022987180||US</t>
+  </si>
+  <si>
+    <t>4640182129104349|12|2023|036|Daniel Fisher|Daniel|Fisher|6604 KENNEMER DR|RAPID CITY|SD|57702-9589|US|Dfisher99911@gmail.com|16058772638||US</t>
+  </si>
+  <si>
+    <t>4482630106440285|10|2025|576|John McClure |John|McClure |2306 Vince Rd|Nicholasville |Kentucky |40356|US|Johnmcclure9@gmail.com|8599402038||US</t>
+  </si>
+  <si>
+    <t>5178058755603746|05|2024|032|andrea rodriguez|andrea|rodriguez|14626 SW 144TH CT|Miami|FL|33186|US|water_dragon41@yahoo.com|7863272082||US</t>
+  </si>
+  <si>
+    <t>4081044012579167|03|2024|701|Trisha Encinas|Trisha|Encinas|22507 N 31st Ave|Phoenix|Arizona|85027|US|Trishae@cox.net|6233770030||US</t>
+  </si>
+  <si>
+    <t>372774072203060|10|2024|1109|John Willis|John|Willis|2006 Down Woods Lane|Windermere|FL|34786|US|johnwillis1229@yahoo.com|4074212332|1998-12-29|US</t>
+  </si>
+  <si>
+    <t>4147342033837552|03|2024|162|Geraldine Chachoua|Geraldine|Chachoua|10024 Lachlan Drive|Austin|TX|78717|US|geraldine.chachoua@gmail.com|6177105407||US</t>
+  </si>
+  <si>
+    <t>379265104991007|06|2025|6607|Micah Long|Micah|Long|1294 Sterling Pl|Brooklyn|NY|11213|US|micah.long90@gmail.com|6784465529||US</t>
+  </si>
+  <si>
+    <t>4430400076734460|03|2023|168|Wanda Murphy|Wanda|Murphy|1612 Sedgwick Street|Pittsburgh|PA|15233|US|wlmurphy4791@gmail.com|4125539335||US</t>
+  </si>
+  <si>
+    <t>5172790026607546|01|2023|259|Enllel Pineda|Enllel|Pineda|7708 Village Trail Dr|Dallas|TX|75254|US|pinedaenllel@yahoo.com|||US</t>
+  </si>
+  <si>
+    <t>4000222010965400|12|2022|617|Rose Gutierrez|Rose|Gutierrez|1123 w spruce st |Compton |CA|90220|US|Bbyrosee@gmail.com|3104184066||US</t>
+  </si>
+  <si>
+    <t>4147180119267199|07|2023|136|Michael  Nuckols |Michael |Nuckols |2032 Mount Vernon Road SW|Roanoke |VA|24015|US|mnuckols87@gmail.com|7033805024||US</t>
+  </si>
+  <si>
+    <t>4275690021465784|01|2024|291|Jill Prater|Jill|Prater|2129 Palomar Trace Drive|Lexington |Kentucky |40513|US|soardprater@gmail.com|8583612839||US</t>
+  </si>
+  <si>
+    <t>5424181388327509|12|2024|122|Chelsea Tymczyszyn|Chelsea|Tymczyszyn|2150 Ecroyd Ave|Simi Valley|California|93063|US|sotes08@gmail.com|8053903007||US</t>
+  </si>
+  <si>
+    <t>4037840082551191|04|2025|402|Michelle Myers|Michelle|Myers|13479 N Jennings Rd|Clio|Michigan |4842|US|mmyers1220@yahoo.com|8102237230||US</t>
+  </si>
+  <si>
+    <t>4733100073225801|11|2022|068|Alexander Krishchyunas|Alexander|Krishchyunas|1970 Highland Drive|State College |Pennsylvania |16803|US|kas14slider@yahoo.com|||US</t>
+  </si>
+  <si>
+    <t>4750566025103452|02|2025|794|Carla Catton|Carla|Catton|6734 S Sisler Road|Casa grande|AZ|85193|US|Cwcatton@gmail.com|4808499933||US</t>
+  </si>
+  <si>
+    <t>4430510088616578|12|2022|704|Andre Dawson|Andre|Dawson|160 Somerset Street |Plainfield|New Jersey|07062|US|Strongdre67@gmail.com|9083570049|1989-10-9|US</t>
+  </si>
+  <si>
+    <t>4867960031807893|07|2022|981|Jorge Acosta|Jorge|Acosta|2732 SW Ensenada Ter|Port Saint Lucie|FL|34953|US|jorgeacostaz33@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>371301445832002|10|2023|8644|Carol Rogers|Carol|Rogers|15906 oak hill road|Silver spring |Md|20905|US|Clrlumbee@aol.com|3013255908||US</t>
+  </si>
+  <si>
+    <t>4000220037090517|11|2022|697|Ashley Brunt|Ashley|Brunt|2013 Dana Ln|Papillion |Nebraska|68133|US|Ashhaus86@hotmail.com|4026503227||US</t>
+  </si>
+  <si>
+    <t>4490520004592701|01|2023|469|Jennifer Pierce|Jennifer|Pierce|262 Lilly Lane|Somerset|Ky|42503|US|the4pierces@twc.com|6062719494||US</t>
+  </si>
+  <si>
+    <t>4147202382094397|12|2023|881|seth w dodson|Seth|Dodson|1850 N Hope St|Philadelphia |PA|19122|US|sethwdodson@gmail.com|3129615838|1982-4-13|US</t>
+  </si>
+  <si>
+    <t>5129915818650222|01|2024|522|Eric C Karstunen|Eric|Karstunen|116 Burkhall Street|Weymouth|MA|02190|US|eric.karstunen@gmail.com|7818561992|1992-12-9|US</t>
+  </si>
+  <si>
+    <t>4400664404696339|08|2023|281|Janessa Vargas|Janessa|Vargas|50 Cambon Pl|Nesconset |NY |11767|US|janessavargas@yahoo.com|5619513446||US</t>
+  </si>
+  <si>
+    <t>4833160202402183|10|2024|280|Doribeth Tardillo|Doribeth|Tardillo|607 West Vernon Ave|Los Angeles|CA|90037|US|dori.tardillo@gmail.com|3234943762||US</t>
+  </si>
+  <si>
+    <t>5178058369999811|12|2024|025|Brianna Fulce |Brianna|Fulce |6391 Baker Creek St |Las Vegas|NV|89149|US|Brieskii08@gmail.com|7025954859||US</t>
+  </si>
+  <si>
+    <t>372314234905003|04|2023|1023|Antoinette Gurevich|Antoinette|Gurevich|2202 N JERUSALEM RD|NORTH BELLMORE|NY|11710|US|antoinetteg77@yahoo.com|5167839367||US</t>
+  </si>
+  <si>
+    <t>4815820198482083|09|2023|049|Aracely Perales|Aracely|Perales|11713 Senwood St|Norwalk|CA|90650|US|Arigonzalez913@gmail.com|3232155483||US</t>
+  </si>
+  <si>
+    <t>4100390505816278|06|2024|430|Mariana Gonzalez|Mariana|Gonzalez|8918 Shenandoah Ave|Pico Rivera|CA|90660-2647|US|Mariana0623@yahoo.com|5628054346||US</t>
+  </si>
+  <si>
+    <t>4147400258709250|03|2024|243|Tyler Powell|Tyler|Powell|26 park hill circle lake siant louis MO|lake siant Louis|Missouri|63367|US|tylerlambo19@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>4737024032235824|03|2023|958|Julie Sklar|Julie|Sklar|33 Blue Heron Lane|Bayville|New Jersey - NJ|08721|US|Maya17@aol.com|7327738399|1962-4-17|US</t>
+  </si>
+  <si>
+    <t>4750556106931335|02|2026|744|Destini Rushing|Destini|Rushing|8230 Glenn Eagles Dr |Ovilla |TX|75154|US|rushing.destini@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>4147202403758087|11|2023|150|Jessica  Montecalvo|Jessica |Montecalvo|1799 FM 528 Rd|WEBSTER|TX|77598|US|jessicamontecalvo93@gmail.com|6314874691||US</t>
+  </si>
+  <si>
+    <t>4640182067439624|11|2022|192|Shannon Ulrich|Shannon|Ulrich|4838 Cross Pointe Dr.|Oldsmar|FL|34677|US|Mcquacker@aol.com|3522197222||US</t>
+  </si>
+  <si>
+    <t>4599540035323363|10|2024|629|Kristin Seale|Kristin|Seale|74 Main Street|Vincentown |NJ|08088|US|Kristin.t.seale@gmail.com|4843266196|1973-3-5|US</t>
+  </si>
+  <si>
+    <t>4147400278531742|08|2025|067|Yamile Saied Mendez|Yamile Saied|Mendez|84 S Country Manor Ln|Alpine|Utah|84004|US|yamile.s.mendez@gmail.com|8013696900||US</t>
+  </si>
+  <si>
+    <t>373954675593013|12|2022|4636|Jessica Vassallo|Jessica|Vassallo|5530 Garden Arbor Drive|Lutz|FL|33558|US|jesvassallo13@gmail.com|7273854641||US</t>
+  </si>
+  <si>
+    <t>4081044016310270|02|2025|768|Aimee Whitley|Aimee|Whitley|10249 E Calypso Ave. |Mesa|Arizona|85208|US|Angelbaby8358@yahoo.com|2523823192||US</t>
+  </si>
+  <si>
+    <t>4266841551583683|11|2022|129|Hildred Hott|Hildred|Hott|15 Montmorency Drive|Bunker Hill|WV|25413|US|hildredrhott@yahoo.com|5403279525||US</t>
+  </si>
+  <si>
+    <t>379271068592005|11|2024|1474|Amy Kleinatland|Amy|Kleinatland|210 Hesper Dr |Carencro |La|70520|US|arktravel01@gmail.com|5048581187||US</t>
+  </si>
+  <si>
+    <t>4653459692474851|04|2024|975|Nicole Barta|Nicole|Barta|3385 Fantasy Pl|Castle Rock|CO|80109|US|ndotdesign@live.com|3039810677||US</t>
+  </si>
+  <si>
+    <t>5513017990442397|04|2023|805|Brooke Cappel|Brooke|Cappel|8451 Christie Dr|Frisco|TX|75033-3710|US|Brooke.Cappel.039@gmail.com|9038186884||US</t>
+  </si>
+  <si>
+    <t>4117734000277182|03|2023|695|Jessica Tovar|Jessica|Tovar|37 Wingate Rd|Valley Stream|NY|11581|US|jessicatovar01@gmail.com|5165515814||US</t>
+  </si>
+  <si>
+    <t>4867960347985219|04|2022|939|Angie  Martin|Angie |Martin|221 Delmar Dr|Richmond|KY|40475|US|angie.martin@ymail.com|8596612289||US</t>
+  </si>
+  <si>
+    <t>4433761000003711|04|2024|240|Robert Stone|Robert|Stone|134 Thompson St|Frankfort|Ky|40601|US|bstone74ky@gmail.com|5023200687||US</t>
+  </si>
+  <si>
+    <t>4400664844294158|12|2024|467|Lisa Getta|Lisa|Getta|723 West Wilson Street|Batavia|IL|60510|US|lisa.getta@gmail.com|6302918669||US</t>
+  </si>
+  <si>
+    <t>4400668071769782|04|2024|637|Sophia Sodergren|Sophia|Sodergren|977 NW 79th Terrace |Plantation |FL|33324|US|sophiasodergren@yahoo.com|7543665318||US</t>
+  </si>
+  <si>
+    <t>4342561974476137|07|2023|300|Amber LaBrash|Amber|LaBrash|11627 N 30th St|Phoenix|AZ|85028|US|amber.a.starkey@gmail.com|6236953689||US</t>
+  </si>
+  <si>
+    <t>5466160164575704|02|2023|674|Christine Galione|Christine|Galione|1246 Colonial Dr|Quakertown |Pa|18951|US|cfrales@verizon.net|2154801278|1974-5-25|US</t>
+  </si>
+  <si>
+    <t>4355440655074376|09|2023|786|Kathleen Best|Kathleen|Best|1281 Providence Way |Lawrenceville|Ga|30046|US|kathleenmbest@gmail.com|6786872208||US</t>
+  </si>
+  <si>
+    <t>4117744069771074|04|2023|006|Michael Billy|Michael|Billy|212 Stewarts landing Circle|Smyrna|TN|37167|US|Michael.Billy2@gmail.com|9088720354||US</t>
+  </si>
+  <si>
+    <t>4400661125666898|08|2023|696|Abbie Abernathy|Abbie|Abernathy|5350 pommel dr.|Mount Airy|Md|21771|US|Abbieabernathy@gmail.com|5012760652||US</t>
+  </si>
+  <si>
+    <t>4427434230765875|01|2024|364|Kaisi Jones |Kaisi|Jones |1959 harbor ave |Long Beach |Ca |90810|US|Joneskaisi1471@gmail.com|5622417874||US</t>
+  </si>
+  <si>
+    <t>379265304924006|01|2024|2729|Dimas Gutierrez|Dimas|Gutierrez|Po box 904|Farmingdale|New York|11735|US|dimasg2003@yahoo.com|5165108060||US</t>
+  </si>
+  <si>
+    <t>370034004529393|04|2023|4733|Tara Cericola|Tara|Cericola|1828 E Denim Trl|San Tan Valley|Arizona|85143-4493|US|Taracericola@gmail.com|4848940680||US</t>
+  </si>
+  <si>
+    <t>4355460707857933|03|2023|241|Pennie Marlin|Pennie|Marlin|135 Normandy Drive|Mount Juliet|tn|37122|US|pennie.marlin@gmail.com|6154799826||US</t>
+  </si>
+  <si>
+    <t>379278016692001|12|2025|5107|Kristi Cox|Kristi|Cox|2975 Onslow Court|Brighton|MI|48114|US|Kristilynne@comcast.net|8105992259||US</t>
+  </si>
+  <si>
+    <t>4867960349178235|05|2025|773|Glenn Mansfield|Glenn|Mansfield|175 North Locust Hill Drive|Lexington|KY|40509|US|Glennvsr@gmail.com|7016513518||US</t>
+  </si>
+  <si>
+    <t>4765850265117312|09|2022|315|Crystal  Arrington |Crystal |Arrington |1555 Hawesville Easton Road|Reynolds Station|Kentucky|42368|US|Arringtoncrystal7175@gmail.com|2703149143||US</t>
+  </si>
+  <si>
+    <t>4435120795141301|03|2026|372|Louis Santiago|Louis|Santiago|1319 malone ave|Spring hill|FL|34606|US|luigipr84@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>4482330096577887|06|2025|723|Alicia Woods  Alicia Woods |Alicia Woods |Alicia Woods |20107 Bending Creek Pl |Tampa |Fl|33647|US|lirosefitness@gmail.com|9292496801||US</t>
+  </si>
+  <si>
+    <t>4155601078159233|05|2023|104|Lindsay Burmeta|Lindsay|Burmeta|14 Whisper lane|Wantagh|Ny|11793|US|Anthonyburmeta@yahoo.com|5166435566||US</t>
+  </si>
+  <si>
+    <t>4635053208459036|12|2024|721|Anna James|Anna|James|5938 Bixby Village Drive |Long Beach|CA|90803|US|Annadenee@gmail.com|5623707171||US</t>
+  </si>
+  <si>
+    <t>5291159613209791|01|2024|216|Lucy  Crespo |Lucy |Crespo |17 eagle view dr|Newmanstown |Pa|17073|US|Lacrespo0247@gmail.com|6105894072||US</t>
+  </si>
+  <si>
+    <t>4943709147554149|06|2022|552|Joy Massey|Joy|Massey|120 Faraday St|Monte Vista|CO|81144|US|swimmer937@msn.com|7196494209||US</t>
+  </si>
+  <si>
+    <t>372952158541013|09|2023|4761|Tori Trujeque|Tori|Trujeque|8514 Kings Rail Way |Tampa|FL|33647|US|Tatrujeque@gmail.com|8137847292||US</t>
+  </si>
+  <si>
+    <t>4000222283655563|04|2023|093|Jeffrey English|Jeffrey|English|723 Morocco ave |Orlando|Florida |32807|US|Jenglish2525@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>371282177895005|06|2024|5004|Damaris  Ortiz|Damaris |Ortiz|14840 SW 159th St|Miami|FL|33187|US|ortizdamaris514@gmail.com|3054017720||US</t>
+  </si>
+  <si>
+    <t>4387870171052831|10|2024|454|Rhonda Singleton|Rhonda|Singleton|150 grenada ave.|Roosevelt|NY|11575|US|singlewo@verizon.net|5166031752||US</t>
+  </si>
+  <si>
+    <t>4266841612531481|10|2025|399|Karina L Jasso|Karina|Jasso|7152 South Rincon Ridge Dr|Tucson|AZ|85756|US|karinaljasso@gmail.com|5204298976||US</t>
+  </si>
+  <si>
+    <t>4210100001760087|04|2023|660|William McClurg|William|McClurg|2754 75th Ave|Oakland|CA|94605|US|mvmedic@aol.com|6508673866|1979-12-13|US</t>
+  </si>
+  <si>
+    <t>4098741000010227|12|2022|651|Brandi  Zegers|Brandi |Zegers|1671 sw lacey lane|Lincoln |Ne|68522|US|Brandi.berndt@yahoo.com|4025251600||US</t>
+  </si>
+  <si>
+    <t>5115653615674873|06|2026|294|Lara Solovay|Lara|Solovay|195 willoughby ave|195 willoughby ave|NY|11105|US|ljsolovay@aol.com|6466258587||US</t>
+  </si>
+  <si>
+    <t>4117737012048566|01|2026|492|Julie Kupferberg|Julie|Kupferberg|83 Glenmere Way|Holbrook|NY|11741|US|jekupferberg@gmail.com|6316622585||US</t>
+  </si>
+  <si>
+    <t>4355463502365979|11|2024|303|Dawn Houck|Dawn|Houck|10801 Scenic Drive|Port Richey|Fl|34668|US|houckfam2014@yahoo.com|7275345895||US</t>
+  </si>
+  <si>
+    <t>379261566531001|01|2024|0920|Angela J Nikas|Angela|Nikas|8135 Elrita Drive|Los Angeles|CA|90046|US|angelanikas@yahoo.com|3102706376|1984-2-3|US</t>
+  </si>
+  <si>
+    <t>4599540127878498|08|2025|684|Jasmina Reynolds|Jasmina|Reynolds|4017 Jacobcrest Lane|Murfreesboro|TN|37128|US|jasminakuduzovic7@gmail.com|6156384044||US</t>
+  </si>
+  <si>
+    <t>5178006720642190|11|2022|997|KELSEY  SCHERR|Kelsey|Scherr|44 verbena dr|Commack|Ny|11725|US|Kscherr508@gmail.com|6319237120|1990-10-14|US</t>
+  </si>
+  <si>
+    <t>5424323831789006|12|2023|369|LaTayna GREENE|LaTayna|Greene|1932 Cattle Path|Lexington|KY|40509|US|greene.latayna@gmail.com|4792254922||US</t>
+  </si>
+  <si>
+    <t>4266841570591873|12|2023|579|Michael Roll|Michael|Roll|1401 Retreat Cir.|Clermont|FL|34714|US|mikerroll@gmail.com|7345782794|1976-2-17|US</t>
+  </si>
+  <si>
+    <t>5444483555094540|11|2022|155|Brian Fontillas|Marlo|Ito|13017 SE 188th St|Renton|Wa|98058|US|marloakemi@gmail.com|8083869502|1992-6-23|US</t>
+  </si>
+  <si>
+    <t>5424181431856819|03|2024|151|Nick Bales|Nick|Bales|3608 South Fountaincrest Drive|Knoxville|Tennessee |37918|US|nickbales34@outlook.com|8652232265||US</t>
+  </si>
+  <si>
+    <t>4366182267986061|11|2025|444|Elsa Roman|Elsa|Roman|4157 Levelside Ave |Lakewood |CA |90712|US|Eroman918@gmail.com|5628411067||US</t>
+  </si>
+  <si>
+    <t>4191620057374841|12|2023|394|jesika smith|jesika|smith|2839|Cable|OHIO|43009|US|jesismith04@gmail.com|9378960313||US</t>
+  </si>
+  <si>
+    <t>4147202415440781|02|2024|160|Renardo Gaston|Renardo|Gaston|1322 Havenbrook Drive|Nashville|TN|37207|US|renardo.gaston@icloud.com|||US</t>
+  </si>
+  <si>
+    <t>376767364882001|02|2024|4882|Alyce Menton|Alyce|Menton|11407 Knot Way|Hollywood|33026|33026|US|alyce.menton@gmail.com|9546438279||US</t>
+  </si>
+  <si>
+    <t>5378110036500171|04|2026|239|Lourdes Borchers |Lourdes|Borchers |2280 Arby Court |Wantagh |New York |11793|US|corazonluv@aol.com|9177979924||US</t>
+  </si>
+  <si>
+    <t>5594600021871098|10|2023|414|Leia Papayannakos|Leia|Papayannakos|3576 Bernard Drive|Wantagh|NY|11793|US|ohheyitslee@aol.com|5166957252||US</t>
+  </si>
+  <si>
+    <t>4815830028662234|11|2022|059|Lisa Matro|Lisa|Matro|32221 Mill Stream Rd|Trabuco Canyon|CA|92679|US|lmatro21@gmail.com|9492926572||US</t>
+  </si>
+  <si>
+    <t>4147202245676893|12|2023|610|Minas  Petrochilos |Minas |Petrochilos |166 Barbara Rd|Bellmore|New York|11710|US|MinasPetrochilos@gmail.com|9172549242||US</t>
+  </si>
+  <si>
+    <t>5262269043150732|10|2025|706|Rosa Bledsoe|Rosa|Bledsoe|1399 Somerset Lane|Elk Grove Village|IL|60007|US|rosa.d.bledsoe@gmail.com|7089900891||US</t>
+  </si>
+  <si>
+    <t>4342580152377511|03|2024|894|Emmanuel Ibarra|Emmanuel|Ibarra|2500 N Western Ave|Texline|Texas|79087|US|emansib09@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>5155938757750230|09|2025|702|Debra Young|Debra|Young|15215 148th Ave CT East|Orting|WA|98360|US|Debra.kla@outlook.com|2064739990||US</t>
+  </si>
+  <si>
+    <t>372344561711005|08|2024|6069|Roseann Kerbatsos|Roseann|Kerbatsos|739 Brower Avenue|Franklin Square|NY|11010|US|strongest29@aol.com|19177097366||US</t>
+  </si>
+  <si>
+    <t>4139469998250735|12|2022|634|Danielle Smith|Danielle|Smith|6343 Manchester rd |Parma |Ohio|44129|US|dcap87@yahoo.com|2164090562||US</t>
+  </si>
+  <si>
+    <t>4482630106164679|03|2025|266|Jake Ramsey|Jake|Ramsey|1116 deer haven lane |Lexington |Ky|40509|US|ramsey.jake8@gmail.com|8597538316||US</t>
+  </si>
+  <si>
+    <t>5178057543433101|03|2025|923|Betty Love|Betty|Love|115 Cox Lake Rd|Stanley|Nc|28164|US|Lov2preach@aol.com|7046085146||US</t>
+  </si>
+  <si>
+    <t>5178059740736005|06|2024|508|Estefany Garcia|Garcia|Estefany|4040 Bryanwood Rd|North Chesterfield|va|23234|US|estefanymateo71@gmail.com|8044860941||US</t>
+  </si>
+  <si>
+    <t>5178059952564657|12|2023|093|LISA WRIGHT|LISA|WRIGHT|104 APACHE TRAIL|SEGUIN|TX|78155|US|LAWW78155@GMAIL.COM|||US</t>
+  </si>
+  <si>
+    <t>4366189850891020|07|2026|654|Jaime Curtin|Jaime|Curtin|6752 Lookout Lodge Ln |North Las Vegas|Nevada|89084|US|Jaimesep15@gmail.com|7023343240||US</t>
+  </si>
+  <si>
+    <t>6011004162997437|11|2024|439|RACHEL JONES|RACHEL|JONES|3016 PENN MEADE WAY |NASHVILLE |TN|37214|US|racheljones0510@gmail.com|6155941604||US</t>
+  </si>
+  <si>
+    <t>4783400000927555|05|2024|881|Van Guarino|Van|Guarino|29 Hulse Ave |Wading River |NY|11792|US|nesserad5@gmail.com|7577487364||US</t>
+  </si>
+  <si>
+    <t>4427434231256007|02|2024|432|Gizel Castellanos|Gizel|Castellanos|2945 w Rowland circle|Anaheim|CA|92804|US|gizelcastellanos@yahoo.com|7148589464||US</t>
+  </si>
+  <si>
+    <t>4037840105392144|09|2022|222|Zena Hardt|Zena|Hardt|9201 Drake Ave|Evanston|IL|60203|US|hardtshaped@gmail.com|3125934919|1988-11-4|US</t>
+  </si>
+  <si>
+    <t>4356436012412100|03|2024|376|Tania Martinez|Tania|Martinez|27109 SW 140TH PATH|HOMESTEAD|FL|33032|US|Lostintheglades@yahoo.com|3059101796||US</t>
+  </si>
+  <si>
+    <t>4147202430109858|05|2024|490|Theresa Yong|Theresa|Yong|324 Prospect St|Franklin|MA|02038-3435|US|Arbolita@hotmail.com|7742329345|1978-7-23|US</t>
+  </si>
+  <si>
+    <t>4412110000867003|02|2023|341|Traci  Thacker|Traci |Thacker|355 red hawk lane|Ona|WV|25545|US|traci.thacker@gmail.com|6064656757||US</t>
+  </si>
+  <si>
+    <t>4100390038936551|07|2024|123|Janice  Miguel|Janice |Miguel|1207 Pasteur dr|Lancaster|California |93535|US|Janicemiguel.jm@gmail.com|6619447035||US</t>
+  </si>
+  <si>
+    <t>4164620003777256|03|2025|546|Layla Sneden|Layla|Sneden|1053 Tudor Drive|Crownsville|MARYLAND|21032|US|Lasneden@gmail.com|3015479773|2003-2-8|US</t>
+  </si>
+  <si>
+    <t>5178006656133131|02|2023|853|Steven Bryant|Steven|Bryant|PO BOX 1262|Burnside |Ky|42519|US|Stevenbryant19@hotmail.com|6067652906||US</t>
+  </si>
+  <si>
+    <t>4640182123443891|08|2022|929|Ryan Griffin|Ryan|Griffin|3932 Sw 108th lane|Ocala|Florida|34476|US|Ryangriffin98@yahoo.com|||US</t>
+  </si>
+  <si>
+    <t>4388540073319344|07|2024|866|Jill Clark|Jill|Clark|12126 Scott Grant Road|Browns Valley|CA|95918|US|jillclark0615@gmail.com|5308160915||US</t>
+  </si>
+  <si>
+    <t>4147202220146839|04|2025|194|Breana Berg|Breana|Berg|3166 W Coupe Deville Lane|Riverton|Ut|84065|US|Breana.lynn.griffin@gmail.com|8326279627||US</t>
+  </si>
+  <si>
+    <t>4465420174978098|07|2022|525|Mika Sell|Mika|Sell|18717 West Elm st|Litchfield park |AZ|85340|US|mikasell@hotmail.com|8083812256||US</t>
+  </si>
+  <si>
+    <t>5101693050494433|08|2024|855|Gemeqka  George|Gemeqka |George|9418 Brannok Lane|Tomball |TX|77375|US|gemeqka@Hotmail.com|8322424114||US</t>
+  </si>
+  <si>
+    <t>4147180192844732|09|2022|936|Terri Davis|Terri|Davis|65 Pinon Drive|Wellington|NV|89444|US|ttthebet@embarqmail.com|7752304825||US</t>
+  </si>
+  <si>
+    <t>5146160127077820|03|2023|176|Samantha Parsons|Samantha|Parsons|213 NE 22nd st|Grand Prairie|TX|75050|US|Kja115.sp@gmail.com|3854658421||US</t>
+  </si>
+  <si>
+    <t>4640182122694809|06|2022|781|Karla Thibou|Karla|Thibou|4993 Cathay Ct|Denver|CO|80249|US|creekkarla05@gmail.com|8087797144||US</t>
+  </si>
+  <si>
+    <t>4079413307505548|10|2023|675|Tessa Johnson|Tessa|Johnson|325G 54th Ave N|Nashville|TN|37209|US|iamtessaj@gmail.com|5159752618||US</t>
+  </si>
+  <si>
+    <t>4247170000556783|11|2022|307|Sophia  Garcia|Sophia |Garcia|1988 E 167th Ave|Thornton|Colorado|80602|US|Sophiemgee@gmail.com|7208846460||US</t>
+  </si>
+  <si>
+    <t>5113010000244642|12|2023|034|Matthew Setters|Matthew|Setters|11 Virginia Court|Jeffersonville|Kentucky|40353|US|matthewsetters1987@gmail.com|8594047281||US</t>
+  </si>
+  <si>
+    <t>4060956049002746|11|2024|274|Marie Pierre|Marie|Pierre|313 Berkley Court|Radcliff|KY|40160|US|marie.mpierre1@gmail.com|3059261906||US</t>
+  </si>
+  <si>
+    <t>4185050009955034|06|2023|599|Pamela Doyle|Pamela|Doyle|6896 OLD RANCH TRL|LITTLETON|CO|80125-9054|US|pammdoyle@gmail.com|3039165776||US</t>
+  </si>
+  <si>
+    <t>4347695013735478|02|2025|211|Abigail Paca|Abigail|Paca|8481 Dawson Dr|Denver|Colorado|80229|US|abbypaca3@gmail.com|5153413933|1995-4-3|US</t>
+  </si>
+  <si>
+    <t>4185460002454911|11|2022|097|Ashley Thompson|Ashley|Thompson|1537 Ashland Rd|Mansfield|OH|44905|US|Athompson0826@yahoo.com|4196881379||US</t>
+  </si>
+  <si>
+    <t>4020180075218212|11|2023|519|Engle White|Engle|White|2045 Cambridge Dr apt G75|Lexington|KY|40504|US|englewhite4@gmail.com|8594332924||US</t>
+  </si>
+  <si>
+    <t>4266841464331626|12|2023|233|Daniel Susca|Daniel|Susca|3809 Dover Ferry Xing|AUSTIN|TX|78728|US|djsusca@gmail.com|6038093650|1989-7-13|US</t>
+  </si>
+  <si>
+    <t>4758241288817790|02|2023|386|Melissa Thurston|Melissa|Thurston|14303 S Fox Creek Dr|HERRIMAN|UT|84096|US|mareynolds3@gmail.com|8018851170||US</t>
+  </si>
+  <si>
+    <t>4270825021094425|06|2023|780|Nikita Wordlow|Nikita|Wordlow|9008 Haviland Avenue|Louisville|Kentucky|40220|US|NWORDLOW77@GMAIL.COM|5023453892||US</t>
+  </si>
+  <si>
+    <t>4400664009805285|08|2024|942|Ronald  Edmundson|Ronald |Edmundson|19400 Wyandotte St #19|Reseda |Ca|91335|US|rule62ron@yahoo.com|7472069505||US</t>
+  </si>
+  <si>
+    <t>4435120794002835|11|2025|011|Susan McWhirter|Susan|McWhirter|7816 Citrus Blossom Dr|Land O Lakes|Fl|34637|US|susan.mcwhirter@griswoldhomecare.com|8139176108||US</t>
+  </si>
+  <si>
+    <t>4744790061514021|03|2023|384|Mike Leverrier|Mike|Leverrier|803 Division St|Nashville|TN|37203|US|mleverrier@gmail.com|3016613518||US</t>
+  </si>
+  <si>
+    <t>4815821033391521|04|2026|602|Emelie Conroy|Emelie|Conroy|928 South Broadway|Los Angeles|CA|90015|US|eugeneverina@gmail.com|3012500425||US</t>
+  </si>
+  <si>
+    <t>6011001265184608|01|2023|300|Mikayla Shockley |Mikayla|Shockley |405 Brookrun Dr.|Callaway|VA|24067|US|mikaylashockley98@gmail.com|5403528528||US</t>
+  </si>
+  <si>
+    <t>4190022541772485|07|2025|435|Madeline  Dougherty |Madeline |Dougherty |P.O. Box 1432|Gypsum|Colorado|81637|US|Maddi.grace.d@gmail.com|9704712817|1998-5-4|US</t>
+  </si>
+  <si>
+    <t>4833140016013905|09|2025|038|Dale Scohy|Dale|Scohy|10717 Lewis Ct|BROOMFIELD|CO|80021|US|dvscohy@gmail.com|7208331249||US</t>
+  </si>
+  <si>
+    <t>4411030019314782|03|2026|581|Ann Ferguson|Ann|Ferguson|1888 Clifton Bridge Dr|VIRGINIA BEACH|VA|23456|US|annmarieferguson@yahoo.com|||US</t>
+  </si>
+  <si>
+    <t>4147400311604530|06|2026|400|Danielle Clinscales|Danielle|Clinscales|532 Creekside Dr|BELTON|TX|76513|US|d.clinscales@aol.com|||US</t>
+  </si>
+  <si>
+    <t>5132550002605800|03|2024|802|Ilya Dreizin|Ilya|Dreizin|4436 95th Ave NE|BELLEVUE|WA|98004|US|blackdragonil@hotmail.com|||US</t>
+  </si>
+  <si>
+    <t>4147098548978071|05|2022|143|Darcel Martin|Darcel |Martin|4622 Lynhuber Dr|NEW ORLEANS|LA|70126|US|darcelmmartin@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>5287491161590256|04|2024|501|Cody Cade|Cody|Cade|298 Grennan Ln N|ENUMCLAW|WA|98022|US|codocad@yahoo.com|||US</t>
+  </si>
+  <si>
+    <t>4000222144545607|08|2024|506|Shane Taylor|Shane|Taylor| 2037 Thistle Park Dr, Unit 4103|FORT WORTH|TX|76110|US|shanetaylor1331@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>4388576139468899|11|2025|300|Katy Bastedo|Katy|Bastedo|5703 Northwood Bend Cir|HOUSTON|TX|77059|US|katybastedo@comcast.net|8324283779||US</t>
+  </si>
+  <si>
+    <t>5458668382230019|03|2023|191|Darrell Hodnett|Darrell|Hodnett|409 Guffee Rd|COAHOMA|TX|79511|US|Sobhodnett@hotmail.com|||US</t>
+  </si>
+  <si>
+    <t>4744800025290582|08|2024|781|Alexander Loebner|Alexander|Loebner|13289 Windbrooke Ln|SAINT LOUIS|MO|63146|US|Alexloebner@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>5178006720551946|05|2022|490|Stephanie Gonzalez |Stephanie |Gonzalez |3909 Dyre Ave|BRONX|NY|10466|US|IamStephMunoz@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>4147202479336727|04|2026|114|David Haberer|David|Haberer|2023 Sedona Dr|LEAGUE CITY|TX|77573|US|dave@thehaberers.com|||US</t>
+  </si>
+  <si>
+    <t>372657304872002|04|2026|6803|Eric Zohar|Eric|Zohar| 810 W West St|TAMPA|FL|33602|US|E-Z-ERIC@HOTMAIL.COM|8134171766||US</t>
+  </si>
+  <si>
+    <t>4737024047509601|03|2025|999|Nicholas  Ziner|Nicholas |Ziner|63 Woodbridge Ter, Unit F|WOODBRIDGE|NJ|07095|US|nziner2003@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>4266902063778474|08|2027|090|Jessica  Carr|Jessica |Carr|6701 Bryan Dairy Rd, Unit 308|Largo|FL|33777|US|Jnurse17@yahoo.com|7273651486||US</t>
+  </si>
+  <si>
+    <t>4833160194565898|05|2022|011|Bernard Cummings Jr|Bernard |Cummings |4454 Avocado st|Los Angeles |California |90028|US|bernard1218@gmail.com|3236970272|2020-12-18|US</t>
+  </si>
+  <si>
+    <t>4266841547418994|11|2022|883|Laura Riddle|Laura|Riddle|722 Bluebonnet Drive Unit B|Keller|TX|76248|US|Lauraandmichael2018@gmail.com|8174030080|1995-8-23|US</t>
+  </si>
+  <si>
+    <t>4737027004489451|12|2023|189|marisa Gerri|marisa|Gerri|121 smart ave|yonkers|ny|10704|US|bellezzany77@gmail.com|9143747371||US</t>
+  </si>
+  <si>
+    <t>4432646492662291|07|2022|096|Josiah Walker|Josiah|Walker|618 Rock Springs Ln|Monterey|TN|38574|US|josiahwalker1616@gmail.com|6154872233||US</t>
+  </si>
+  <si>
+    <t>4388576131091947|04|2024|150|AMY L SCHWARTZ |Amy|Schwartz|208 S Colorado St|Gunnison|CO|81230|US|aschwartzod@yahoo.com|9702750540||US</t>
+  </si>
+  <si>
+    <t>4366188460197000|09|2022|263|Robin Jesseman|Robin|Jesseman|1722 Calle Artigas|Thousand Oaks|CA|91360|US|robin.jesseman805@gmail.com|8054029086||US</t>
+  </si>
+  <si>
+    <t>4147202450342611|03|2025|318|Jada Launi|Jada|Launi|13811 Bauer Drive|Rockville|Maryland|20853|US|richaj12@yahoo.com|2404759352|1986-1-30|US</t>
+  </si>
+  <si>
+    <t>4366183264892989|04|2025|493|Crystal Jackson|Crystal|Jackson|15510 1/2 s Vermont Ave |Gardena|Ca|90247|US|C_jackson03@yahoo.com|||US</t>
+  </si>
+  <si>
+    <t>4120618068245675|06|2024|341|Kathleen Gallagher|Kathleen|Gallagher|166 Dari Drive|Holbrook|NY|11741|US|kmg51003@verizon.net|6317084602||US</t>
+  </si>
+  <si>
+    <t>4489960001491403|01|2025|832|Kaelyn Daughetee|Kaelyn|Daughetee|10618 Mount Evans Dr|Peyton|Colorado|80831|US|raphaela0825@gmail.com|7192164712||US</t>
+  </si>
+  <si>
+    <t>4610460155105356|09|2024|503|Camilo Deleon|Camilo|Deleon|7107 Aragon dr|Houston |Texas|77083|US|Camilodeleon82@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>4815820156143990|03|2022|008|Aimee Aiken|Aimee|Aiken|3300 Holland drive |Santa rosa|Ca|95404|US|Newman.aimee@gmail.com|7075482726||US</t>
+  </si>
+  <si>
+    <t>4342561066050956|11|2023|888|Christy  Wilkinson|Christy |Wilkinson|20814 North Wilford Avenue|Maricopa|Arizona|85138|US|cmendonca@live.com|4803436975||US</t>
+  </si>
+  <si>
+    <t>4737029961799203|05|2024|074|Courtney Guill-Belich|Courtney|Guill-Belich|6115 5th Avenue North|St. Petersburg|fl|33710|US|cguill0504@gmail.com|7274953724||US</t>
+  </si>
+  <si>
+    <t>4147098980011910|03|2022|637|Angela  Fry|Angela |Fry|7824 Carter Dr. |Waynesville |OH|45068|US|angelafry16@gmail.com|5138936650||US</t>
+  </si>
+  <si>
+    <t>4388576139337425|10|2025|903|Christine Schneider|Christine|Schneider|4221 Sand Canyon Road|Somis|CA|93066|US|christinemarie7776@yahoo.com|3107761140||US</t>
+  </si>
+  <si>
+    <t>4727769256027321|11|2024|975|Brittany Merrill|Brittany|Merrill|3689 King Arthur circle|Lexington|Ky|40517|US|merrillbrittany90@gmail.com|8593383175||US</t>
+  </si>
+  <si>
+    <t>4189410000684189|06|2024|314|Elizabeth Savinovich|Elizabeth|Savinovich|608 Westminster Avenue|Alhambra|CA|91803|US|Lizysnorthstar@gmail.com|3237918175||US</t>
+  </si>
+  <si>
+    <t>4060686013585968|04|2025|902|Andrea Hurtado|Andrea|Hurtado|3224 S 81 Dr|Phoenix|AZ|85043|US|Andreahurtadosmiley@gmail.com|6023208858||US</t>
+  </si>
+  <si>
+    <t>4254185861820441|10|2022|312|Angelic Williams|Angelic|Williams|2137 Park Blvd|Oakland|CA|94606|US|angelic.williams711@gmail.com|5108336429|1989-7-11|US</t>
+  </si>
+  <si>
+    <t>4403932660309351|08|2026|540|Elizabeth White|Elizabeth|White|721 Howell Street|Sheffield Lake|OH|44054|US|bethriccardi@aol.com|4405413643||US</t>
+  </si>
+  <si>
+    <t>4207670242374372|05|2025|584|Folashade Griffin |Sade|Griffin|124 deer park street|Bayshore |New york|11706|US|sadegriffin08@gmail.com|6317207571|1992-12-25|US</t>
+  </si>
+  <si>
+    <t>4859530145309845|06|2024|741|DeMonte Warren|DeMonte|Warren|694 Bishop Dr|Lexington|KY|40505|US|realifetae@gmail.com|6065483190||CO</t>
+  </si>
+  <si>
+    <t>4833140016481516|02|2026|710|Jessica Alt|Jessica|Alt|17595 gold dust trail|Fountain|Colorado|80817|US|Jessalt@gmail.com|7192328299||US</t>
+  </si>
+  <si>
+    <t>4608190021360372|03|2022|387|Claribel Nieves|Claribel|Nieves|14134 Arbor Hills Rd|Tampa|FLORIDA|33625|US|cnieves1127@gmail.com|8134641203||US</t>
+  </si>
+  <si>
+    <t>4610460226478592|09|2025|065|Owen Shirk|Owen|Shirk|800 N Ruddell St|Denton|TX|76209|US|Owenshirk@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>4750556104642454|06|2025|258|Janet Boone|Janet|Boone|8914 E Abrams Loop|Tucson |Az|85710|US|Thekingsdaughtersmin@gmail.com|5204406333||US</t>
+  </si>
+  <si>
+    <t>4737030041045898|06|2024|541|Lisa Haga|Lisa|Haga|4108 paces ferry|Chester|VA|23831|US|oceanbreeze5874@gmail.com|8046875002||US</t>
+  </si>
+  <si>
+    <t>4147202411694274|01|2024|482|Michael Augello|Michael|Augello|289 N Richmond Ave|Massapequ|New York|11758|US|Michael.augello114@gmail.com|6462617371||US</t>
+  </si>
+  <si>
+    <t>4342574031070314|05|2025|145|Alma Cardoza|Alma|Cardoza|10570|Las Vegas|Nevada|89141|US|almapcardoza@gmail.com|17029183168||US</t>
+  </si>
+  <si>
+    <t>5175467152639539|10|2025|921|Kari Walker|Kari|Walker|7303 centerline rd|saranac|MI|48881|US|walkerkari33@gmail.com|6164321990||US</t>
+  </si>
+  <si>
+    <t>4430473027859231|10|2023|958|Kelsey David|Kelsey|David|77 Ajs ct|Elkton|Maryland|21921|US|kelseyviolet3@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>4411042521138765|04|2025|896|Cody Roughton |Cody|Roughton |418 Yellowstone drive |Powdersprings |Ga|30127|US|Croughton89@gmail.com|||US</t>
+  </si>
+  <si>
+    <t>5108050162142470|05|2023|285|DAVID THOMAS|David|Thomas|2116 Winton Street|Middletown|OH|45044|US|kimbermade@gmail.com|5134469338||US</t>
+  </si>
+  <si>
+    <t>4867960349852144|12|2025|216|Blake Parmer|Blake|Parmer|201 Simpson Avenue ||Kentucky |40504|US|Johnbp3232@gmail.com|6626104540||US</t>
+  </si>
+  <si>
+    <t>379251649322007|04|2025|0409|Kanisha Hermosa|Kanisha|Hermosa|8803 Summer Trail|San Antonio|Texas|78250|US|kfranceshermosa@gmail.com|2103478602|1994-9-13|US</t>
+  </si>
+  <si>
+    <t>4431135008542644|07|2022|254|Nicole Zimmerman|Nicole|Zimmerman|115 Sturbridge Dr|Georgetown|KY|40324|US|msnicole97@yahoo.com|5026423422||US</t>
+  </si>
+  <si>
+    <t>4147099640889257|10|2023|556|Biagio CERBELLI|Biagio|CERBELLI|2939 Bluestem Dr|Fort Mill|SC|29708|US|bcerbelli@gmail.com|8034879149||US</t>
+  </si>
+  <si>
+    <t>5312600084690568|10|2023|763|Mayachristine Atwood|Maya|Atwood|3221 Josie St|Panama City|FL|32404|US|mayacatwood@gmail.com|3057783980||US</t>
+  </si>
+  <si>
+    <t>4833120068066837|04|2022|723|Craig Mirkin|Craig|Mirkin|3695 Old Fram Ln|Fort Gratiot |Michigan |48059|US|Cmirk684@aol.com|8109843901||US</t>
+  </si>
+  <si>
+    <t>4139300000163915|09|2023|879|Colton Lobb|Colton|Lobb|103 Columbine Lane|Campbellsville|Ky|42718|US|colton.lobb@yahoo.com|2702995109||US</t>
+  </si>
+  <si>
+    <t>4514400322279178|04|2024|587|Mouhamadou  Mbaye|Mouhamadou |Mbaye|2732 faber av|Cincinnati |Ohio |45211|US|mbayeml@mail.uc.edu|5136418874||US</t>
+  </si>
+  <si>
+    <t>5402190547402638|05|2025|270|Tammy Silver|Tammy|Silver|6161 Memorial Highway|Tampa|FL|33615|US|soccer9pool@gmail.com|6892030481||US</t>
+  </si>
+  <si>
+    <t>5511220000615976|01|2023|785|Kelly Moseley|Kelly|Moseley|3609 CR 801|Cleburne |Tx|76031|US|kmoseley35@gmail.com|8179332368||US</t>
+  </si>
+  <si>
+    <t>4100390152758195|07|2024|954|Dustie Shelton|Dustie|Shelton|1680 Hero Way|Leander|TX|78641|US|dustie.shelton@att.net|5124617764|1981-9-14|US</t>
+  </si>
+  <si>
+    <t>4400669972774905|04|2023|692|Jonathan Jeans|Jonathan|Jeans|1848 Burland Cres|Brentwood |TN|37027|US|jonathan.jeans@gmail.com|9312202444||US</t>
+  </si>
+  <si>
+    <t>4011950049912335|10|2023|748|Renee Albiser|Renee|Albiser|211 Griffith dr |Douglassville |Pa|19518|US|reneealbiser14@gmail.com|4846021159||US</t>
+  </si>
+  <si>
+    <t>4071662115189444|05|2024|688|Karen Meyer|Karen|Meyer|853 pleasant ave |Westbury |Ny |11590|US|Kameyer@hotmail.com|5162977842||US</t>
+  </si>
+  <si>
+    <t>4036902103208242|11|2023|549|Daniel romeo|Daniel|Romeo|1025 83rd street|brooklyn|NY|11228|US|danromeo@me.com|9174688602||US</t>
+  </si>
+  <si>
+    <t>4147342070999836|11|2024|212|Tanya Lentz|Tanya|Lentz|21782 Herencia|Mission Viejo|Ca|92692|US|Tllwoman@yahoo.com|2064192650||US</t>
+  </si>
+  <si>
+    <t>4430430088214813|10|2023|489|Kelly Stanfield|Kelly|Stanfield|30223 STATE HIGHWAY 77|CAMBRIDG SPGS|PA|16403|US|stanfieldkelly@gmail.com|8145735457||US</t>
+  </si>
+  <si>
+    <t>4168328963365171|01|2024|010|Christina Laing|Christina|Laing|284 N 167th Lane|Goodyear|AZ|85338|US|Laing.christina@yahoo.com|6233326223||US</t>
+  </si>
+  <si>
+    <t>5239141037878703|07|2024|503|Katrina Olinger|Katrina|Olinger|4639 Eva road|Eva|Alabama|35621|US|Katrinaolinger@yahoo.com|2563385339||US</t>
+  </si>
+  <si>
+    <t>4266902065938936|08|2023|584|Nicole Stratton|Nicole|Stratton|84 Bayview Drive |Huntington |New York |11743|US|nicolemichellestratton@gmail.com|6314081623||US</t>
+  </si>
+  <si>
+    <t>4867960347906181|03|2022|509|Andrew Smith|Andrew|Smith|127 Windsor Dr|Richmond |Ky|40475|US|Rmnelson0110@yahoo.com|8593141122||US</t>
+  </si>
+  <si>
+    <t>5507386000102780|01|2023|560|Audrey  Suit|Audrey |Suit|3668 Big Run Road|Wallingford|Kentucky|41093|US|Audreysuit@yahoo.com|6067486344||US</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -382,12 +3033,4425 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2305D5E5-D6BB-9E44-9DC2-721649329313}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A882"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A866" workbookViewId="0">
+      <selection activeCell="L892" sqref="L892"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A364" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A365" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A366" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A367" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A368" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A369" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A370" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A371" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A372" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A373" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A374" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A375" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A376" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A377" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A378" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A379" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A380" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A381" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A382" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A383" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A384" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A385" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A386" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A387" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A388" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A389" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A390" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A391" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A392" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A393" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A394" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A395" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A396" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A397" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A398" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A399" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A400" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A401" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A402" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A403" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A404" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A405" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A406" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A407" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A408" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A409" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A410" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A411" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A412" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A413" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A414" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A415" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A416" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A417" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A418" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A419" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A420" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A421" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A422" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A423" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A424" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A425" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A426" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A427" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A428" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A429" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A430" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A431" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A432" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A433" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A434" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A435" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A436" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A437" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A438" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A439" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A440" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A441" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A442" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A443" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A444" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A445" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A446" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A447" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A448" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A449" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A450" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A451" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A452" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A453" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A454" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A455" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A456" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A457" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A458" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A459" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A460" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A461" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A462" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A463" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A464" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A465" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A466" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A467" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A468" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A469" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A470" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A471" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A472" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A473" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A474" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A475" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A476" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A477" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A478" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A479" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A480" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A481" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A482" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A483" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A484" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A485" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A486" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A487" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A488" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A489" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A490" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A491" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A492" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A493" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A494" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A495" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A496" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A497" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A498" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A499" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A500" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A501" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A502" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A503" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A504" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A505" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A506" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A507" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A508" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A509" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A510" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A511" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A512" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A513" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A514" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A515" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A516" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A517" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A518" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A519" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A520" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A521" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A522" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A523" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A524" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A525" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A526" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A527" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A528" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A529" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A530" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A531" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A532" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A533" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A534" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A535" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A536" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A537" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A538" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A539" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A540" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A541" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A542" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A543" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A544" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A545" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A546" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A547" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A548" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A549" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A550" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A551" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A552" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A553" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A554" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A555" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A556" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A557" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A558" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A559" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A560" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A561" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A562" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A563" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A564" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A565" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A566" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A567" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A568" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A569" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A570" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A571" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A572" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A573" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A574" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A575" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A576" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A577" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A578" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A579" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A580" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A581" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A582" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A583" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A584" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A585" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A586" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A587" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A588" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A589" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A590" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A591" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A592" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A593" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A594" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A595" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A596" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A597" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A598" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A599" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A600" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A601" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A602" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A603" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A604" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A605" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A606" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A607" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A608" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A609" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A610" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A611" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A612" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A613" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A614" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A615" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A616" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A617" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A618" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A619" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A620" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="621" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A621" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A622" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A623" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="624" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A624" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A625" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="626" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A626" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A627" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A628" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A629" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A630" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A631" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A632" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A633" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A634" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A635" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="636" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A636" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A637" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A638" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A639" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A640" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A641" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A642" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A643" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="644" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A644" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A645" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A646" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A647" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="648" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A648" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="649" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A649" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="650" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A650" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="651" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A651" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="652" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A652" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A653" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="654" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A654" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="655" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A655" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A656" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A657" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="658" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A658" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="659" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A659" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="660" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A660" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="661" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A661" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="662" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A662" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="663" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A663" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="664" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A664" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="665" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A665" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="666" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A666" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="667" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A667" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="668" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A668" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="669" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A669" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="670" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A670" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="671" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A671" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="672" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A672" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="673" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A673" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="674" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A674" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="675" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A675" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="676" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A676" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A677" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="678" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A678" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="679" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A679" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="680" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A680" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="681" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A681" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="682" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A682" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="683" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A683" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="684" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A684" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="685" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A685" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="686" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A686" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="687" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A687" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="688" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A688" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="689" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A689" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="690" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A690" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="691" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A691" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="692" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A692" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="693" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A693" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="694" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A694" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="695" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A695" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="696" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A696" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="697" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A697" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="698" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A698" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="699" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A699" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="700" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A700" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="701" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A701" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="702" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A702" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="703" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A703" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="704" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A704" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="705" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A705" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="706" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A706" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="707" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A707" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="708" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A708" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="709" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A709" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="710" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A710" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="711" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A711" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="712" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A712" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="713" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A713" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="714" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A714" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="715" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A715" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="716" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A716" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="717" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A717" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="718" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A718" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="719" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A719" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="720" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A720" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="721" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A721" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="722" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A722" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="723" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A723" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="724" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A724" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="725" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A725" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="726" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A726" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="727" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A727" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="728" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A728" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="729" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A729" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="730" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A730" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="731" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A731" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="732" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A732" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="733" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A733" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="734" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A734" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="735" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A735" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="736" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A736" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="737" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A737" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="738" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A738" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="739" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A739" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="740" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A740" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="741" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A741" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="742" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A742" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="743" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A743" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="744" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A744" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="745" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A745" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="746" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A746" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="747" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A747" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="748" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A748" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="749" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A749" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="750" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A750" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="751" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A751" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="752" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A752" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="753" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A753" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="754" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A754" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="755" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A755" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="756" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A756" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="757" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A757" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="758" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A758" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="759" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A759" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="760" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A760" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="761" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A761" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="762" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A762" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="763" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A763" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="764" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A764" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="765" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A765" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="766" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A766" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="767" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A767" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="768" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A768" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="769" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A769" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="770" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A770" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="771" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A771" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="772" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A772" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="773" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A773" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="774" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A774" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="775" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A775" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="776" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A776" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="777" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A777" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="778" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A778" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="779" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A779" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="780" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A780" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="781" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A781" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="782" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A782" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="783" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A783" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="784" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A784" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="785" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A785" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="786" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A786" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="787" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A787" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="788" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A788" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="789" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A789" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="790" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A790" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="791" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A791" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="792" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A792" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="793" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A793" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="794" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A794" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="795" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A795" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="796" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A796" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="797" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A797" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="798" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A798" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="799" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A799" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="800" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A800" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="801" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A801" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="802" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A802" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="803" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A803" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="804" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A804" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="805" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A805" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="806" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A806" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="807" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A807" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="808" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A808" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="809" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A809" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="810" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A810" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="811" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A811" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="812" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A812" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="813" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A813" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="814" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A814" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="815" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A815" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="816" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A816" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="817" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A817" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="818" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A818" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="819" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A819" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="820" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A820" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="821" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A821" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="822" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A822" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="823" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A823" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="824" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A824" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="825" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A825" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="826" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A826" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="827" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A827" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="828" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A828" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="829" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A829" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="830" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A830" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="831" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A831" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="832" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A832" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="833" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A833" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="834" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A834" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="835" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A835" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="836" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A836" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="837" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A837" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="838" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A838" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="839" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A839" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="840" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A840" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="841" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A841" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="842" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A842" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="843" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A843" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="844" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A844" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="845" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A845" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="846" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A846" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="847" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A847" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="848" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A848" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="849" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A849" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="850" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A850" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="851" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A851" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="852" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A852" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="853" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A853" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="854" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A854" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="855" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A855" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="856" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A856" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="857" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A857" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="858" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A858" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="859" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A859" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="860" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A860" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="861" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A861" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="862" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A862" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="863" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A863" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="864" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A864" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="865" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A865" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="866" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A866" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="867" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A867" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="868" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A868" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="869" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A869" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="870" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A870" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="871" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A871" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="872" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A872" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="873" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A873" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="874" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A874" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="875" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A875" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="876" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A876" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="877" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A877" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="878" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A878" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="879" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A879" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="880" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A880" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="881" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A881" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="882" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A882" t="s">
+        <v>881</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>